--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>LYG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,91 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21136200</v>
+        <v>20766000</v>
       </c>
       <c r="E8" s="3">
-        <v>20692700</v>
+        <v>20135400</v>
       </c>
       <c r="F8" s="3">
-        <v>21486500</v>
+        <v>19713000</v>
       </c>
       <c r="G8" s="3">
-        <v>22772800</v>
+        <v>20469200</v>
       </c>
       <c r="H8" s="3">
-        <v>24836200</v>
+        <v>21694600</v>
       </c>
       <c r="I8" s="3">
-        <v>27359700</v>
+        <v>23660300</v>
       </c>
       <c r="J8" s="3">
+        <v>26064400</v>
+      </c>
+      <c r="K8" s="3">
         <v>30426300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34652600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +777,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +810,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +828,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +858,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +891,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,39 +924,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3109200</v>
+        <v>-3276100</v>
       </c>
       <c r="E15" s="3">
-        <v>-3064000</v>
+        <v>-2962000</v>
       </c>
       <c r="F15" s="3">
-        <v>-3076900</v>
+        <v>-2918900</v>
       </c>
       <c r="G15" s="3">
-        <v>-2730400</v>
+        <v>-2931200</v>
       </c>
       <c r="H15" s="3">
-        <v>-2501600</v>
+        <v>-2601100</v>
       </c>
       <c r="I15" s="3">
-        <v>-2508100</v>
+        <v>-2383100</v>
       </c>
       <c r="J15" s="3">
+        <v>-2389300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-2646400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-3737100</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +972,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5029000</v>
+        <v>9824500</v>
       </c>
       <c r="E17" s="3">
-        <v>7478900</v>
+        <v>4790900</v>
       </c>
       <c r="F17" s="3">
-        <v>10262300</v>
+        <v>7121100</v>
       </c>
       <c r="G17" s="3">
-        <v>8711000</v>
+        <v>9776400</v>
       </c>
       <c r="H17" s="3">
-        <v>12007600</v>
+        <v>8298500</v>
       </c>
       <c r="I17" s="3">
-        <v>21397300</v>
+        <v>11439100</v>
       </c>
       <c r="J17" s="3">
+        <v>20384200</v>
+      </c>
+      <c r="K17" s="3">
         <v>25350700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28557200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16107100</v>
+        <v>10941500</v>
       </c>
       <c r="E18" s="3">
-        <v>13213800</v>
+        <v>15344500</v>
       </c>
       <c r="F18" s="3">
-        <v>11224200</v>
+        <v>12591900</v>
       </c>
       <c r="G18" s="3">
-        <v>14061900</v>
+        <v>10692800</v>
       </c>
       <c r="H18" s="3">
-        <v>12828600</v>
+        <v>13396100</v>
       </c>
       <c r="I18" s="3">
-        <v>5962400</v>
+        <v>12221200</v>
       </c>
       <c r="J18" s="3">
+        <v>5680100</v>
+      </c>
+      <c r="K18" s="3">
         <v>5075600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6095400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1053,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8402000</v>
+        <v>-5531100</v>
       </c>
       <c r="E20" s="3">
-        <v>-6394200</v>
+        <v>-8004200</v>
       </c>
       <c r="F20" s="3">
-        <v>-5745200</v>
+        <v>-6095200</v>
       </c>
       <c r="G20" s="3">
-        <v>-11936500</v>
+        <v>-5473200</v>
       </c>
       <c r="H20" s="3">
-        <v>-10550600</v>
+        <v>-11371400</v>
       </c>
       <c r="I20" s="3">
-        <v>-5425900</v>
+        <v>-10051100</v>
       </c>
       <c r="J20" s="3">
+        <v>-5169000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5812500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6821000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10831600</v>
+        <v>8668900</v>
       </c>
       <c r="E21" s="3">
-        <v>9900600</v>
+        <v>10286400</v>
       </c>
       <c r="F21" s="3">
-        <v>8572900</v>
+        <v>9399900</v>
       </c>
       <c r="G21" s="3">
-        <v>4871000</v>
+        <v>8135000</v>
       </c>
       <c r="H21" s="3">
-        <v>4793400</v>
+        <v>4611900</v>
       </c>
       <c r="I21" s="3">
-        <v>3058500</v>
+        <v>4540400</v>
       </c>
       <c r="J21" s="3">
+        <v>2887600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2026900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2127900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1149,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7705100</v>
+        <v>5410400</v>
       </c>
       <c r="E23" s="3">
-        <v>6819600</v>
+        <v>7340300</v>
       </c>
       <c r="F23" s="3">
-        <v>5478900</v>
+        <v>6496700</v>
       </c>
       <c r="G23" s="3">
-        <v>2125400</v>
+        <v>5219500</v>
       </c>
       <c r="H23" s="3">
-        <v>2277900</v>
+        <v>2024800</v>
       </c>
       <c r="I23" s="3">
-        <v>536500</v>
+        <v>2170100</v>
       </c>
       <c r="J23" s="3">
+        <v>511100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-736900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-725600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2016800</v>
+        <v>1708200</v>
       </c>
       <c r="E24" s="3">
-        <v>2234000</v>
+        <v>1790700</v>
       </c>
       <c r="F24" s="3">
-        <v>2228800</v>
+        <v>2002600</v>
       </c>
       <c r="G24" s="3">
-        <v>889500</v>
+        <v>2123300</v>
       </c>
       <c r="H24" s="3">
-        <v>340000</v>
+        <v>847300</v>
       </c>
       <c r="I24" s="3">
-        <v>1573300</v>
+        <v>323900</v>
       </c>
       <c r="J24" s="3">
+        <v>1498900</v>
+      </c>
+      <c r="K24" s="3">
         <v>999300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1248,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5688400</v>
+        <v>3702200</v>
       </c>
       <c r="E26" s="3">
-        <v>4585600</v>
+        <v>5549600</v>
       </c>
       <c r="F26" s="3">
-        <v>3250100</v>
+        <v>4494100</v>
       </c>
       <c r="G26" s="3">
-        <v>1235900</v>
+        <v>3096200</v>
       </c>
       <c r="H26" s="3">
-        <v>1937900</v>
+        <v>1177400</v>
       </c>
       <c r="I26" s="3">
-        <v>-1036800</v>
+        <v>1846200</v>
       </c>
       <c r="J26" s="3">
+        <v>-987700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1736200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-729500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5138900</v>
+        <v>3028500</v>
       </c>
       <c r="E27" s="3">
-        <v>4064600</v>
+        <v>5026200</v>
       </c>
       <c r="F27" s="3">
-        <v>2704600</v>
+        <v>3997800</v>
       </c>
       <c r="G27" s="3">
-        <v>705900</v>
+        <v>2576500</v>
       </c>
       <c r="H27" s="3">
-        <v>1534600</v>
+        <v>672500</v>
       </c>
       <c r="I27" s="3">
-        <v>-1083400</v>
+        <v>1461900</v>
       </c>
       <c r="J27" s="3">
+        <v>-1032100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1844800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-825600</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1347,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1380,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1413,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1446,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8402000</v>
+        <v>5531100</v>
       </c>
       <c r="E32" s="3">
-        <v>6394200</v>
+        <v>8004200</v>
       </c>
       <c r="F32" s="3">
-        <v>5745200</v>
+        <v>6095200</v>
       </c>
       <c r="G32" s="3">
-        <v>11936500</v>
+        <v>5473200</v>
       </c>
       <c r="H32" s="3">
-        <v>10550600</v>
+        <v>11371400</v>
       </c>
       <c r="I32" s="3">
-        <v>5425900</v>
+        <v>10051100</v>
       </c>
       <c r="J32" s="3">
+        <v>5169000</v>
+      </c>
+      <c r="K32" s="3">
         <v>5812500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6821000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5138900</v>
+        <v>3028500</v>
       </c>
       <c r="E33" s="3">
-        <v>4064600</v>
+        <v>5026200</v>
       </c>
       <c r="F33" s="3">
-        <v>2704600</v>
+        <v>3997800</v>
       </c>
       <c r="G33" s="3">
-        <v>705900</v>
+        <v>2576500</v>
       </c>
       <c r="H33" s="3">
-        <v>1534600</v>
+        <v>672500</v>
       </c>
       <c r="I33" s="3">
-        <v>-1083400</v>
+        <v>1461900</v>
       </c>
       <c r="J33" s="3">
+        <v>-1032100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1844800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-825600</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1545,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5138900</v>
+        <v>3028500</v>
       </c>
       <c r="E35" s="3">
-        <v>4064600</v>
+        <v>5026200</v>
       </c>
       <c r="F35" s="3">
-        <v>2704600</v>
+        <v>3997800</v>
       </c>
       <c r="G35" s="3">
-        <v>705900</v>
+        <v>2576500</v>
       </c>
       <c r="H35" s="3">
-        <v>1534600</v>
+        <v>672500</v>
       </c>
       <c r="I35" s="3">
-        <v>-1083400</v>
+        <v>1461900</v>
       </c>
       <c r="J35" s="3">
+        <v>-1032100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1844800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-825600</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1634,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1649,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>79032100</v>
+        <v>78585600</v>
       </c>
       <c r="E41" s="3">
-        <v>84182600</v>
+        <v>75461300</v>
       </c>
       <c r="F41" s="3">
-        <v>95872200</v>
+        <v>80379200</v>
       </c>
       <c r="G41" s="3">
-        <v>107650000</v>
+        <v>91540600</v>
       </c>
       <c r="H41" s="3">
-        <v>98151400</v>
+        <v>102786000</v>
       </c>
       <c r="I41" s="3">
-        <v>98388000</v>
+        <v>93716900</v>
       </c>
       <c r="J41" s="3">
+        <v>93942800</v>
+      </c>
+      <c r="K41" s="3">
         <v>190135000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>168058000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>198296000</v>
+        <v>194524000</v>
       </c>
       <c r="E42" s="3">
-        <v>203747000</v>
+        <v>189337000</v>
       </c>
       <c r="F42" s="3">
-        <v>197828000</v>
+        <v>194541000</v>
       </c>
       <c r="G42" s="3">
-        <v>163318000</v>
+        <v>188890000</v>
       </c>
       <c r="H42" s="3">
-        <v>181654000</v>
+        <v>155939000</v>
       </c>
       <c r="I42" s="3">
-        <v>168888000</v>
+        <v>173447000</v>
       </c>
       <c r="J42" s="3">
+        <v>161257000</v>
+      </c>
+      <c r="K42" s="3">
         <v>220864000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>95065700</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1745,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1778,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1811,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1844,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>117600</v>
+        <v>375300</v>
       </c>
       <c r="E47" s="3">
-        <v>84000</v>
+        <v>112300</v>
       </c>
       <c r="F47" s="3">
-        <v>76300</v>
+        <v>80200</v>
       </c>
       <c r="G47" s="3">
-        <v>60800</v>
+        <v>72800</v>
       </c>
       <c r="H47" s="3">
-        <v>95700</v>
+        <v>58000</v>
       </c>
       <c r="I47" s="3">
-        <v>130600</v>
+        <v>91300</v>
       </c>
       <c r="J47" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K47" s="3">
         <v>404600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>439800</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15901600</v>
+        <v>16175600</v>
       </c>
       <c r="E48" s="3">
-        <v>16453600</v>
+        <v>15183100</v>
       </c>
       <c r="F48" s="3">
-        <v>16770300</v>
+        <v>15710200</v>
       </c>
       <c r="G48" s="3">
-        <v>16779400</v>
+        <v>16012600</v>
       </c>
       <c r="H48" s="3">
-        <v>16217000</v>
+        <v>16021300</v>
       </c>
       <c r="I48" s="3">
-        <v>16074800</v>
+        <v>15484300</v>
       </c>
       <c r="J48" s="3">
+        <v>15348500</v>
+      </c>
+      <c r="K48" s="3">
         <v>22811600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28268800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13469800</v>
+        <v>14430100</v>
       </c>
       <c r="E49" s="3">
-        <v>12907400</v>
+        <v>12861200</v>
       </c>
       <c r="F49" s="3">
-        <v>11297900</v>
+        <v>12324200</v>
       </c>
       <c r="G49" s="3">
-        <v>10924200</v>
+        <v>10787400</v>
       </c>
       <c r="H49" s="3">
-        <v>11570600</v>
+        <v>10430700</v>
       </c>
       <c r="I49" s="3">
-        <v>12449800</v>
+        <v>11047900</v>
       </c>
       <c r="J49" s="3">
+        <v>11887300</v>
+      </c>
+      <c r="K49" s="3">
         <v>22350100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19812400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1976,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2009,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14002400</v>
+        <v>4131500</v>
       </c>
       <c r="E52" s="3">
-        <v>13953300</v>
+        <v>13369800</v>
       </c>
       <c r="F52" s="3">
-        <v>12531200</v>
+        <v>13322900</v>
       </c>
       <c r="G52" s="3">
-        <v>16335900</v>
+        <v>11965000</v>
       </c>
       <c r="H52" s="3">
-        <v>23313200</v>
+        <v>15597900</v>
       </c>
       <c r="I52" s="3">
-        <v>19632600</v>
+        <v>22259900</v>
       </c>
       <c r="J52" s="3">
+        <v>18745600</v>
+      </c>
+      <c r="K52" s="3">
         <v>15522800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7765100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2075,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1031140000</v>
+        <v>1029360000</v>
       </c>
       <c r="E54" s="3">
-        <v>1049900000</v>
+        <v>984555000</v>
       </c>
       <c r="F54" s="3">
-        <v>1057250000</v>
+        <v>1002470000</v>
       </c>
       <c r="G54" s="3">
-        <v>1042890000</v>
+        <v>1009480000</v>
       </c>
       <c r="H54" s="3">
-        <v>1105220000</v>
+        <v>995776000</v>
       </c>
       <c r="I54" s="3">
-        <v>1089040000</v>
+        <v>1055280000</v>
       </c>
       <c r="J54" s="3">
+        <v>1039830000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1207770000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1290780000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2126,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,8 +2141,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2037,9 +2171,12 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,39 +2204,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>487400</v>
+        <v>230800</v>
       </c>
       <c r="E59" s="3">
-        <v>354200</v>
+        <v>465400</v>
       </c>
       <c r="F59" s="3">
-        <v>292200</v>
+        <v>338200</v>
       </c>
       <c r="G59" s="3">
-        <v>360700</v>
+        <v>279000</v>
       </c>
       <c r="H59" s="3">
-        <v>89200</v>
+        <v>344400</v>
       </c>
       <c r="I59" s="3">
-        <v>190000</v>
+        <v>85200</v>
       </c>
       <c r="J59" s="3">
+        <v>181500</v>
+      </c>
+      <c r="K59" s="3">
         <v>178400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>135600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2270,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>140689000</v>
+        <v>141733000</v>
       </c>
       <c r="E61" s="3">
-        <v>116834000</v>
+        <v>134332000</v>
       </c>
       <c r="F61" s="3">
-        <v>124297000</v>
+        <v>111555000</v>
       </c>
       <c r="G61" s="3">
-        <v>136221000</v>
+        <v>118681000</v>
       </c>
       <c r="H61" s="3">
-        <v>95156000</v>
+        <v>130066000</v>
       </c>
       <c r="I61" s="3">
-        <v>118070000</v>
+        <v>90856800</v>
       </c>
       <c r="J61" s="3">
+        <v>112735000</v>
+      </c>
+      <c r="K61" s="3">
         <v>145472000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>289764000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4902300</v>
+        <v>4473500</v>
       </c>
       <c r="E62" s="3">
-        <v>7632800</v>
+        <v>4680800</v>
       </c>
       <c r="F62" s="3">
-        <v>7356100</v>
+        <v>7287900</v>
       </c>
       <c r="G62" s="3">
-        <v>7866700</v>
+        <v>7023700</v>
       </c>
       <c r="H62" s="3">
-        <v>6085300</v>
+        <v>7511300</v>
       </c>
       <c r="I62" s="3">
-        <v>7222900</v>
+        <v>5810300</v>
       </c>
       <c r="J62" s="3">
+        <v>6896600</v>
+      </c>
+      <c r="K62" s="3">
         <v>8006400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5712200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2369,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2402,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2435,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>966599000</v>
+        <v>970596000</v>
       </c>
       <c r="E66" s="3">
-        <v>986677000</v>
+        <v>922928000</v>
       </c>
       <c r="F66" s="3">
-        <v>994711000</v>
+        <v>942098000</v>
       </c>
       <c r="G66" s="3">
-        <v>982664000</v>
+        <v>949770000</v>
       </c>
       <c r="H66" s="3">
-        <v>1042270000</v>
+        <v>938266000</v>
       </c>
       <c r="I66" s="3">
-        <v>1038630000</v>
+        <v>995181000</v>
       </c>
       <c r="J66" s="3">
+        <v>991706000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1153610000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1230860000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2486,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2516,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2549,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2582,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2615,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22531100</v>
+        <v>19097400</v>
       </c>
       <c r="E72" s="3">
-        <v>21701100</v>
+        <v>21513100</v>
       </c>
       <c r="F72" s="3">
-        <v>20014000</v>
+        <v>20720600</v>
       </c>
       <c r="G72" s="3">
-        <v>21340400</v>
+        <v>19109700</v>
       </c>
       <c r="H72" s="3">
-        <v>23159400</v>
+        <v>20376200</v>
       </c>
       <c r="I72" s="3">
-        <v>21085700</v>
+        <v>22113000</v>
       </c>
       <c r="J72" s="3">
+        <v>20133100</v>
+      </c>
+      <c r="K72" s="3">
         <v>22368200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26978400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2681,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2714,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2747,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64543500</v>
+        <v>58761100</v>
       </c>
       <c r="E76" s="3">
-        <v>63226200</v>
+        <v>61627400</v>
       </c>
       <c r="F76" s="3">
-        <v>62539700</v>
+        <v>60369600</v>
       </c>
       <c r="G76" s="3">
-        <v>60230700</v>
+        <v>59714100</v>
       </c>
       <c r="H76" s="3">
-        <v>62946900</v>
+        <v>57509500</v>
       </c>
       <c r="I76" s="3">
-        <v>50405400</v>
+        <v>60102900</v>
       </c>
       <c r="J76" s="3">
+        <v>48128000</v>
+      </c>
+      <c r="K76" s="3">
         <v>54163600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>59921800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2813,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5138900</v>
+        <v>3028500</v>
       </c>
       <c r="E81" s="3">
-        <v>4064600</v>
+        <v>5026200</v>
       </c>
       <c r="F81" s="3">
-        <v>2704600</v>
+        <v>3997800</v>
       </c>
       <c r="G81" s="3">
-        <v>705900</v>
+        <v>2576500</v>
       </c>
       <c r="H81" s="3">
-        <v>1534600</v>
+        <v>672500</v>
       </c>
       <c r="I81" s="3">
-        <v>-1083400</v>
+        <v>1461900</v>
       </c>
       <c r="J81" s="3">
+        <v>-1032100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1844800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-825600</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2902,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3109200</v>
+        <v>3276100</v>
       </c>
       <c r="E83" s="3">
-        <v>3064000</v>
+        <v>2962000</v>
       </c>
       <c r="F83" s="3">
-        <v>3076900</v>
+        <v>2918900</v>
       </c>
       <c r="G83" s="3">
-        <v>2730400</v>
+        <v>2931200</v>
       </c>
       <c r="H83" s="3">
-        <v>2501600</v>
+        <v>2601100</v>
       </c>
       <c r="I83" s="3">
-        <v>2508100</v>
+        <v>2383100</v>
       </c>
       <c r="J83" s="3">
+        <v>2389300</v>
+      </c>
+      <c r="K83" s="3">
         <v>2748500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2864000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2965,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2998,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3031,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3064,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3097,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-14359200</v>
+        <v>13893700</v>
       </c>
       <c r="E89" s="3">
-        <v>-4130500</v>
+        <v>-13679400</v>
       </c>
       <c r="F89" s="3">
-        <v>2681300</v>
+        <v>-3935000</v>
       </c>
       <c r="G89" s="3">
-        <v>21165900</v>
+        <v>2554300</v>
       </c>
       <c r="H89" s="3">
-        <v>13384500</v>
+        <v>20163800</v>
       </c>
       <c r="I89" s="3">
-        <v>-20078600</v>
+        <v>12750800</v>
       </c>
       <c r="J89" s="3">
+        <v>-19128000</v>
+      </c>
+      <c r="K89" s="3">
         <v>3941800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26194900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3148,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4542900</v>
+        <v>-4239200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4725200</v>
+        <v>-4327800</v>
       </c>
       <c r="F91" s="3">
-        <v>-4861000</v>
+        <v>-4501500</v>
       </c>
       <c r="G91" s="3">
-        <v>-4417500</v>
+        <v>-4630800</v>
       </c>
       <c r="H91" s="3">
-        <v>-4449900</v>
+        <v>-4208400</v>
       </c>
       <c r="I91" s="3">
-        <v>-3855200</v>
+        <v>-4239200</v>
       </c>
       <c r="J91" s="3">
+        <v>-3672600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3882300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4075500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3211,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3244,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>15411600</v>
+        <v>-2623300</v>
       </c>
       <c r="E94" s="3">
-        <v>8801500</v>
+        <v>14681900</v>
       </c>
       <c r="F94" s="3">
-        <v>-886900</v>
+        <v>8384700</v>
       </c>
       <c r="G94" s="3">
-        <v>-4279200</v>
+        <v>-844900</v>
       </c>
       <c r="H94" s="3">
-        <v>-9983100</v>
+        <v>-4076600</v>
       </c>
       <c r="I94" s="3">
-        <v>-20179500</v>
+        <v>-9510400</v>
       </c>
       <c r="J94" s="3">
+        <v>-19224000</v>
+      </c>
+      <c r="K94" s="3">
         <v>19692100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9128000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,25 +3295,26 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2895900</v>
+        <v>-2847500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2952800</v>
+        <v>-2758800</v>
       </c>
       <c r="F96" s="3">
-        <v>-2603700</v>
+        <v>-2813000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1383300</v>
+        <v>-2480400</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1317800</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3088,9 +3325,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3358,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3391,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3424,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5560400</v>
+        <v>-8078100</v>
       </c>
       <c r="E100" s="3">
-        <v>-6488600</v>
+        <v>-5297100</v>
       </c>
       <c r="F100" s="3">
-        <v>-14187300</v>
+        <v>-6181400</v>
       </c>
       <c r="G100" s="3">
-        <v>-8090400</v>
+        <v>-13515600</v>
       </c>
       <c r="H100" s="3">
-        <v>-5526800</v>
+        <v>-7707400</v>
       </c>
       <c r="I100" s="3">
-        <v>-3966300</v>
+        <v>-5265100</v>
       </c>
       <c r="J100" s="3">
+        <v>-3778500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4012900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4269000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3900</v>
+        <v>-6200</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="F101" s="3">
-        <v>27100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>2600</v>
+        <v>25900</v>
       </c>
       <c r="H101" s="3">
-        <v>-7800</v>
+        <v>2500</v>
       </c>
       <c r="I101" s="3">
-        <v>-68500</v>
+        <v>-7400</v>
       </c>
       <c r="J101" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7900</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4504200</v>
+        <v>3186100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1817700</v>
+        <v>-4290900</v>
       </c>
       <c r="F102" s="3">
-        <v>-12365700</v>
+        <v>-1731600</v>
       </c>
       <c r="G102" s="3">
-        <v>8798900</v>
+        <v>-11780300</v>
       </c>
       <c r="H102" s="3">
-        <v>-2133100</v>
+        <v>8382300</v>
       </c>
       <c r="I102" s="3">
-        <v>-44293000</v>
+        <v>-2032100</v>
       </c>
       <c r="J102" s="3">
+        <v>-42195800</v>
+      </c>
+      <c r="K102" s="3">
         <v>19610600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31061800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -665,11 +665,7 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -721,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20766000</v>
+        <v>22269800</v>
       </c>
       <c r="E8" s="3">
-        <v>20135400</v>
+        <v>21593600</v>
       </c>
       <c r="F8" s="3">
-        <v>19713000</v>
+        <v>21140600</v>
       </c>
       <c r="G8" s="3">
-        <v>20469200</v>
+        <v>21951500</v>
       </c>
       <c r="H8" s="3">
-        <v>21694600</v>
+        <v>23265700</v>
       </c>
       <c r="I8" s="3">
-        <v>23660300</v>
+        <v>25373700</v>
       </c>
       <c r="J8" s="3">
-        <v>26064400</v>
+        <v>27951900</v>
       </c>
       <c r="K8" s="3">
         <v>30426300</v>
@@ -934,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3276100</v>
+        <v>-3513300</v>
       </c>
       <c r="E15" s="3">
-        <v>-2962000</v>
+        <v>-3176500</v>
       </c>
       <c r="F15" s="3">
-        <v>-2918900</v>
+        <v>-3130300</v>
       </c>
       <c r="G15" s="3">
-        <v>-2931200</v>
+        <v>-3143500</v>
       </c>
       <c r="H15" s="3">
-        <v>-2601100</v>
+        <v>-2789500</v>
       </c>
       <c r="I15" s="3">
-        <v>-2383100</v>
+        <v>-2555700</v>
       </c>
       <c r="J15" s="3">
-        <v>-2389300</v>
+        <v>-2562300</v>
       </c>
       <c r="K15" s="3">
         <v>-2646400</v>
@@ -979,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9824500</v>
+        <v>10535900</v>
       </c>
       <c r="E17" s="3">
-        <v>4790900</v>
+        <v>5137900</v>
       </c>
       <c r="F17" s="3">
-        <v>7121100</v>
+        <v>7636800</v>
       </c>
       <c r="G17" s="3">
-        <v>9776400</v>
+        <v>10484400</v>
       </c>
       <c r="H17" s="3">
-        <v>8298500</v>
+        <v>8899500</v>
       </c>
       <c r="I17" s="3">
-        <v>11439100</v>
+        <v>12267500</v>
       </c>
       <c r="J17" s="3">
-        <v>20384200</v>
+        <v>21860400</v>
       </c>
       <c r="K17" s="3">
         <v>25350700</v>
@@ -1012,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10941500</v>
+        <v>11733900</v>
       </c>
       <c r="E18" s="3">
-        <v>15344500</v>
+        <v>16455700</v>
       </c>
       <c r="F18" s="3">
-        <v>12591900</v>
+        <v>13503800</v>
       </c>
       <c r="G18" s="3">
-        <v>10692800</v>
+        <v>11467100</v>
       </c>
       <c r="H18" s="3">
-        <v>13396100</v>
+        <v>14366200</v>
       </c>
       <c r="I18" s="3">
-        <v>12221200</v>
+        <v>13106200</v>
       </c>
       <c r="J18" s="3">
-        <v>5680100</v>
+        <v>6091500</v>
       </c>
       <c r="K18" s="3">
         <v>5075600</v>
@@ -1060,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5531100</v>
+        <v>-5931700</v>
       </c>
       <c r="E20" s="3">
-        <v>-8004200</v>
+        <v>-8583800</v>
       </c>
       <c r="F20" s="3">
-        <v>-6095200</v>
+        <v>-6536600</v>
       </c>
       <c r="G20" s="3">
-        <v>-5473200</v>
+        <v>-5869600</v>
       </c>
       <c r="H20" s="3">
-        <v>-11371400</v>
+        <v>-12194900</v>
       </c>
       <c r="I20" s="3">
-        <v>-10051100</v>
+        <v>-10779000</v>
       </c>
       <c r="J20" s="3">
-        <v>-5169000</v>
+        <v>-5543400</v>
       </c>
       <c r="K20" s="3">
         <v>-5812500</v>
@@ -1093,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8668900</v>
+        <v>9300100</v>
       </c>
       <c r="E21" s="3">
-        <v>10286400</v>
+        <v>11034500</v>
       </c>
       <c r="F21" s="3">
-        <v>9399900</v>
+        <v>10083700</v>
       </c>
       <c r="G21" s="3">
-        <v>8135000</v>
+        <v>8727200</v>
       </c>
       <c r="H21" s="3">
-        <v>4611900</v>
+        <v>4948600</v>
       </c>
       <c r="I21" s="3">
-        <v>4540400</v>
+        <v>4871700</v>
       </c>
       <c r="J21" s="3">
-        <v>2887600</v>
+        <v>3099200</v>
       </c>
       <c r="K21" s="3">
         <v>2026900</v>
@@ -1159,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5410400</v>
+        <v>5802200</v>
       </c>
       <c r="E23" s="3">
-        <v>7340300</v>
+        <v>7871900</v>
       </c>
       <c r="F23" s="3">
-        <v>6496700</v>
+        <v>6967200</v>
       </c>
       <c r="G23" s="3">
-        <v>5219500</v>
+        <v>5597500</v>
       </c>
       <c r="H23" s="3">
-        <v>2024800</v>
+        <v>2171400</v>
       </c>
       <c r="I23" s="3">
-        <v>2170100</v>
+        <v>2327200</v>
       </c>
       <c r="J23" s="3">
-        <v>511100</v>
+        <v>548100</v>
       </c>
       <c r="K23" s="3">
         <v>-736900</v>
@@ -1192,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1708200</v>
+        <v>1831900</v>
       </c>
       <c r="E24" s="3">
-        <v>1790700</v>
+        <v>1920400</v>
       </c>
       <c r="F24" s="3">
-        <v>2002600</v>
+        <v>2147600</v>
       </c>
       <c r="G24" s="3">
-        <v>2123300</v>
+        <v>2277000</v>
       </c>
       <c r="H24" s="3">
-        <v>847300</v>
+        <v>908700</v>
       </c>
       <c r="I24" s="3">
-        <v>323900</v>
+        <v>347400</v>
       </c>
       <c r="J24" s="3">
-        <v>1498900</v>
+        <v>1607400</v>
       </c>
       <c r="K24" s="3">
         <v>999300</v>
@@ -1258,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3702200</v>
+        <v>3970300</v>
       </c>
       <c r="E26" s="3">
-        <v>5549600</v>
+        <v>5951500</v>
       </c>
       <c r="F26" s="3">
-        <v>4494100</v>
+        <v>4819600</v>
       </c>
       <c r="G26" s="3">
-        <v>3096200</v>
+        <v>3320500</v>
       </c>
       <c r="H26" s="3">
-        <v>1177400</v>
+        <v>1262700</v>
       </c>
       <c r="I26" s="3">
-        <v>1846200</v>
+        <v>1979900</v>
       </c>
       <c r="J26" s="3">
-        <v>-987700</v>
+        <v>-1059300</v>
       </c>
       <c r="K26" s="3">
         <v>-1736200</v>
@@ -1291,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3028500</v>
+        <v>3247800</v>
       </c>
       <c r="E27" s="3">
-        <v>5026200</v>
+        <v>5390100</v>
       </c>
       <c r="F27" s="3">
-        <v>3997800</v>
+        <v>4287300</v>
       </c>
       <c r="G27" s="3">
-        <v>2576500</v>
+        <v>2763100</v>
       </c>
       <c r="H27" s="3">
-        <v>672500</v>
+        <v>721200</v>
       </c>
       <c r="I27" s="3">
-        <v>1461900</v>
+        <v>1567800</v>
       </c>
       <c r="J27" s="3">
-        <v>-1032100</v>
+        <v>-1106800</v>
       </c>
       <c r="K27" s="3">
         <v>-1844800</v>
@@ -1456,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5531100</v>
+        <v>5931700</v>
       </c>
       <c r="E32" s="3">
-        <v>8004200</v>
+        <v>8583800</v>
       </c>
       <c r="F32" s="3">
-        <v>6095200</v>
+        <v>6536600</v>
       </c>
       <c r="G32" s="3">
-        <v>5473200</v>
+        <v>5869600</v>
       </c>
       <c r="H32" s="3">
-        <v>11371400</v>
+        <v>12194900</v>
       </c>
       <c r="I32" s="3">
-        <v>10051100</v>
+        <v>10779000</v>
       </c>
       <c r="J32" s="3">
-        <v>5169000</v>
+        <v>5543400</v>
       </c>
       <c r="K32" s="3">
         <v>5812500</v>
@@ -1489,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3028500</v>
+        <v>3247800</v>
       </c>
       <c r="E33" s="3">
-        <v>5026200</v>
+        <v>5390100</v>
       </c>
       <c r="F33" s="3">
-        <v>3997800</v>
+        <v>4287300</v>
       </c>
       <c r="G33" s="3">
-        <v>2576500</v>
+        <v>2763100</v>
       </c>
       <c r="H33" s="3">
-        <v>672500</v>
+        <v>721200</v>
       </c>
       <c r="I33" s="3">
-        <v>1461900</v>
+        <v>1567800</v>
       </c>
       <c r="J33" s="3">
-        <v>-1032100</v>
+        <v>-1106800</v>
       </c>
       <c r="K33" s="3">
         <v>-1844800</v>
@@ -1555,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3028500</v>
+        <v>3247800</v>
       </c>
       <c r="E35" s="3">
-        <v>5026200</v>
+        <v>5390100</v>
       </c>
       <c r="F35" s="3">
-        <v>3997800</v>
+        <v>4287300</v>
       </c>
       <c r="G35" s="3">
-        <v>2576500</v>
+        <v>2763100</v>
       </c>
       <c r="H35" s="3">
-        <v>672500</v>
+        <v>721200</v>
       </c>
       <c r="I35" s="3">
-        <v>1461900</v>
+        <v>1567800</v>
       </c>
       <c r="J35" s="3">
-        <v>-1032100</v>
+        <v>-1106800</v>
       </c>
       <c r="K35" s="3">
         <v>-1844800</v>
@@ -1656,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78585600</v>
+        <v>84085500</v>
       </c>
       <c r="E41" s="3">
-        <v>75461300</v>
+        <v>80742500</v>
       </c>
       <c r="F41" s="3">
-        <v>80379200</v>
+        <v>86004600</v>
       </c>
       <c r="G41" s="3">
-        <v>91540600</v>
+        <v>97947100</v>
       </c>
       <c r="H41" s="3">
-        <v>102786000</v>
+        <v>109980000</v>
       </c>
       <c r="I41" s="3">
-        <v>93716900</v>
+        <v>100276000</v>
       </c>
       <c r="J41" s="3">
-        <v>93942800</v>
+        <v>100517000</v>
       </c>
       <c r="K41" s="3">
         <v>190135000</v>
@@ -1689,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>194524000</v>
+        <v>208138000</v>
       </c>
       <c r="E42" s="3">
-        <v>189337000</v>
+        <v>202588000</v>
       </c>
       <c r="F42" s="3">
-        <v>194541000</v>
+        <v>208157000</v>
       </c>
       <c r="G42" s="3">
-        <v>188890000</v>
+        <v>202110000</v>
       </c>
       <c r="H42" s="3">
-        <v>155939000</v>
+        <v>166853000</v>
       </c>
       <c r="I42" s="3">
-        <v>173447000</v>
+        <v>185586000</v>
       </c>
       <c r="J42" s="3">
-        <v>161257000</v>
+        <v>172543000</v>
       </c>
       <c r="K42" s="3">
         <v>220864000</v>
@@ -1854,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>375300</v>
+        <v>401500</v>
       </c>
       <c r="E47" s="3">
-        <v>112300</v>
+        <v>120200</v>
       </c>
       <c r="F47" s="3">
-        <v>80200</v>
+        <v>85900</v>
       </c>
       <c r="G47" s="3">
-        <v>72800</v>
+        <v>77900</v>
       </c>
       <c r="H47" s="3">
-        <v>58000</v>
+        <v>62100</v>
       </c>
       <c r="I47" s="3">
-        <v>91300</v>
+        <v>97700</v>
       </c>
       <c r="J47" s="3">
-        <v>124700</v>
+        <v>133400</v>
       </c>
       <c r="K47" s="3">
         <v>404600</v>
@@ -1887,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16175600</v>
+        <v>17307600</v>
       </c>
       <c r="E48" s="3">
-        <v>15183100</v>
+        <v>16245700</v>
       </c>
       <c r="F48" s="3">
-        <v>15710200</v>
+        <v>16809700</v>
       </c>
       <c r="G48" s="3">
-        <v>16012600</v>
+        <v>17133300</v>
       </c>
       <c r="H48" s="3">
-        <v>16021300</v>
+        <v>17142500</v>
       </c>
       <c r="I48" s="3">
-        <v>15484300</v>
+        <v>16568000</v>
       </c>
       <c r="J48" s="3">
-        <v>15348500</v>
+        <v>16422700</v>
       </c>
       <c r="K48" s="3">
         <v>22811600</v>
@@ -1920,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14430100</v>
+        <v>15440000</v>
       </c>
       <c r="E49" s="3">
-        <v>12861200</v>
+        <v>13761300</v>
       </c>
       <c r="F49" s="3">
-        <v>12324200</v>
+        <v>13186800</v>
       </c>
       <c r="G49" s="3">
-        <v>10787400</v>
+        <v>11542400</v>
       </c>
       <c r="H49" s="3">
-        <v>10430700</v>
+        <v>11160700</v>
       </c>
       <c r="I49" s="3">
-        <v>11047900</v>
+        <v>11821100</v>
       </c>
       <c r="J49" s="3">
-        <v>11887300</v>
+        <v>12719200</v>
       </c>
       <c r="K49" s="3">
         <v>22350100</v>
@@ -2019,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4131500</v>
+        <v>4420700</v>
       </c>
       <c r="E52" s="3">
-        <v>13369800</v>
+        <v>14305500</v>
       </c>
       <c r="F52" s="3">
-        <v>13322900</v>
+        <v>14255300</v>
       </c>
       <c r="G52" s="3">
-        <v>11965000</v>
+        <v>12802400</v>
       </c>
       <c r="H52" s="3">
-        <v>15597900</v>
+        <v>16689500</v>
       </c>
       <c r="I52" s="3">
-        <v>22259900</v>
+        <v>23817800</v>
       </c>
       <c r="J52" s="3">
-        <v>18745600</v>
+        <v>20057500</v>
       </c>
       <c r="K52" s="3">
         <v>15522800</v>
@@ -2085,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1029360000</v>
+        <v>1101400000</v>
       </c>
       <c r="E54" s="3">
-        <v>984555000</v>
+        <v>1053460000</v>
       </c>
       <c r="F54" s="3">
-        <v>1002470000</v>
+        <v>1072630000</v>
       </c>
       <c r="G54" s="3">
-        <v>1009480000</v>
+        <v>1080130000</v>
       </c>
       <c r="H54" s="3">
-        <v>995776000</v>
+        <v>1065470000</v>
       </c>
       <c r="I54" s="3">
-        <v>1055280000</v>
+        <v>1129140000</v>
       </c>
       <c r="J54" s="3">
-        <v>1039830000</v>
+        <v>1112610000</v>
       </c>
       <c r="K54" s="3">
         <v>1207770000</v>
@@ -2214,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>230800</v>
+        <v>247000</v>
       </c>
       <c r="E59" s="3">
-        <v>465400</v>
+        <v>497900</v>
       </c>
       <c r="F59" s="3">
-        <v>338200</v>
+        <v>361900</v>
       </c>
       <c r="G59" s="3">
-        <v>279000</v>
+        <v>298500</v>
       </c>
       <c r="H59" s="3">
-        <v>344400</v>
+        <v>368500</v>
       </c>
       <c r="I59" s="3">
-        <v>85200</v>
+        <v>91100</v>
       </c>
       <c r="J59" s="3">
-        <v>181500</v>
+        <v>194200</v>
       </c>
       <c r="K59" s="3">
         <v>178400</v>
@@ -2280,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>141733000</v>
+        <v>151652000</v>
       </c>
       <c r="E61" s="3">
-        <v>134332000</v>
+        <v>143734000</v>
       </c>
       <c r="F61" s="3">
-        <v>111555000</v>
+        <v>119362000</v>
       </c>
       <c r="G61" s="3">
-        <v>118681000</v>
+        <v>126987000</v>
       </c>
       <c r="H61" s="3">
-        <v>130066000</v>
+        <v>139169000</v>
       </c>
       <c r="I61" s="3">
-        <v>90856800</v>
+        <v>97215400</v>
       </c>
       <c r="J61" s="3">
-        <v>112735000</v>
+        <v>120625000</v>
       </c>
       <c r="K61" s="3">
         <v>145472000</v>
@@ -2313,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4473500</v>
+        <v>4786500</v>
       </c>
       <c r="E62" s="3">
-        <v>4680800</v>
+        <v>5008400</v>
       </c>
       <c r="F62" s="3">
-        <v>7287900</v>
+        <v>7797900</v>
       </c>
       <c r="G62" s="3">
-        <v>7023700</v>
+        <v>7515300</v>
       </c>
       <c r="H62" s="3">
-        <v>7511300</v>
+        <v>8037000</v>
       </c>
       <c r="I62" s="3">
-        <v>5810300</v>
+        <v>6217000</v>
       </c>
       <c r="J62" s="3">
-        <v>6896600</v>
+        <v>7379300</v>
       </c>
       <c r="K62" s="3">
         <v>8006400</v>
@@ -2445,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>970596000</v>
+        <v>1038520000</v>
       </c>
       <c r="E66" s="3">
-        <v>922928000</v>
+        <v>987519000</v>
       </c>
       <c r="F66" s="3">
-        <v>942098000</v>
+        <v>1008030000</v>
       </c>
       <c r="G66" s="3">
-        <v>949770000</v>
+        <v>1016240000</v>
       </c>
       <c r="H66" s="3">
-        <v>938266000</v>
+        <v>1003930000</v>
       </c>
       <c r="I66" s="3">
-        <v>995181000</v>
+        <v>1064830000</v>
       </c>
       <c r="J66" s="3">
-        <v>991706000</v>
+        <v>1061110000</v>
       </c>
       <c r="K66" s="3">
         <v>1153610000</v>
@@ -2625,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19097400</v>
+        <v>20433900</v>
       </c>
       <c r="E72" s="3">
-        <v>21513100</v>
+        <v>23018700</v>
       </c>
       <c r="F72" s="3">
-        <v>20720600</v>
+        <v>22170800</v>
       </c>
       <c r="G72" s="3">
-        <v>19109700</v>
+        <v>20447100</v>
       </c>
       <c r="H72" s="3">
-        <v>20376200</v>
+        <v>21802300</v>
       </c>
       <c r="I72" s="3">
-        <v>22113000</v>
+        <v>23660600</v>
       </c>
       <c r="J72" s="3">
-        <v>20133100</v>
+        <v>21542100</v>
       </c>
       <c r="K72" s="3">
         <v>22368200</v>
@@ -2757,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58761100</v>
+        <v>62873600</v>
       </c>
       <c r="E76" s="3">
-        <v>61627400</v>
+        <v>65940400</v>
       </c>
       <c r="F76" s="3">
-        <v>60369600</v>
+        <v>64594600</v>
       </c>
       <c r="G76" s="3">
-        <v>59714100</v>
+        <v>63893200</v>
       </c>
       <c r="H76" s="3">
-        <v>57509500</v>
+        <v>61534300</v>
       </c>
       <c r="I76" s="3">
-        <v>60102900</v>
+        <v>64309300</v>
       </c>
       <c r="J76" s="3">
-        <v>48128000</v>
+        <v>51496300</v>
       </c>
       <c r="K76" s="3">
         <v>54163600</v>
@@ -2861,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3028500</v>
+        <v>3247800</v>
       </c>
       <c r="E81" s="3">
-        <v>5026200</v>
+        <v>5390100</v>
       </c>
       <c r="F81" s="3">
-        <v>3997800</v>
+        <v>4287300</v>
       </c>
       <c r="G81" s="3">
-        <v>2576500</v>
+        <v>2763100</v>
       </c>
       <c r="H81" s="3">
-        <v>672500</v>
+        <v>721200</v>
       </c>
       <c r="I81" s="3">
-        <v>1461900</v>
+        <v>1567800</v>
       </c>
       <c r="J81" s="3">
-        <v>-1032100</v>
+        <v>-1106800</v>
       </c>
       <c r="K81" s="3">
         <v>-1844800</v>
@@ -2909,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3276100</v>
+        <v>3513300</v>
       </c>
       <c r="E83" s="3">
-        <v>2962000</v>
+        <v>3176500</v>
       </c>
       <c r="F83" s="3">
-        <v>2918900</v>
+        <v>3130300</v>
       </c>
       <c r="G83" s="3">
-        <v>2931200</v>
+        <v>3143500</v>
       </c>
       <c r="H83" s="3">
-        <v>2601100</v>
+        <v>2789500</v>
       </c>
       <c r="I83" s="3">
-        <v>2383100</v>
+        <v>2555700</v>
       </c>
       <c r="J83" s="3">
-        <v>2389300</v>
+        <v>2562300</v>
       </c>
       <c r="K83" s="3">
         <v>2748500</v>
@@ -3107,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13893700</v>
+        <v>14899800</v>
       </c>
       <c r="E89" s="3">
-        <v>-13679400</v>
+        <v>-14670000</v>
       </c>
       <c r="F89" s="3">
-        <v>-3935000</v>
+        <v>-4219900</v>
       </c>
       <c r="G89" s="3">
-        <v>2554300</v>
+        <v>2739300</v>
       </c>
       <c r="H89" s="3">
-        <v>20163800</v>
+        <v>21624000</v>
       </c>
       <c r="I89" s="3">
-        <v>12750800</v>
+        <v>13674100</v>
       </c>
       <c r="J89" s="3">
-        <v>-19128000</v>
+        <v>-20513200</v>
       </c>
       <c r="K89" s="3">
         <v>3941800</v>
@@ -3155,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4239200</v>
+        <v>-4546200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4327800</v>
+        <v>-4641300</v>
       </c>
       <c r="F91" s="3">
-        <v>-4501500</v>
+        <v>-4827500</v>
       </c>
       <c r="G91" s="3">
-        <v>-4630800</v>
+        <v>-4966200</v>
       </c>
       <c r="H91" s="3">
-        <v>-4208400</v>
+        <v>-4513100</v>
       </c>
       <c r="I91" s="3">
-        <v>-4239200</v>
+        <v>-4546200</v>
       </c>
       <c r="J91" s="3">
-        <v>-3672600</v>
+        <v>-3938600</v>
       </c>
       <c r="K91" s="3">
         <v>-3882300</v>
@@ -3254,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2623300</v>
+        <v>-2813300</v>
       </c>
       <c r="E94" s="3">
-        <v>14681900</v>
+        <v>15745100</v>
       </c>
       <c r="F94" s="3">
-        <v>8384700</v>
+        <v>8991900</v>
       </c>
       <c r="G94" s="3">
-        <v>-844900</v>
+        <v>-906100</v>
       </c>
       <c r="H94" s="3">
-        <v>-4076600</v>
+        <v>-4371800</v>
       </c>
       <c r="I94" s="3">
-        <v>-9510400</v>
+        <v>-10199100</v>
       </c>
       <c r="J94" s="3">
-        <v>-19224000</v>
+        <v>-20616200</v>
       </c>
       <c r="K94" s="3">
         <v>19692100</v>
@@ -3302,19 +3298,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2847500</v>
+        <v>-3053700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2758800</v>
+        <v>-2958600</v>
       </c>
       <c r="F96" s="3">
-        <v>-2813000</v>
+        <v>-3016700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2480400</v>
+        <v>-2660100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1317800</v>
+        <v>-1413200</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3434,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8078100</v>
+        <v>-8663100</v>
       </c>
       <c r="E100" s="3">
-        <v>-5297100</v>
+        <v>-5680700</v>
       </c>
       <c r="F100" s="3">
-        <v>-6181400</v>
+        <v>-6629000</v>
       </c>
       <c r="G100" s="3">
-        <v>-13515600</v>
+        <v>-14494300</v>
       </c>
       <c r="H100" s="3">
-        <v>-7707400</v>
+        <v>-8265500</v>
       </c>
       <c r="I100" s="3">
-        <v>-5265100</v>
+        <v>-5646400</v>
       </c>
       <c r="J100" s="3">
-        <v>-3778500</v>
+        <v>-4052200</v>
       </c>
       <c r="K100" s="3">
         <v>-4012900</v>
@@ -3467,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6200</v>
+        <v>-6600</v>
       </c>
       <c r="E101" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>25900</v>
+        <v>27700</v>
       </c>
       <c r="H101" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I101" s="3">
-        <v>-7400</v>
+        <v>-7900</v>
       </c>
       <c r="J101" s="3">
-        <v>-65300</v>
+        <v>-70000</v>
       </c>
       <c r="K101" s="3">
         <v>-10300</v>
@@ -3500,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3186100</v>
+        <v>3416900</v>
       </c>
       <c r="E102" s="3">
-        <v>-4290900</v>
+        <v>-4601600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1731600</v>
+        <v>-1857000</v>
       </c>
       <c r="G102" s="3">
-        <v>-11780300</v>
+        <v>-12633400</v>
       </c>
       <c r="H102" s="3">
-        <v>8382300</v>
+        <v>8989300</v>
       </c>
       <c r="I102" s="3">
-        <v>-2032100</v>
+        <v>-2179300</v>
       </c>
       <c r="J102" s="3">
-        <v>-42195800</v>
+        <v>-45251600</v>
       </c>
       <c r="K102" s="3">
         <v>19610600</v>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22269800</v>
+        <v>22448700</v>
       </c>
       <c r="E8" s="3">
-        <v>21593600</v>
+        <v>21767100</v>
       </c>
       <c r="F8" s="3">
-        <v>21140600</v>
+        <v>21310400</v>
       </c>
       <c r="G8" s="3">
-        <v>21951500</v>
+        <v>22127900</v>
       </c>
       <c r="H8" s="3">
-        <v>23265700</v>
+        <v>23452600</v>
       </c>
       <c r="I8" s="3">
-        <v>25373700</v>
+        <v>25577500</v>
       </c>
       <c r="J8" s="3">
-        <v>27951900</v>
+        <v>28176400</v>
       </c>
       <c r="K8" s="3">
         <v>30426300</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3513300</v>
+        <v>-3541500</v>
       </c>
       <c r="E15" s="3">
-        <v>-3176500</v>
+        <v>-3202000</v>
       </c>
       <c r="F15" s="3">
-        <v>-3130300</v>
+        <v>-3155400</v>
       </c>
       <c r="G15" s="3">
-        <v>-3143500</v>
+        <v>-3168700</v>
       </c>
       <c r="H15" s="3">
-        <v>-2789500</v>
+        <v>-2811900</v>
       </c>
       <c r="I15" s="3">
-        <v>-2555700</v>
+        <v>-2576300</v>
       </c>
       <c r="J15" s="3">
-        <v>-2562300</v>
+        <v>-2582900</v>
       </c>
       <c r="K15" s="3">
         <v>-2646400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10535900</v>
+        <v>10620600</v>
       </c>
       <c r="E17" s="3">
-        <v>5137900</v>
+        <v>5179100</v>
       </c>
       <c r="F17" s="3">
-        <v>7636800</v>
+        <v>7698200</v>
       </c>
       <c r="G17" s="3">
-        <v>10484400</v>
+        <v>10568700</v>
       </c>
       <c r="H17" s="3">
-        <v>8899500</v>
+        <v>8971000</v>
       </c>
       <c r="I17" s="3">
-        <v>12267500</v>
+        <v>12366000</v>
       </c>
       <c r="J17" s="3">
-        <v>21860400</v>
+        <v>22036000</v>
       </c>
       <c r="K17" s="3">
         <v>25350700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11733900</v>
+        <v>11828200</v>
       </c>
       <c r="E18" s="3">
-        <v>16455700</v>
+        <v>16587900</v>
       </c>
       <c r="F18" s="3">
-        <v>13503800</v>
+        <v>13612200</v>
       </c>
       <c r="G18" s="3">
-        <v>11467100</v>
+        <v>11559200</v>
       </c>
       <c r="H18" s="3">
-        <v>14366200</v>
+        <v>14481600</v>
       </c>
       <c r="I18" s="3">
-        <v>13106200</v>
+        <v>13211500</v>
       </c>
       <c r="J18" s="3">
-        <v>6091500</v>
+        <v>6140400</v>
       </c>
       <c r="K18" s="3">
         <v>5075600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5931700</v>
+        <v>-5979300</v>
       </c>
       <c r="E20" s="3">
-        <v>-8583800</v>
+        <v>-8652800</v>
       </c>
       <c r="F20" s="3">
-        <v>-6536600</v>
+        <v>-6589100</v>
       </c>
       <c r="G20" s="3">
-        <v>-5869600</v>
+        <v>-5916700</v>
       </c>
       <c r="H20" s="3">
-        <v>-12194900</v>
+        <v>-12292800</v>
       </c>
       <c r="I20" s="3">
-        <v>-10779000</v>
+        <v>-10865600</v>
       </c>
       <c r="J20" s="3">
-        <v>-5543400</v>
+        <v>-5587900</v>
       </c>
       <c r="K20" s="3">
         <v>-5812500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9300100</v>
+        <v>9401300</v>
       </c>
       <c r="E21" s="3">
-        <v>11034500</v>
+        <v>11147000</v>
       </c>
       <c r="F21" s="3">
-        <v>10083700</v>
+        <v>10188300</v>
       </c>
       <c r="G21" s="3">
-        <v>8727200</v>
+        <v>8821000</v>
       </c>
       <c r="H21" s="3">
-        <v>4948600</v>
+        <v>5009400</v>
       </c>
       <c r="I21" s="3">
-        <v>4871700</v>
+        <v>4930100</v>
       </c>
       <c r="J21" s="3">
-        <v>3099200</v>
+        <v>3143400</v>
       </c>
       <c r="K21" s="3">
         <v>2026900</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5802200</v>
+        <v>5848800</v>
       </c>
       <c r="E23" s="3">
-        <v>7871900</v>
+        <v>7935100</v>
       </c>
       <c r="F23" s="3">
-        <v>6967200</v>
+        <v>7023100</v>
       </c>
       <c r="G23" s="3">
-        <v>5597500</v>
+        <v>5642500</v>
       </c>
       <c r="H23" s="3">
-        <v>2171400</v>
+        <v>2188800</v>
       </c>
       <c r="I23" s="3">
-        <v>2327200</v>
+        <v>2345900</v>
       </c>
       <c r="J23" s="3">
-        <v>548100</v>
+        <v>552500</v>
       </c>
       <c r="K23" s="3">
         <v>-736900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1831900</v>
+        <v>1846700</v>
       </c>
       <c r="E24" s="3">
-        <v>1920400</v>
+        <v>1935900</v>
       </c>
       <c r="F24" s="3">
-        <v>2147600</v>
+        <v>2164900</v>
       </c>
       <c r="G24" s="3">
-        <v>2277000</v>
+        <v>2295300</v>
       </c>
       <c r="H24" s="3">
-        <v>908700</v>
+        <v>916000</v>
       </c>
       <c r="I24" s="3">
-        <v>347400</v>
+        <v>350200</v>
       </c>
       <c r="J24" s="3">
-        <v>1607400</v>
+        <v>1620300</v>
       </c>
       <c r="K24" s="3">
         <v>999300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3970300</v>
+        <v>4002200</v>
       </c>
       <c r="E26" s="3">
-        <v>5951500</v>
+        <v>5999300</v>
       </c>
       <c r="F26" s="3">
-        <v>4819600</v>
+        <v>4858300</v>
       </c>
       <c r="G26" s="3">
-        <v>3320500</v>
+        <v>3347100</v>
       </c>
       <c r="H26" s="3">
-        <v>1262700</v>
+        <v>1272800</v>
       </c>
       <c r="I26" s="3">
-        <v>1979900</v>
+        <v>1995800</v>
       </c>
       <c r="J26" s="3">
-        <v>-1059300</v>
+        <v>-1067800</v>
       </c>
       <c r="K26" s="3">
         <v>-1736200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3247800</v>
+        <v>3273900</v>
       </c>
       <c r="E27" s="3">
-        <v>5390100</v>
+        <v>5433400</v>
       </c>
       <c r="F27" s="3">
-        <v>4287300</v>
+        <v>4321700</v>
       </c>
       <c r="G27" s="3">
-        <v>2763100</v>
+        <v>2785300</v>
       </c>
       <c r="H27" s="3">
-        <v>721200</v>
+        <v>726900</v>
       </c>
       <c r="I27" s="3">
-        <v>1567800</v>
+        <v>1580400</v>
       </c>
       <c r="J27" s="3">
-        <v>-1106800</v>
+        <v>-1115700</v>
       </c>
       <c r="K27" s="3">
         <v>-1844800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5931700</v>
+        <v>5979300</v>
       </c>
       <c r="E32" s="3">
-        <v>8583800</v>
+        <v>8652800</v>
       </c>
       <c r="F32" s="3">
-        <v>6536600</v>
+        <v>6589100</v>
       </c>
       <c r="G32" s="3">
-        <v>5869600</v>
+        <v>5916700</v>
       </c>
       <c r="H32" s="3">
-        <v>12194900</v>
+        <v>12292800</v>
       </c>
       <c r="I32" s="3">
-        <v>10779000</v>
+        <v>10865600</v>
       </c>
       <c r="J32" s="3">
-        <v>5543400</v>
+        <v>5587900</v>
       </c>
       <c r="K32" s="3">
         <v>5812500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3247800</v>
+        <v>3273900</v>
       </c>
       <c r="E33" s="3">
-        <v>5390100</v>
+        <v>5433400</v>
       </c>
       <c r="F33" s="3">
-        <v>4287300</v>
+        <v>4321700</v>
       </c>
       <c r="G33" s="3">
-        <v>2763100</v>
+        <v>2785300</v>
       </c>
       <c r="H33" s="3">
-        <v>721200</v>
+        <v>726900</v>
       </c>
       <c r="I33" s="3">
-        <v>1567800</v>
+        <v>1580400</v>
       </c>
       <c r="J33" s="3">
-        <v>-1106800</v>
+        <v>-1115700</v>
       </c>
       <c r="K33" s="3">
         <v>-1844800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3247800</v>
+        <v>3273900</v>
       </c>
       <c r="E35" s="3">
-        <v>5390100</v>
+        <v>5433400</v>
       </c>
       <c r="F35" s="3">
-        <v>4287300</v>
+        <v>4321700</v>
       </c>
       <c r="G35" s="3">
-        <v>2763100</v>
+        <v>2785300</v>
       </c>
       <c r="H35" s="3">
-        <v>721200</v>
+        <v>726900</v>
       </c>
       <c r="I35" s="3">
-        <v>1567800</v>
+        <v>1580400</v>
       </c>
       <c r="J35" s="3">
-        <v>-1106800</v>
+        <v>-1115700</v>
       </c>
       <c r="K35" s="3">
         <v>-1844800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>84085500</v>
+        <v>84760900</v>
       </c>
       <c r="E41" s="3">
-        <v>80742500</v>
+        <v>81391100</v>
       </c>
       <c r="F41" s="3">
-        <v>86004600</v>
+        <v>86695400</v>
       </c>
       <c r="G41" s="3">
-        <v>97947100</v>
+        <v>98734000</v>
       </c>
       <c r="H41" s="3">
-        <v>109980000</v>
+        <v>110863000</v>
       </c>
       <c r="I41" s="3">
-        <v>100276000</v>
+        <v>101081000</v>
       </c>
       <c r="J41" s="3">
-        <v>100517000</v>
+        <v>101325000</v>
       </c>
       <c r="K41" s="3">
         <v>190135000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>208138000</v>
+        <v>209810000</v>
       </c>
       <c r="E42" s="3">
-        <v>202588000</v>
+        <v>204216000</v>
       </c>
       <c r="F42" s="3">
-        <v>208157000</v>
+        <v>209829000</v>
       </c>
       <c r="G42" s="3">
-        <v>202110000</v>
+        <v>203734000</v>
       </c>
       <c r="H42" s="3">
-        <v>166853000</v>
+        <v>168193000</v>
       </c>
       <c r="I42" s="3">
-        <v>185586000</v>
+        <v>187076000</v>
       </c>
       <c r="J42" s="3">
-        <v>172543000</v>
+        <v>173929000</v>
       </c>
       <c r="K42" s="3">
         <v>220864000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>401500</v>
+        <v>404700</v>
       </c>
       <c r="E47" s="3">
-        <v>120200</v>
+        <v>121200</v>
       </c>
       <c r="F47" s="3">
-        <v>85900</v>
+        <v>86500</v>
       </c>
       <c r="G47" s="3">
-        <v>77900</v>
+        <v>78600</v>
       </c>
       <c r="H47" s="3">
-        <v>62100</v>
+        <v>62600</v>
       </c>
       <c r="I47" s="3">
-        <v>97700</v>
+        <v>98500</v>
       </c>
       <c r="J47" s="3">
-        <v>133400</v>
+        <v>134500</v>
       </c>
       <c r="K47" s="3">
         <v>404600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17307600</v>
+        <v>17446700</v>
       </c>
       <c r="E48" s="3">
-        <v>16245700</v>
+        <v>16376200</v>
       </c>
       <c r="F48" s="3">
-        <v>16809700</v>
+        <v>16944700</v>
       </c>
       <c r="G48" s="3">
-        <v>17133300</v>
+        <v>17270900</v>
       </c>
       <c r="H48" s="3">
-        <v>17142500</v>
+        <v>17280200</v>
       </c>
       <c r="I48" s="3">
-        <v>16568000</v>
+        <v>16701100</v>
       </c>
       <c r="J48" s="3">
-        <v>16422700</v>
+        <v>16554600</v>
       </c>
       <c r="K48" s="3">
         <v>22811600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15440000</v>
+        <v>15564100</v>
       </c>
       <c r="E49" s="3">
-        <v>13761300</v>
+        <v>13871900</v>
       </c>
       <c r="F49" s="3">
-        <v>13186800</v>
+        <v>13292700</v>
       </c>
       <c r="G49" s="3">
-        <v>11542400</v>
+        <v>11635100</v>
       </c>
       <c r="H49" s="3">
-        <v>11160700</v>
+        <v>11250300</v>
       </c>
       <c r="I49" s="3">
-        <v>11821100</v>
+        <v>11916000</v>
       </c>
       <c r="J49" s="3">
-        <v>12719200</v>
+        <v>12821400</v>
       </c>
       <c r="K49" s="3">
         <v>22350100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4420700</v>
+        <v>4456200</v>
       </c>
       <c r="E52" s="3">
-        <v>14305500</v>
+        <v>14420400</v>
       </c>
       <c r="F52" s="3">
-        <v>14255300</v>
+        <v>14369800</v>
       </c>
       <c r="G52" s="3">
-        <v>12802400</v>
+        <v>12905300</v>
       </c>
       <c r="H52" s="3">
-        <v>16689500</v>
+        <v>16823600</v>
       </c>
       <c r="I52" s="3">
-        <v>23817800</v>
+        <v>24009100</v>
       </c>
       <c r="J52" s="3">
-        <v>20057500</v>
+        <v>20218600</v>
       </c>
       <c r="K52" s="3">
         <v>15522800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1101400000</v>
+        <v>1110250000</v>
       </c>
       <c r="E54" s="3">
-        <v>1053460000</v>
+        <v>1061920000</v>
       </c>
       <c r="F54" s="3">
-        <v>1072630000</v>
+        <v>1081240000</v>
       </c>
       <c r="G54" s="3">
-        <v>1080130000</v>
+        <v>1088810000</v>
       </c>
       <c r="H54" s="3">
-        <v>1065470000</v>
+        <v>1074020000</v>
       </c>
       <c r="I54" s="3">
-        <v>1129140000</v>
+        <v>1138210000</v>
       </c>
       <c r="J54" s="3">
-        <v>1112610000</v>
+        <v>1121540000</v>
       </c>
       <c r="K54" s="3">
         <v>1207770000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>247000</v>
+        <v>249000</v>
       </c>
       <c r="E59" s="3">
-        <v>497900</v>
+        <v>501900</v>
       </c>
       <c r="F59" s="3">
-        <v>361900</v>
+        <v>364800</v>
       </c>
       <c r="G59" s="3">
-        <v>298500</v>
+        <v>300900</v>
       </c>
       <c r="H59" s="3">
-        <v>368500</v>
+        <v>371500</v>
       </c>
       <c r="I59" s="3">
-        <v>91100</v>
+        <v>91900</v>
       </c>
       <c r="J59" s="3">
-        <v>194200</v>
+        <v>195700</v>
       </c>
       <c r="K59" s="3">
         <v>178400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>151652000</v>
+        <v>152870000</v>
       </c>
       <c r="E61" s="3">
-        <v>143734000</v>
+        <v>144888000</v>
       </c>
       <c r="F61" s="3">
-        <v>119362000</v>
+        <v>120321000</v>
       </c>
       <c r="G61" s="3">
-        <v>126987000</v>
+        <v>128008000</v>
       </c>
       <c r="H61" s="3">
-        <v>139169000</v>
+        <v>140287000</v>
       </c>
       <c r="I61" s="3">
-        <v>97215400</v>
+        <v>97996400</v>
       </c>
       <c r="J61" s="3">
-        <v>120625000</v>
+        <v>121594000</v>
       </c>
       <c r="K61" s="3">
         <v>145472000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4786500</v>
+        <v>4825000</v>
       </c>
       <c r="E62" s="3">
-        <v>5008400</v>
+        <v>5048700</v>
       </c>
       <c r="F62" s="3">
-        <v>7797900</v>
+        <v>7860600</v>
       </c>
       <c r="G62" s="3">
-        <v>7515300</v>
+        <v>7575700</v>
       </c>
       <c r="H62" s="3">
-        <v>8037000</v>
+        <v>8101600</v>
       </c>
       <c r="I62" s="3">
-        <v>6217000</v>
+        <v>6266900</v>
       </c>
       <c r="J62" s="3">
-        <v>7379300</v>
+        <v>7438500</v>
       </c>
       <c r="K62" s="3">
         <v>8006400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1038520000</v>
+        <v>1046870000</v>
       </c>
       <c r="E66" s="3">
-        <v>987519000</v>
+        <v>995452000</v>
       </c>
       <c r="F66" s="3">
-        <v>1008030000</v>
+        <v>1016130000</v>
       </c>
       <c r="G66" s="3">
-        <v>1016240000</v>
+        <v>1024400000</v>
       </c>
       <c r="H66" s="3">
-        <v>1003930000</v>
+        <v>1012000000</v>
       </c>
       <c r="I66" s="3">
-        <v>1064830000</v>
+        <v>1073380000</v>
       </c>
       <c r="J66" s="3">
-        <v>1061110000</v>
+        <v>1069630000</v>
       </c>
       <c r="K66" s="3">
         <v>1153610000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20433900</v>
+        <v>20598100</v>
       </c>
       <c r="E72" s="3">
-        <v>23018700</v>
+        <v>23203600</v>
       </c>
       <c r="F72" s="3">
-        <v>22170800</v>
+        <v>22348900</v>
       </c>
       <c r="G72" s="3">
-        <v>20447100</v>
+        <v>20611400</v>
       </c>
       <c r="H72" s="3">
-        <v>21802300</v>
+        <v>21977400</v>
       </c>
       <c r="I72" s="3">
-        <v>23660600</v>
+        <v>23850700</v>
       </c>
       <c r="J72" s="3">
-        <v>21542100</v>
+        <v>21715100</v>
       </c>
       <c r="K72" s="3">
         <v>22368200</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>62873600</v>
+        <v>63378600</v>
       </c>
       <c r="E76" s="3">
-        <v>65940400</v>
+        <v>66470100</v>
       </c>
       <c r="F76" s="3">
-        <v>64594600</v>
+        <v>65113400</v>
       </c>
       <c r="G76" s="3">
-        <v>63893200</v>
+        <v>64406500</v>
       </c>
       <c r="H76" s="3">
-        <v>61534300</v>
+        <v>62028600</v>
       </c>
       <c r="I76" s="3">
-        <v>64309300</v>
+        <v>64825900</v>
       </c>
       <c r="J76" s="3">
-        <v>51496300</v>
+        <v>51910000</v>
       </c>
       <c r="K76" s="3">
         <v>54163600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3247800</v>
+        <v>3273900</v>
       </c>
       <c r="E81" s="3">
-        <v>5390100</v>
+        <v>5433400</v>
       </c>
       <c r="F81" s="3">
-        <v>4287300</v>
+        <v>4321700</v>
       </c>
       <c r="G81" s="3">
-        <v>2763100</v>
+        <v>2785300</v>
       </c>
       <c r="H81" s="3">
-        <v>721200</v>
+        <v>726900</v>
       </c>
       <c r="I81" s="3">
-        <v>1567800</v>
+        <v>1580400</v>
       </c>
       <c r="J81" s="3">
-        <v>-1106800</v>
+        <v>-1115700</v>
       </c>
       <c r="K81" s="3">
         <v>-1844800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3513300</v>
+        <v>3541500</v>
       </c>
       <c r="E83" s="3">
-        <v>3176500</v>
+        <v>3202000</v>
       </c>
       <c r="F83" s="3">
-        <v>3130300</v>
+        <v>3155400</v>
       </c>
       <c r="G83" s="3">
-        <v>3143500</v>
+        <v>3168700</v>
       </c>
       <c r="H83" s="3">
-        <v>2789500</v>
+        <v>2811900</v>
       </c>
       <c r="I83" s="3">
-        <v>2555700</v>
+        <v>2576300</v>
       </c>
       <c r="J83" s="3">
-        <v>2562300</v>
+        <v>2582900</v>
       </c>
       <c r="K83" s="3">
         <v>2748500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14899800</v>
+        <v>15019500</v>
       </c>
       <c r="E89" s="3">
-        <v>-14670000</v>
+        <v>-14787900</v>
       </c>
       <c r="F89" s="3">
-        <v>-4219900</v>
+        <v>-4253800</v>
       </c>
       <c r="G89" s="3">
-        <v>2739300</v>
+        <v>2761300</v>
       </c>
       <c r="H89" s="3">
-        <v>21624000</v>
+        <v>21797700</v>
       </c>
       <c r="I89" s="3">
-        <v>13674100</v>
+        <v>13784000</v>
       </c>
       <c r="J89" s="3">
-        <v>-20513200</v>
+        <v>-20678000</v>
       </c>
       <c r="K89" s="3">
         <v>3941800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4546200</v>
+        <v>-4582700</v>
       </c>
       <c r="E91" s="3">
-        <v>-4641300</v>
+        <v>-4678500</v>
       </c>
       <c r="F91" s="3">
-        <v>-4827500</v>
+        <v>-4866300</v>
       </c>
       <c r="G91" s="3">
-        <v>-4966200</v>
+        <v>-5006100</v>
       </c>
       <c r="H91" s="3">
-        <v>-4513100</v>
+        <v>-4549400</v>
       </c>
       <c r="I91" s="3">
-        <v>-4546200</v>
+        <v>-4582700</v>
       </c>
       <c r="J91" s="3">
-        <v>-3938600</v>
+        <v>-3970200</v>
       </c>
       <c r="K91" s="3">
         <v>-3882300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2813300</v>
+        <v>-2835900</v>
       </c>
       <c r="E94" s="3">
-        <v>15745100</v>
+        <v>15871600</v>
       </c>
       <c r="F94" s="3">
-        <v>8991900</v>
+        <v>9064200</v>
       </c>
       <c r="G94" s="3">
-        <v>-906100</v>
+        <v>-913300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4371800</v>
+        <v>-4406900</v>
       </c>
       <c r="I94" s="3">
-        <v>-10199100</v>
+        <v>-10281100</v>
       </c>
       <c r="J94" s="3">
-        <v>-20616200</v>
+        <v>-20781800</v>
       </c>
       <c r="K94" s="3">
         <v>19692100</v>
@@ -3298,19 +3298,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3053700</v>
+        <v>-3078200</v>
       </c>
       <c r="E96" s="3">
-        <v>-2958600</v>
+        <v>-2982300</v>
       </c>
       <c r="F96" s="3">
-        <v>-3016700</v>
+        <v>-3040900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2660100</v>
+        <v>-2681400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1413200</v>
+        <v>-1424600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8663100</v>
+        <v>-8732700</v>
       </c>
       <c r="E100" s="3">
-        <v>-5680700</v>
+        <v>-5726400</v>
       </c>
       <c r="F100" s="3">
-        <v>-6629000</v>
+        <v>-6682300</v>
       </c>
       <c r="G100" s="3">
-        <v>-14494300</v>
+        <v>-14610800</v>
       </c>
       <c r="H100" s="3">
-        <v>-8265500</v>
+        <v>-8331900</v>
       </c>
       <c r="I100" s="3">
-        <v>-5646400</v>
+        <v>-5691700</v>
       </c>
       <c r="J100" s="3">
-        <v>-4052200</v>
+        <v>-4084700</v>
       </c>
       <c r="K100" s="3">
         <v>-4012900</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="E101" s="3">
         <v>4000</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>27700</v>
+        <v>28000</v>
       </c>
       <c r="H101" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I101" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="J101" s="3">
-        <v>-70000</v>
+        <v>-70600</v>
       </c>
       <c r="K101" s="3">
         <v>-10300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3416900</v>
+        <v>3444300</v>
       </c>
       <c r="E102" s="3">
-        <v>-4601600</v>
+        <v>-4638600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1857000</v>
+        <v>-1871900</v>
       </c>
       <c r="G102" s="3">
-        <v>-12633400</v>
+        <v>-12734800</v>
       </c>
       <c r="H102" s="3">
-        <v>8989300</v>
+        <v>9061500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2179300</v>
+        <v>-2196800</v>
       </c>
       <c r="J102" s="3">
-        <v>-45251600</v>
+        <v>-45615100</v>
       </c>
       <c r="K102" s="3">
         <v>19610600</v>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>LYG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22448700</v>
+        <v>19644900</v>
       </c>
       <c r="E8" s="3">
-        <v>21767100</v>
+        <v>23153400</v>
       </c>
       <c r="F8" s="3">
-        <v>21310400</v>
+        <v>22450300</v>
       </c>
       <c r="G8" s="3">
-        <v>22127900</v>
+        <v>21979300</v>
       </c>
       <c r="H8" s="3">
-        <v>23452600</v>
+        <v>22822400</v>
       </c>
       <c r="I8" s="3">
-        <v>25577500</v>
+        <v>24188700</v>
       </c>
       <c r="J8" s="3">
+        <v>26380400</v>
+      </c>
+      <c r="K8" s="3">
         <v>28176400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30426300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34652600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3541500</v>
+        <v>-3751600</v>
       </c>
       <c r="E15" s="3">
-        <v>-3202000</v>
+        <v>-3652700</v>
       </c>
       <c r="F15" s="3">
-        <v>-3155400</v>
+        <v>-3302500</v>
       </c>
       <c r="G15" s="3">
-        <v>-3168700</v>
+        <v>-3254500</v>
       </c>
       <c r="H15" s="3">
-        <v>-2811900</v>
+        <v>-3268200</v>
       </c>
       <c r="I15" s="3">
-        <v>-2576300</v>
+        <v>-2900200</v>
       </c>
       <c r="J15" s="3">
+        <v>-2657100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-2582900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-2646400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-3737100</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10620600</v>
+        <v>10590000</v>
       </c>
       <c r="E17" s="3">
-        <v>5179100</v>
+        <v>10953900</v>
       </c>
       <c r="F17" s="3">
-        <v>7698200</v>
+        <v>5341700</v>
       </c>
       <c r="G17" s="3">
-        <v>10568700</v>
+        <v>7939800</v>
       </c>
       <c r="H17" s="3">
-        <v>8971000</v>
+        <v>10900400</v>
       </c>
       <c r="I17" s="3">
-        <v>12366000</v>
+        <v>9252600</v>
       </c>
       <c r="J17" s="3">
+        <v>12754200</v>
+      </c>
+      <c r="K17" s="3">
         <v>22036000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25350700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28557200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11828200</v>
+        <v>9054800</v>
       </c>
       <c r="E18" s="3">
-        <v>16587900</v>
+        <v>12199400</v>
       </c>
       <c r="F18" s="3">
-        <v>13612200</v>
+        <v>17108600</v>
       </c>
       <c r="G18" s="3">
-        <v>11559200</v>
+        <v>14039500</v>
       </c>
       <c r="H18" s="3">
-        <v>14481600</v>
+        <v>11922000</v>
       </c>
       <c r="I18" s="3">
-        <v>13211500</v>
+        <v>14936200</v>
       </c>
       <c r="J18" s="3">
+        <v>13626200</v>
+      </c>
+      <c r="K18" s="3">
         <v>6140400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5075600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6095400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5979300</v>
+        <v>-7371300</v>
       </c>
       <c r="E20" s="3">
-        <v>-8652800</v>
+        <v>-6167000</v>
       </c>
       <c r="F20" s="3">
-        <v>-6589100</v>
+        <v>-8924400</v>
       </c>
       <c r="G20" s="3">
-        <v>-5916700</v>
+        <v>-6795900</v>
       </c>
       <c r="H20" s="3">
-        <v>-12292800</v>
+        <v>-6102500</v>
       </c>
       <c r="I20" s="3">
-        <v>-10865600</v>
+        <v>-12678700</v>
       </c>
       <c r="J20" s="3">
+        <v>-11206600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5587900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5812500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6821000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9401300</v>
+        <v>5421800</v>
       </c>
       <c r="E21" s="3">
-        <v>11147000</v>
+        <v>9672100</v>
       </c>
       <c r="F21" s="3">
-        <v>10188300</v>
+        <v>11475000</v>
       </c>
       <c r="G21" s="3">
-        <v>8821000</v>
+        <v>10486500</v>
       </c>
       <c r="H21" s="3">
-        <v>5009400</v>
+        <v>9076200</v>
       </c>
       <c r="I21" s="3">
-        <v>4930100</v>
+        <v>5147400</v>
       </c>
       <c r="J21" s="3">
+        <v>5067200</v>
+      </c>
+      <c r="K21" s="3">
         <v>3143400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2026900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2127900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5848800</v>
+        <v>1683500</v>
       </c>
       <c r="E23" s="3">
-        <v>7935100</v>
+        <v>6032400</v>
       </c>
       <c r="F23" s="3">
-        <v>7023100</v>
+        <v>8184200</v>
       </c>
       <c r="G23" s="3">
-        <v>5642500</v>
+        <v>7243600</v>
       </c>
       <c r="H23" s="3">
-        <v>2188800</v>
+        <v>5819600</v>
       </c>
       <c r="I23" s="3">
-        <v>2345900</v>
+        <v>2257500</v>
       </c>
       <c r="J23" s="3">
+        <v>2419600</v>
+      </c>
+      <c r="K23" s="3">
         <v>552500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-736900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-725600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1846700</v>
+        <v>-221100</v>
       </c>
       <c r="E24" s="3">
-        <v>1935900</v>
+        <v>1904600</v>
       </c>
       <c r="F24" s="3">
-        <v>2164900</v>
+        <v>1996600</v>
       </c>
       <c r="G24" s="3">
-        <v>2295300</v>
+        <v>2232800</v>
       </c>
       <c r="H24" s="3">
-        <v>916000</v>
+        <v>2367400</v>
       </c>
       <c r="I24" s="3">
-        <v>350200</v>
+        <v>944800</v>
       </c>
       <c r="J24" s="3">
+        <v>361100</v>
+      </c>
+      <c r="K24" s="3">
         <v>1620300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>999300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4002200</v>
+        <v>1904600</v>
       </c>
       <c r="E26" s="3">
-        <v>5999300</v>
+        <v>4127800</v>
       </c>
       <c r="F26" s="3">
-        <v>4858300</v>
+        <v>6187600</v>
       </c>
       <c r="G26" s="3">
-        <v>3347100</v>
+        <v>5010800</v>
       </c>
       <c r="H26" s="3">
-        <v>1272800</v>
+        <v>3452200</v>
       </c>
       <c r="I26" s="3">
-        <v>1995800</v>
+        <v>1312800</v>
       </c>
       <c r="J26" s="3">
+        <v>2058400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1067800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1736200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-729500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3273900</v>
+        <v>1187800</v>
       </c>
       <c r="E27" s="3">
-        <v>5433400</v>
+        <v>3376700</v>
       </c>
       <c r="F27" s="3">
-        <v>4321700</v>
+        <v>5604000</v>
       </c>
       <c r="G27" s="3">
-        <v>2785300</v>
+        <v>4457400</v>
       </c>
       <c r="H27" s="3">
-        <v>726900</v>
+        <v>2872700</v>
       </c>
       <c r="I27" s="3">
-        <v>1580400</v>
+        <v>749800</v>
       </c>
       <c r="J27" s="3">
+        <v>1630000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1115700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1844800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-825600</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5979300</v>
+        <v>7371300</v>
       </c>
       <c r="E32" s="3">
-        <v>8652800</v>
+        <v>6167000</v>
       </c>
       <c r="F32" s="3">
-        <v>6589100</v>
+        <v>8924400</v>
       </c>
       <c r="G32" s="3">
-        <v>5916700</v>
+        <v>6795900</v>
       </c>
       <c r="H32" s="3">
-        <v>12292800</v>
+        <v>6102500</v>
       </c>
       <c r="I32" s="3">
-        <v>10865600</v>
+        <v>12678700</v>
       </c>
       <c r="J32" s="3">
+        <v>11206600</v>
+      </c>
+      <c r="K32" s="3">
         <v>5587900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5812500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6821000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3273900</v>
+        <v>1187800</v>
       </c>
       <c r="E33" s="3">
-        <v>5433400</v>
+        <v>3376700</v>
       </c>
       <c r="F33" s="3">
-        <v>4321700</v>
+        <v>5604000</v>
       </c>
       <c r="G33" s="3">
-        <v>2785300</v>
+        <v>4457400</v>
       </c>
       <c r="H33" s="3">
-        <v>726900</v>
+        <v>2872700</v>
       </c>
       <c r="I33" s="3">
-        <v>1580400</v>
+        <v>749800</v>
       </c>
       <c r="J33" s="3">
+        <v>1630000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1115700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1844800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-825600</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3273900</v>
+        <v>1187800</v>
       </c>
       <c r="E35" s="3">
-        <v>5433400</v>
+        <v>3376700</v>
       </c>
       <c r="F35" s="3">
-        <v>4321700</v>
+        <v>5604000</v>
       </c>
       <c r="G35" s="3">
-        <v>2785300</v>
+        <v>4457400</v>
       </c>
       <c r="H35" s="3">
-        <v>726900</v>
+        <v>2872700</v>
       </c>
       <c r="I35" s="3">
-        <v>1580400</v>
+        <v>749800</v>
       </c>
       <c r="J35" s="3">
+        <v>1630000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1115700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1844800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-825600</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>84760900</v>
+        <v>112074000</v>
       </c>
       <c r="E41" s="3">
-        <v>81391100</v>
+        <v>87421400</v>
       </c>
       <c r="F41" s="3">
-        <v>86695400</v>
+        <v>83945900</v>
       </c>
       <c r="G41" s="3">
-        <v>98734000</v>
+        <v>89416600</v>
       </c>
       <c r="H41" s="3">
-        <v>110863000</v>
+        <v>101833000</v>
       </c>
       <c r="I41" s="3">
-        <v>101081000</v>
+        <v>114343000</v>
       </c>
       <c r="J41" s="3">
+        <v>104254000</v>
+      </c>
+      <c r="K41" s="3">
         <v>101325000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>190135000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>168058000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>209810000</v>
+        <v>236890000</v>
       </c>
       <c r="E42" s="3">
-        <v>204216000</v>
+        <v>216396000</v>
       </c>
       <c r="F42" s="3">
-        <v>209829000</v>
+        <v>210625000</v>
       </c>
       <c r="G42" s="3">
-        <v>203734000</v>
+        <v>216415000</v>
       </c>
       <c r="H42" s="3">
-        <v>168193000</v>
+        <v>210128000</v>
       </c>
       <c r="I42" s="3">
-        <v>187076000</v>
+        <v>173472000</v>
       </c>
       <c r="J42" s="3">
+        <v>192948000</v>
+      </c>
+      <c r="K42" s="3">
         <v>173929000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>220864000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>95065700</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>404700</v>
+        <v>406500</v>
       </c>
       <c r="E47" s="3">
-        <v>121200</v>
+        <v>417400</v>
       </c>
       <c r="F47" s="3">
-        <v>86500</v>
+        <v>125000</v>
       </c>
       <c r="G47" s="3">
-        <v>78600</v>
+        <v>89300</v>
       </c>
       <c r="H47" s="3">
-        <v>62600</v>
+        <v>81000</v>
       </c>
       <c r="I47" s="3">
-        <v>98500</v>
+        <v>64500</v>
       </c>
       <c r="J47" s="3">
+        <v>101600</v>
+      </c>
+      <c r="K47" s="3">
         <v>134500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>404600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>439800</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17446700</v>
+        <v>16140500</v>
       </c>
       <c r="E48" s="3">
-        <v>16376200</v>
+        <v>17994300</v>
       </c>
       <c r="F48" s="3">
-        <v>16944700</v>
+        <v>16890200</v>
       </c>
       <c r="G48" s="3">
-        <v>17270900</v>
+        <v>17476600</v>
       </c>
       <c r="H48" s="3">
-        <v>17280200</v>
+        <v>17813000</v>
       </c>
       <c r="I48" s="3">
-        <v>16701100</v>
+        <v>17822600</v>
       </c>
       <c r="J48" s="3">
+        <v>17225300</v>
+      </c>
+      <c r="K48" s="3">
         <v>16554600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22811600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28268800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15564100</v>
+        <v>16584000</v>
       </c>
       <c r="E49" s="3">
-        <v>13871900</v>
+        <v>16052600</v>
       </c>
       <c r="F49" s="3">
-        <v>13292700</v>
+        <v>14307300</v>
       </c>
       <c r="G49" s="3">
-        <v>11635100</v>
+        <v>13709900</v>
       </c>
       <c r="H49" s="3">
-        <v>11250300</v>
+        <v>12000300</v>
       </c>
       <c r="I49" s="3">
-        <v>11916000</v>
+        <v>11603500</v>
       </c>
       <c r="J49" s="3">
+        <v>12290100</v>
+      </c>
+      <c r="K49" s="3">
         <v>12821400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>22350100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19812400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4456200</v>
+        <v>6117600</v>
       </c>
       <c r="E52" s="3">
-        <v>14420400</v>
+        <v>4596100</v>
       </c>
       <c r="F52" s="3">
-        <v>14369800</v>
+        <v>14873000</v>
       </c>
       <c r="G52" s="3">
-        <v>12905300</v>
+        <v>14820800</v>
       </c>
       <c r="H52" s="3">
-        <v>16823600</v>
+        <v>13310300</v>
       </c>
       <c r="I52" s="3">
-        <v>24009100</v>
+        <v>17351600</v>
       </c>
       <c r="J52" s="3">
+        <v>24762700</v>
+      </c>
+      <c r="K52" s="3">
         <v>20218600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15522800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7765100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1110250000</v>
+        <v>1196420000</v>
       </c>
       <c r="E54" s="3">
-        <v>1061920000</v>
+        <v>1145090000</v>
       </c>
       <c r="F54" s="3">
-        <v>1081240000</v>
+        <v>1095250000</v>
       </c>
       <c r="G54" s="3">
-        <v>1088810000</v>
+        <v>1115180000</v>
       </c>
       <c r="H54" s="3">
-        <v>1074020000</v>
+        <v>1122990000</v>
       </c>
       <c r="I54" s="3">
-        <v>1138210000</v>
+        <v>1107740000</v>
       </c>
       <c r="J54" s="3">
+        <v>1173930000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1121540000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1207770000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1290780000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,8 +2267,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2170,9 +2300,12 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2203,42 +2336,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>249000</v>
+        <v>42600</v>
       </c>
       <c r="E59" s="3">
-        <v>501900</v>
+        <v>256800</v>
       </c>
       <c r="F59" s="3">
-        <v>364800</v>
+        <v>517700</v>
       </c>
       <c r="G59" s="3">
-        <v>300900</v>
+        <v>376300</v>
       </c>
       <c r="H59" s="3">
-        <v>371500</v>
+        <v>310300</v>
       </c>
       <c r="I59" s="3">
-        <v>91900</v>
+        <v>383100</v>
       </c>
       <c r="J59" s="3">
+        <v>94800</v>
+      </c>
+      <c r="K59" s="3">
         <v>195700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>178400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>135600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>152870000</v>
+        <v>139596000</v>
       </c>
       <c r="E61" s="3">
-        <v>144888000</v>
+        <v>157668000</v>
       </c>
       <c r="F61" s="3">
-        <v>120321000</v>
+        <v>149436000</v>
       </c>
       <c r="G61" s="3">
-        <v>128008000</v>
+        <v>124098000</v>
       </c>
       <c r="H61" s="3">
-        <v>140287000</v>
+        <v>132025000</v>
       </c>
       <c r="I61" s="3">
-        <v>97996400</v>
+        <v>144690000</v>
       </c>
       <c r="J61" s="3">
+        <v>101072000</v>
+      </c>
+      <c r="K61" s="3">
         <v>121594000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>145472000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>289764000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4825000</v>
+        <v>3027900</v>
       </c>
       <c r="E62" s="3">
-        <v>5048700</v>
+        <v>4976400</v>
       </c>
       <c r="F62" s="3">
-        <v>7860600</v>
+        <v>5207100</v>
       </c>
       <c r="G62" s="3">
-        <v>7575700</v>
+        <v>8107300</v>
       </c>
       <c r="H62" s="3">
-        <v>8101600</v>
+        <v>7813500</v>
       </c>
       <c r="I62" s="3">
-        <v>6266900</v>
+        <v>8355900</v>
       </c>
       <c r="J62" s="3">
+        <v>6463600</v>
+      </c>
+      <c r="K62" s="3">
         <v>7438500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8006400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5712200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1046870000</v>
+        <v>1128880000</v>
       </c>
       <c r="E66" s="3">
-        <v>995452000</v>
+        <v>1079730000</v>
       </c>
       <c r="F66" s="3">
-        <v>1016130000</v>
+        <v>1026700000</v>
       </c>
       <c r="G66" s="3">
-        <v>1024400000</v>
+        <v>1048020000</v>
       </c>
       <c r="H66" s="3">
-        <v>1012000000</v>
+        <v>1056560000</v>
       </c>
       <c r="I66" s="3">
-        <v>1073380000</v>
+        <v>1043760000</v>
       </c>
       <c r="J66" s="3">
+        <v>1107070000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1069630000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1153610000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1230860000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20598100</v>
+        <v>23082000</v>
       </c>
       <c r="E72" s="3">
-        <v>23203600</v>
+        <v>21244600</v>
       </c>
       <c r="F72" s="3">
-        <v>22348900</v>
+        <v>23932000</v>
       </c>
       <c r="G72" s="3">
-        <v>20611400</v>
+        <v>23050400</v>
       </c>
       <c r="H72" s="3">
-        <v>21977400</v>
+        <v>21258400</v>
       </c>
       <c r="I72" s="3">
-        <v>23850700</v>
+        <v>22667200</v>
       </c>
       <c r="J72" s="3">
+        <v>24599300</v>
+      </c>
+      <c r="K72" s="3">
         <v>21715100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22368200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26978400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>63378600</v>
+        <v>67539000</v>
       </c>
       <c r="E76" s="3">
-        <v>66470100</v>
+        <v>65368000</v>
       </c>
       <c r="F76" s="3">
-        <v>65113400</v>
+        <v>68556500</v>
       </c>
       <c r="G76" s="3">
-        <v>64406500</v>
+        <v>67157200</v>
       </c>
       <c r="H76" s="3">
-        <v>62028600</v>
+        <v>66428100</v>
       </c>
       <c r="I76" s="3">
-        <v>64825900</v>
+        <v>63975500</v>
       </c>
       <c r="J76" s="3">
+        <v>66860600</v>
+      </c>
+      <c r="K76" s="3">
         <v>51910000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54163600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>59921800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3273900</v>
+        <v>1187800</v>
       </c>
       <c r="E81" s="3">
-        <v>5433400</v>
+        <v>3376700</v>
       </c>
       <c r="F81" s="3">
-        <v>4321700</v>
+        <v>5604000</v>
       </c>
       <c r="G81" s="3">
-        <v>2785300</v>
+        <v>4457400</v>
       </c>
       <c r="H81" s="3">
-        <v>726900</v>
+        <v>2872700</v>
       </c>
       <c r="I81" s="3">
-        <v>1580400</v>
+        <v>749800</v>
       </c>
       <c r="J81" s="3">
+        <v>1630000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1115700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1844800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-825600</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3541500</v>
+        <v>3751600</v>
       </c>
       <c r="E83" s="3">
-        <v>3202000</v>
+        <v>3652700</v>
       </c>
       <c r="F83" s="3">
-        <v>3155400</v>
+        <v>3302500</v>
       </c>
       <c r="G83" s="3">
-        <v>3168700</v>
+        <v>3254500</v>
       </c>
       <c r="H83" s="3">
-        <v>2811900</v>
+        <v>3268200</v>
       </c>
       <c r="I83" s="3">
-        <v>2576300</v>
+        <v>2900200</v>
       </c>
       <c r="J83" s="3">
+        <v>2657100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2582900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2748500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2864000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15019500</v>
+        <v>37310900</v>
       </c>
       <c r="E89" s="3">
-        <v>-14787900</v>
+        <v>15491000</v>
       </c>
       <c r="F89" s="3">
-        <v>-4253800</v>
+        <v>-15252000</v>
       </c>
       <c r="G89" s="3">
-        <v>2761300</v>
+        <v>-4387300</v>
       </c>
       <c r="H89" s="3">
-        <v>21797700</v>
+        <v>2848000</v>
       </c>
       <c r="I89" s="3">
-        <v>13784000</v>
+        <v>22481900</v>
       </c>
       <c r="J89" s="3">
+        <v>14216600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-20678000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3941800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26194900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4582700</v>
+        <v>-3983600</v>
       </c>
       <c r="E91" s="3">
-        <v>-4678500</v>
+        <v>-4726500</v>
       </c>
       <c r="F91" s="3">
-        <v>-4866300</v>
+        <v>-4825400</v>
       </c>
       <c r="G91" s="3">
-        <v>-5006100</v>
+        <v>-5019000</v>
       </c>
       <c r="H91" s="3">
-        <v>-4549400</v>
+        <v>-5163200</v>
       </c>
       <c r="I91" s="3">
-        <v>-4582700</v>
+        <v>-4692200</v>
       </c>
       <c r="J91" s="3">
+        <v>-4726500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3970200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3882300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4075500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2835900</v>
+        <v>-5492800</v>
       </c>
       <c r="E94" s="3">
-        <v>15871600</v>
+        <v>-2924900</v>
       </c>
       <c r="F94" s="3">
-        <v>9064200</v>
+        <v>16369800</v>
       </c>
       <c r="G94" s="3">
-        <v>-913300</v>
+        <v>9348700</v>
       </c>
       <c r="H94" s="3">
-        <v>-4406900</v>
+        <v>-942000</v>
       </c>
       <c r="I94" s="3">
-        <v>-10281100</v>
+        <v>-4545300</v>
       </c>
       <c r="J94" s="3">
+        <v>-10603800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20781800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>19692100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9128000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,28 +3524,29 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3078200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-2982300</v>
+        <v>-3174800</v>
       </c>
       <c r="F96" s="3">
-        <v>-3040900</v>
+        <v>-3075900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2681400</v>
+        <v>-3136400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1424600</v>
+        <v>-2765600</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1469300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8732700</v>
+        <v>-7304000</v>
       </c>
       <c r="E100" s="3">
-        <v>-5726400</v>
+        <v>-9006800</v>
       </c>
       <c r="F100" s="3">
-        <v>-6682300</v>
+        <v>-5906100</v>
       </c>
       <c r="G100" s="3">
-        <v>-14610800</v>
+        <v>-6892000</v>
       </c>
       <c r="H100" s="3">
-        <v>-8331900</v>
+        <v>-15069400</v>
       </c>
       <c r="I100" s="3">
-        <v>-5691700</v>
+        <v>-8593400</v>
       </c>
       <c r="J100" s="3">
+        <v>-5870400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4084700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4012900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4269000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6700</v>
+        <v>-269100</v>
       </c>
       <c r="E101" s="3">
-        <v>4000</v>
+        <v>-6900</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="G101" s="3">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>28800</v>
+      </c>
+      <c r="I101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
-        <v>-8000</v>
-      </c>
       <c r="J101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-70600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7900</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3444300</v>
+        <v>24245000</v>
       </c>
       <c r="E102" s="3">
-        <v>-4638600</v>
+        <v>3552400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1871900</v>
+        <v>-4784200</v>
       </c>
       <c r="G102" s="3">
-        <v>-12734800</v>
+        <v>-1930700</v>
       </c>
       <c r="H102" s="3">
-        <v>9061500</v>
+        <v>-13134600</v>
       </c>
       <c r="I102" s="3">
-        <v>-2196800</v>
+        <v>9345900</v>
       </c>
       <c r="J102" s="3">
+        <v>-2265800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-45615100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19610600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31061800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19644900</v>
+        <v>20244600</v>
       </c>
       <c r="E8" s="3">
-        <v>23153400</v>
+        <v>23860200</v>
       </c>
       <c r="F8" s="3">
-        <v>22450300</v>
+        <v>23135600</v>
       </c>
       <c r="G8" s="3">
-        <v>21979300</v>
+        <v>22650300</v>
       </c>
       <c r="H8" s="3">
-        <v>22822400</v>
+        <v>23519100</v>
       </c>
       <c r="I8" s="3">
-        <v>24188700</v>
+        <v>24927200</v>
       </c>
       <c r="J8" s="3">
-        <v>26380400</v>
+        <v>27185700</v>
       </c>
       <c r="K8" s="3">
         <v>28176400</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3751600</v>
+        <v>-3866100</v>
       </c>
       <c r="E15" s="3">
-        <v>-3652700</v>
+        <v>-3764200</v>
       </c>
       <c r="F15" s="3">
-        <v>-3302500</v>
+        <v>-3403300</v>
       </c>
       <c r="G15" s="3">
-        <v>-3254500</v>
+        <v>-3353800</v>
       </c>
       <c r="H15" s="3">
-        <v>-3268200</v>
+        <v>-3368000</v>
       </c>
       <c r="I15" s="3">
-        <v>-2900200</v>
+        <v>-2988700</v>
       </c>
       <c r="J15" s="3">
-        <v>-2657100</v>
+        <v>-2738200</v>
       </c>
       <c r="K15" s="3">
         <v>-2582900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10590000</v>
+        <v>10913300</v>
       </c>
       <c r="E17" s="3">
-        <v>10953900</v>
+        <v>11288300</v>
       </c>
       <c r="F17" s="3">
-        <v>5341700</v>
+        <v>5504800</v>
       </c>
       <c r="G17" s="3">
-        <v>7939800</v>
+        <v>8182200</v>
       </c>
       <c r="H17" s="3">
-        <v>10900400</v>
+        <v>11233100</v>
       </c>
       <c r="I17" s="3">
-        <v>9252600</v>
+        <v>9535000</v>
       </c>
       <c r="J17" s="3">
-        <v>12754200</v>
+        <v>13143500</v>
       </c>
       <c r="K17" s="3">
         <v>22036000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9054800</v>
+        <v>9331200</v>
       </c>
       <c r="E18" s="3">
-        <v>12199400</v>
+        <v>12571800</v>
       </c>
       <c r="F18" s="3">
-        <v>17108600</v>
+        <v>17630900</v>
       </c>
       <c r="G18" s="3">
-        <v>14039500</v>
+        <v>14468100</v>
       </c>
       <c r="H18" s="3">
-        <v>11922000</v>
+        <v>12286000</v>
       </c>
       <c r="I18" s="3">
-        <v>14936200</v>
+        <v>15392200</v>
       </c>
       <c r="J18" s="3">
-        <v>13626200</v>
+        <v>14042100</v>
       </c>
       <c r="K18" s="3">
         <v>6140400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7371300</v>
+        <v>-7596300</v>
       </c>
       <c r="E20" s="3">
-        <v>-6167000</v>
+        <v>-6355300</v>
       </c>
       <c r="F20" s="3">
-        <v>-8924400</v>
+        <v>-9196800</v>
       </c>
       <c r="G20" s="3">
-        <v>-6795900</v>
+        <v>-7003400</v>
       </c>
       <c r="H20" s="3">
-        <v>-6102500</v>
+        <v>-6288700</v>
       </c>
       <c r="I20" s="3">
-        <v>-12678700</v>
+        <v>-13065700</v>
       </c>
       <c r="J20" s="3">
-        <v>-11206600</v>
+        <v>-11548700</v>
       </c>
       <c r="K20" s="3">
         <v>-5587900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5421800</v>
+        <v>5602100</v>
       </c>
       <c r="E21" s="3">
-        <v>9672100</v>
+        <v>9981800</v>
       </c>
       <c r="F21" s="3">
-        <v>11475000</v>
+        <v>11838400</v>
       </c>
       <c r="G21" s="3">
-        <v>10486500</v>
+        <v>10819500</v>
       </c>
       <c r="H21" s="3">
-        <v>9076200</v>
+        <v>9366100</v>
       </c>
       <c r="I21" s="3">
-        <v>5147400</v>
+        <v>5316000</v>
       </c>
       <c r="J21" s="3">
-        <v>5067200</v>
+        <v>5232400</v>
       </c>
       <c r="K21" s="3">
         <v>3143400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1683500</v>
+        <v>1734900</v>
       </c>
       <c r="E23" s="3">
-        <v>6032400</v>
+        <v>6216600</v>
       </c>
       <c r="F23" s="3">
-        <v>8184200</v>
+        <v>8434100</v>
       </c>
       <c r="G23" s="3">
-        <v>7243600</v>
+        <v>7464700</v>
       </c>
       <c r="H23" s="3">
-        <v>5819600</v>
+        <v>5997200</v>
       </c>
       <c r="I23" s="3">
-        <v>2257500</v>
+        <v>2326400</v>
       </c>
       <c r="J23" s="3">
-        <v>2419600</v>
+        <v>2493400</v>
       </c>
       <c r="K23" s="3">
         <v>552500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-221100</v>
+        <v>-227800</v>
       </c>
       <c r="E24" s="3">
-        <v>1904600</v>
+        <v>1962800</v>
       </c>
       <c r="F24" s="3">
-        <v>1996600</v>
+        <v>2057600</v>
       </c>
       <c r="G24" s="3">
-        <v>2232800</v>
+        <v>2301000</v>
       </c>
       <c r="H24" s="3">
-        <v>2367400</v>
+        <v>2439600</v>
       </c>
       <c r="I24" s="3">
-        <v>944800</v>
+        <v>973600</v>
       </c>
       <c r="J24" s="3">
-        <v>361100</v>
+        <v>372200</v>
       </c>
       <c r="K24" s="3">
         <v>1620300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1904600</v>
+        <v>1962800</v>
       </c>
       <c r="E26" s="3">
-        <v>4127800</v>
+        <v>4253800</v>
       </c>
       <c r="F26" s="3">
-        <v>6187600</v>
+        <v>6376500</v>
       </c>
       <c r="G26" s="3">
-        <v>5010800</v>
+        <v>5163700</v>
       </c>
       <c r="H26" s="3">
-        <v>3452200</v>
+        <v>3557600</v>
       </c>
       <c r="I26" s="3">
-        <v>1312800</v>
+        <v>1352800</v>
       </c>
       <c r="J26" s="3">
-        <v>2058400</v>
+        <v>2121200</v>
       </c>
       <c r="K26" s="3">
         <v>-1067800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1187800</v>
+        <v>1224100</v>
       </c>
       <c r="E27" s="3">
-        <v>3376700</v>
+        <v>3479800</v>
       </c>
       <c r="F27" s="3">
-        <v>5604000</v>
+        <v>5775100</v>
       </c>
       <c r="G27" s="3">
-        <v>4457400</v>
+        <v>4593400</v>
       </c>
       <c r="H27" s="3">
-        <v>2872700</v>
+        <v>2960400</v>
       </c>
       <c r="I27" s="3">
-        <v>749800</v>
+        <v>772700</v>
       </c>
       <c r="J27" s="3">
-        <v>1630000</v>
+        <v>1679700</v>
       </c>
       <c r="K27" s="3">
         <v>-1115700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7371300</v>
+        <v>7596300</v>
       </c>
       <c r="E32" s="3">
-        <v>6167000</v>
+        <v>6355300</v>
       </c>
       <c r="F32" s="3">
-        <v>8924400</v>
+        <v>9196800</v>
       </c>
       <c r="G32" s="3">
-        <v>6795900</v>
+        <v>7003400</v>
       </c>
       <c r="H32" s="3">
-        <v>6102500</v>
+        <v>6288700</v>
       </c>
       <c r="I32" s="3">
-        <v>12678700</v>
+        <v>13065700</v>
       </c>
       <c r="J32" s="3">
-        <v>11206600</v>
+        <v>11548700</v>
       </c>
       <c r="K32" s="3">
         <v>5587900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1187800</v>
+        <v>1224100</v>
       </c>
       <c r="E33" s="3">
-        <v>3376700</v>
+        <v>3479800</v>
       </c>
       <c r="F33" s="3">
-        <v>5604000</v>
+        <v>5775100</v>
       </c>
       <c r="G33" s="3">
-        <v>4457400</v>
+        <v>4593400</v>
       </c>
       <c r="H33" s="3">
-        <v>2872700</v>
+        <v>2960400</v>
       </c>
       <c r="I33" s="3">
-        <v>749800</v>
+        <v>772700</v>
       </c>
       <c r="J33" s="3">
-        <v>1630000</v>
+        <v>1679700</v>
       </c>
       <c r="K33" s="3">
         <v>-1115700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1187800</v>
+        <v>1224100</v>
       </c>
       <c r="E35" s="3">
-        <v>3376700</v>
+        <v>3479800</v>
       </c>
       <c r="F35" s="3">
-        <v>5604000</v>
+        <v>5775100</v>
       </c>
       <c r="G35" s="3">
-        <v>4457400</v>
+        <v>4593400</v>
       </c>
       <c r="H35" s="3">
-        <v>2872700</v>
+        <v>2960400</v>
       </c>
       <c r="I35" s="3">
-        <v>749800</v>
+        <v>772700</v>
       </c>
       <c r="J35" s="3">
-        <v>1630000</v>
+        <v>1679700</v>
       </c>
       <c r="K35" s="3">
         <v>-1115700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>112074000</v>
+        <v>115496000</v>
       </c>
       <c r="E41" s="3">
-        <v>87421400</v>
+        <v>90090100</v>
       </c>
       <c r="F41" s="3">
-        <v>83945900</v>
+        <v>86508500</v>
       </c>
       <c r="G41" s="3">
-        <v>89416600</v>
+        <v>92146300</v>
       </c>
       <c r="H41" s="3">
-        <v>101833000</v>
+        <v>104942000</v>
       </c>
       <c r="I41" s="3">
-        <v>114343000</v>
+        <v>117833000</v>
       </c>
       <c r="J41" s="3">
-        <v>104254000</v>
+        <v>107437000</v>
       </c>
       <c r="K41" s="3">
         <v>101325000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>236890000</v>
+        <v>244122000</v>
       </c>
       <c r="E42" s="3">
-        <v>216396000</v>
+        <v>223002000</v>
       </c>
       <c r="F42" s="3">
-        <v>210625000</v>
+        <v>217055000</v>
       </c>
       <c r="G42" s="3">
-        <v>216415000</v>
+        <v>223021000</v>
       </c>
       <c r="H42" s="3">
-        <v>210128000</v>
+        <v>216543000</v>
       </c>
       <c r="I42" s="3">
-        <v>173472000</v>
+        <v>178768000</v>
       </c>
       <c r="J42" s="3">
-        <v>192948000</v>
+        <v>198839000</v>
       </c>
       <c r="K42" s="3">
         <v>173929000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>406500</v>
+        <v>418900</v>
       </c>
       <c r="E47" s="3">
-        <v>417400</v>
+        <v>430200</v>
       </c>
       <c r="F47" s="3">
-        <v>125000</v>
+        <v>128800</v>
       </c>
       <c r="G47" s="3">
-        <v>89300</v>
+        <v>92000</v>
       </c>
       <c r="H47" s="3">
-        <v>81000</v>
+        <v>83500</v>
       </c>
       <c r="I47" s="3">
-        <v>64500</v>
+        <v>66500</v>
       </c>
       <c r="J47" s="3">
-        <v>101600</v>
+        <v>104700</v>
       </c>
       <c r="K47" s="3">
         <v>134500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16140500</v>
+        <v>16633200</v>
       </c>
       <c r="E48" s="3">
-        <v>17994300</v>
+        <v>18543600</v>
       </c>
       <c r="F48" s="3">
-        <v>16890200</v>
+        <v>17405900</v>
       </c>
       <c r="G48" s="3">
-        <v>17476600</v>
+        <v>18010100</v>
       </c>
       <c r="H48" s="3">
-        <v>17813000</v>
+        <v>18356800</v>
       </c>
       <c r="I48" s="3">
-        <v>17822600</v>
+        <v>18366700</v>
       </c>
       <c r="J48" s="3">
-        <v>17225300</v>
+        <v>17751100</v>
       </c>
       <c r="K48" s="3">
         <v>16554600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16584000</v>
+        <v>17090300</v>
       </c>
       <c r="E49" s="3">
-        <v>16052600</v>
+        <v>16542600</v>
       </c>
       <c r="F49" s="3">
-        <v>14307300</v>
+        <v>14744000</v>
       </c>
       <c r="G49" s="3">
-        <v>13709900</v>
+        <v>14128500</v>
       </c>
       <c r="H49" s="3">
-        <v>12000300</v>
+        <v>12366600</v>
       </c>
       <c r="I49" s="3">
-        <v>11603500</v>
+        <v>11957700</v>
       </c>
       <c r="J49" s="3">
-        <v>12290100</v>
+        <v>12665200</v>
       </c>
       <c r="K49" s="3">
         <v>12821400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6117600</v>
+        <v>6304300</v>
       </c>
       <c r="E52" s="3">
-        <v>4596100</v>
+        <v>4736400</v>
       </c>
       <c r="F52" s="3">
-        <v>14873000</v>
+        <v>15327100</v>
       </c>
       <c r="G52" s="3">
-        <v>14820800</v>
+        <v>15273300</v>
       </c>
       <c r="H52" s="3">
-        <v>13310300</v>
+        <v>13716700</v>
       </c>
       <c r="I52" s="3">
-        <v>17351600</v>
+        <v>17881300</v>
       </c>
       <c r="J52" s="3">
-        <v>24762700</v>
+        <v>25518700</v>
       </c>
       <c r="K52" s="3">
         <v>20218600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1196420000</v>
+        <v>1232940000</v>
       </c>
       <c r="E54" s="3">
-        <v>1145090000</v>
+        <v>1180050000</v>
       </c>
       <c r="F54" s="3">
-        <v>1095250000</v>
+        <v>1128690000</v>
       </c>
       <c r="G54" s="3">
-        <v>1115180000</v>
+        <v>1149220000</v>
       </c>
       <c r="H54" s="3">
-        <v>1122990000</v>
+        <v>1157270000</v>
       </c>
       <c r="I54" s="3">
-        <v>1107740000</v>
+        <v>1141550000</v>
       </c>
       <c r="J54" s="3">
-        <v>1173930000</v>
+        <v>1209770000</v>
       </c>
       <c r="K54" s="3">
         <v>1121540000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42600</v>
+        <v>43900</v>
       </c>
       <c r="E59" s="3">
-        <v>256800</v>
+        <v>264600</v>
       </c>
       <c r="F59" s="3">
-        <v>517700</v>
+        <v>533500</v>
       </c>
       <c r="G59" s="3">
-        <v>376300</v>
+        <v>387700</v>
       </c>
       <c r="H59" s="3">
-        <v>310300</v>
+        <v>319800</v>
       </c>
       <c r="I59" s="3">
-        <v>383100</v>
+        <v>394800</v>
       </c>
       <c r="J59" s="3">
-        <v>94800</v>
+        <v>97600</v>
       </c>
       <c r="K59" s="3">
         <v>195700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>139596000</v>
+        <v>143857000</v>
       </c>
       <c r="E61" s="3">
-        <v>157668000</v>
+        <v>162482000</v>
       </c>
       <c r="F61" s="3">
-        <v>149436000</v>
+        <v>153998000</v>
       </c>
       <c r="G61" s="3">
-        <v>124098000</v>
+        <v>127886000</v>
       </c>
       <c r="H61" s="3">
-        <v>132025000</v>
+        <v>136056000</v>
       </c>
       <c r="I61" s="3">
-        <v>144690000</v>
+        <v>149107000</v>
       </c>
       <c r="J61" s="3">
-        <v>101072000</v>
+        <v>104158000</v>
       </c>
       <c r="K61" s="3">
         <v>121594000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3027900</v>
+        <v>3120300</v>
       </c>
       <c r="E62" s="3">
-        <v>4976400</v>
+        <v>5128400</v>
       </c>
       <c r="F62" s="3">
-        <v>5207100</v>
+        <v>5366100</v>
       </c>
       <c r="G62" s="3">
-        <v>8107300</v>
+        <v>8354800</v>
       </c>
       <c r="H62" s="3">
-        <v>7813500</v>
+        <v>8052000</v>
       </c>
       <c r="I62" s="3">
-        <v>8355900</v>
+        <v>8610900</v>
       </c>
       <c r="J62" s="3">
-        <v>6463600</v>
+        <v>6660900</v>
       </c>
       <c r="K62" s="3">
         <v>7438500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1128880000</v>
+        <v>1163340000</v>
       </c>
       <c r="E66" s="3">
-        <v>1079730000</v>
+        <v>1112690000</v>
       </c>
       <c r="F66" s="3">
-        <v>1026700000</v>
+        <v>1058040000</v>
       </c>
       <c r="G66" s="3">
-        <v>1048020000</v>
+        <v>1080020000</v>
       </c>
       <c r="H66" s="3">
-        <v>1056560000</v>
+        <v>1088810000</v>
       </c>
       <c r="I66" s="3">
-        <v>1043760000</v>
+        <v>1075620000</v>
       </c>
       <c r="J66" s="3">
-        <v>1107070000</v>
+        <v>1140870000</v>
       </c>
       <c r="K66" s="3">
         <v>1069630000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23082000</v>
+        <v>23786600</v>
       </c>
       <c r="E72" s="3">
-        <v>21244600</v>
+        <v>21893200</v>
       </c>
       <c r="F72" s="3">
-        <v>23932000</v>
+        <v>24662500</v>
       </c>
       <c r="G72" s="3">
-        <v>23050400</v>
+        <v>23754000</v>
       </c>
       <c r="H72" s="3">
-        <v>21258400</v>
+        <v>21907300</v>
       </c>
       <c r="I72" s="3">
-        <v>22667200</v>
+        <v>23359200</v>
       </c>
       <c r="J72" s="3">
-        <v>24599300</v>
+        <v>25350300</v>
       </c>
       <c r="K72" s="3">
         <v>21715100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67539000</v>
+        <v>69600800</v>
       </c>
       <c r="E76" s="3">
-        <v>65368000</v>
+        <v>67363500</v>
       </c>
       <c r="F76" s="3">
-        <v>68556500</v>
+        <v>70649400</v>
       </c>
       <c r="G76" s="3">
-        <v>67157200</v>
+        <v>69207400</v>
       </c>
       <c r="H76" s="3">
-        <v>66428100</v>
+        <v>68455900</v>
       </c>
       <c r="I76" s="3">
-        <v>63975500</v>
+        <v>65928600</v>
       </c>
       <c r="J76" s="3">
-        <v>66860600</v>
+        <v>68901700</v>
       </c>
       <c r="K76" s="3">
         <v>51910000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1187800</v>
+        <v>1224100</v>
       </c>
       <c r="E81" s="3">
-        <v>3376700</v>
+        <v>3479800</v>
       </c>
       <c r="F81" s="3">
-        <v>5604000</v>
+        <v>5775100</v>
       </c>
       <c r="G81" s="3">
-        <v>4457400</v>
+        <v>4593400</v>
       </c>
       <c r="H81" s="3">
-        <v>2872700</v>
+        <v>2960400</v>
       </c>
       <c r="I81" s="3">
-        <v>749800</v>
+        <v>772700</v>
       </c>
       <c r="J81" s="3">
-        <v>1630000</v>
+        <v>1679700</v>
       </c>
       <c r="K81" s="3">
         <v>-1115700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3751600</v>
+        <v>3866100</v>
       </c>
       <c r="E83" s="3">
-        <v>3652700</v>
+        <v>3764200</v>
       </c>
       <c r="F83" s="3">
-        <v>3302500</v>
+        <v>3403300</v>
       </c>
       <c r="G83" s="3">
-        <v>3254500</v>
+        <v>3353800</v>
       </c>
       <c r="H83" s="3">
-        <v>3268200</v>
+        <v>3368000</v>
       </c>
       <c r="I83" s="3">
-        <v>2900200</v>
+        <v>2988700</v>
       </c>
       <c r="J83" s="3">
-        <v>2657100</v>
+        <v>2738200</v>
       </c>
       <c r="K83" s="3">
         <v>2582900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>37310900</v>
+        <v>38450000</v>
       </c>
       <c r="E89" s="3">
-        <v>15491000</v>
+        <v>15963900</v>
       </c>
       <c r="F89" s="3">
-        <v>-15252000</v>
+        <v>-15717600</v>
       </c>
       <c r="G89" s="3">
-        <v>-4387300</v>
+        <v>-4521300</v>
       </c>
       <c r="H89" s="3">
-        <v>2848000</v>
+        <v>2934900</v>
       </c>
       <c r="I89" s="3">
-        <v>22481900</v>
+        <v>23168200</v>
       </c>
       <c r="J89" s="3">
-        <v>14216600</v>
+        <v>14650600</v>
       </c>
       <c r="K89" s="3">
         <v>-20678000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3983600</v>
+        <v>-4105200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4726500</v>
+        <v>-4870800</v>
       </c>
       <c r="F91" s="3">
-        <v>-4825400</v>
+        <v>-4972700</v>
       </c>
       <c r="G91" s="3">
-        <v>-5019000</v>
+        <v>-5172200</v>
       </c>
       <c r="H91" s="3">
-        <v>-5163200</v>
+        <v>-5320800</v>
       </c>
       <c r="I91" s="3">
-        <v>-4692200</v>
+        <v>-4835400</v>
       </c>
       <c r="J91" s="3">
-        <v>-4726500</v>
+        <v>-4870800</v>
       </c>
       <c r="K91" s="3">
         <v>-3970200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5492800</v>
+        <v>-5660400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2924900</v>
+        <v>-3014200</v>
       </c>
       <c r="F94" s="3">
-        <v>16369800</v>
+        <v>16869500</v>
       </c>
       <c r="G94" s="3">
-        <v>9348700</v>
+        <v>9634100</v>
       </c>
       <c r="H94" s="3">
-        <v>-942000</v>
+        <v>-970800</v>
       </c>
       <c r="I94" s="3">
-        <v>-4545300</v>
+        <v>-4684000</v>
       </c>
       <c r="J94" s="3">
-        <v>-10603800</v>
+        <v>-10927500</v>
       </c>
       <c r="K94" s="3">
         <v>-20781800</v>
@@ -3534,19 +3534,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3174800</v>
+        <v>-3271700</v>
       </c>
       <c r="F96" s="3">
-        <v>-3075900</v>
+        <v>-3169800</v>
       </c>
       <c r="G96" s="3">
-        <v>-3136400</v>
+        <v>-3232100</v>
       </c>
       <c r="H96" s="3">
-        <v>-2765600</v>
+        <v>-2850000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1469300</v>
+        <v>-1514200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7304000</v>
+        <v>-7527000</v>
       </c>
       <c r="E100" s="3">
-        <v>-9006800</v>
+        <v>-9281700</v>
       </c>
       <c r="F100" s="3">
-        <v>-5906100</v>
+        <v>-6086400</v>
       </c>
       <c r="G100" s="3">
-        <v>-6892000</v>
+        <v>-7102400</v>
       </c>
       <c r="H100" s="3">
-        <v>-15069400</v>
+        <v>-15529400</v>
       </c>
       <c r="I100" s="3">
-        <v>-8593400</v>
+        <v>-8855800</v>
       </c>
       <c r="J100" s="3">
-        <v>-5870400</v>
+        <v>-6049600</v>
       </c>
       <c r="K100" s="3">
         <v>-4084700</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-269100</v>
+        <v>-277400</v>
       </c>
       <c r="E101" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="F101" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>28800</v>
+        <v>29700</v>
       </c>
       <c r="I101" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J101" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="K101" s="3">
         <v>-70600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24245000</v>
+        <v>24985200</v>
       </c>
       <c r="E102" s="3">
-        <v>3552400</v>
+        <v>3660900</v>
       </c>
       <c r="F102" s="3">
-        <v>-4784200</v>
+        <v>-4930200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1930700</v>
+        <v>-1989600</v>
       </c>
       <c r="H102" s="3">
-        <v>-13134600</v>
+        <v>-13535500</v>
       </c>
       <c r="I102" s="3">
-        <v>9345900</v>
+        <v>9631200</v>
       </c>
       <c r="J102" s="3">
-        <v>-2265800</v>
+        <v>-2334900</v>
       </c>
       <c r="K102" s="3">
         <v>-45615100</v>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20244600</v>
+        <v>19510400</v>
       </c>
       <c r="E8" s="3">
-        <v>23860200</v>
+        <v>22994900</v>
       </c>
       <c r="F8" s="3">
-        <v>23135600</v>
+        <v>22296600</v>
       </c>
       <c r="G8" s="3">
-        <v>22650300</v>
+        <v>21828800</v>
       </c>
       <c r="H8" s="3">
-        <v>23519100</v>
+        <v>22666200</v>
       </c>
       <c r="I8" s="3">
-        <v>24927200</v>
+        <v>24023200</v>
       </c>
       <c r="J8" s="3">
-        <v>27185700</v>
+        <v>26199800</v>
       </c>
       <c r="K8" s="3">
         <v>28176400</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3866100</v>
+        <v>-3725900</v>
       </c>
       <c r="E15" s="3">
-        <v>-3764200</v>
+        <v>-3627700</v>
       </c>
       <c r="F15" s="3">
-        <v>-3403300</v>
+        <v>-3279900</v>
       </c>
       <c r="G15" s="3">
-        <v>-3353800</v>
+        <v>-3232200</v>
       </c>
       <c r="H15" s="3">
-        <v>-3368000</v>
+        <v>-3245800</v>
       </c>
       <c r="I15" s="3">
-        <v>-2988700</v>
+        <v>-2880300</v>
       </c>
       <c r="J15" s="3">
-        <v>-2738200</v>
+        <v>-2638900</v>
       </c>
       <c r="K15" s="3">
         <v>-2582900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10913300</v>
+        <v>10517500</v>
       </c>
       <c r="E17" s="3">
-        <v>11288300</v>
+        <v>10879000</v>
       </c>
       <c r="F17" s="3">
-        <v>5504800</v>
+        <v>5305100</v>
       </c>
       <c r="G17" s="3">
-        <v>8182200</v>
+        <v>7885400</v>
       </c>
       <c r="H17" s="3">
-        <v>11233100</v>
+        <v>10825800</v>
       </c>
       <c r="I17" s="3">
-        <v>9535000</v>
+        <v>9189200</v>
       </c>
       <c r="J17" s="3">
-        <v>13143500</v>
+        <v>12666900</v>
       </c>
       <c r="K17" s="3">
         <v>22036000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9331200</v>
+        <v>8992800</v>
       </c>
       <c r="E18" s="3">
-        <v>12571800</v>
+        <v>12115900</v>
       </c>
       <c r="F18" s="3">
-        <v>17630900</v>
+        <v>16991500</v>
       </c>
       <c r="G18" s="3">
-        <v>14468100</v>
+        <v>13943400</v>
       </c>
       <c r="H18" s="3">
-        <v>12286000</v>
+        <v>11840400</v>
       </c>
       <c r="I18" s="3">
-        <v>15392200</v>
+        <v>14833900</v>
       </c>
       <c r="J18" s="3">
-        <v>14042100</v>
+        <v>13532900</v>
       </c>
       <c r="K18" s="3">
         <v>6140400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7596300</v>
+        <v>-7320800</v>
       </c>
       <c r="E20" s="3">
-        <v>-6355300</v>
+        <v>-6124800</v>
       </c>
       <c r="F20" s="3">
-        <v>-9196800</v>
+        <v>-8863300</v>
       </c>
       <c r="G20" s="3">
-        <v>-7003400</v>
+        <v>-6749400</v>
       </c>
       <c r="H20" s="3">
-        <v>-6288700</v>
+        <v>-6060700</v>
       </c>
       <c r="I20" s="3">
-        <v>-13065700</v>
+        <v>-12591900</v>
       </c>
       <c r="J20" s="3">
-        <v>-11548700</v>
+        <v>-11129900</v>
       </c>
       <c r="K20" s="3">
         <v>-5587900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5602100</v>
+        <v>5429900</v>
       </c>
       <c r="E21" s="3">
-        <v>9981800</v>
+        <v>9650000</v>
       </c>
       <c r="F21" s="3">
-        <v>11838400</v>
+        <v>11436300</v>
       </c>
       <c r="G21" s="3">
-        <v>10819500</v>
+        <v>10453900</v>
       </c>
       <c r="H21" s="3">
-        <v>9366100</v>
+        <v>9053400</v>
       </c>
       <c r="I21" s="3">
-        <v>5316000</v>
+        <v>5147100</v>
       </c>
       <c r="J21" s="3">
-        <v>5232400</v>
+        <v>5064600</v>
       </c>
       <c r="K21" s="3">
         <v>3143400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1734900</v>
+        <v>1672000</v>
       </c>
       <c r="E23" s="3">
-        <v>6216600</v>
+        <v>5991100</v>
       </c>
       <c r="F23" s="3">
-        <v>8434100</v>
+        <v>8128200</v>
       </c>
       <c r="G23" s="3">
-        <v>7464700</v>
+        <v>7194000</v>
       </c>
       <c r="H23" s="3">
-        <v>5997200</v>
+        <v>5779700</v>
       </c>
       <c r="I23" s="3">
-        <v>2326400</v>
+        <v>2242100</v>
       </c>
       <c r="J23" s="3">
-        <v>2493400</v>
+        <v>2403000</v>
       </c>
       <c r="K23" s="3">
         <v>552500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-227800</v>
+        <v>-219600</v>
       </c>
       <c r="E24" s="3">
-        <v>1962800</v>
+        <v>1891600</v>
       </c>
       <c r="F24" s="3">
-        <v>2057600</v>
+        <v>1983000</v>
       </c>
       <c r="G24" s="3">
-        <v>2301000</v>
+        <v>2217500</v>
       </c>
       <c r="H24" s="3">
-        <v>2439600</v>
+        <v>2351200</v>
       </c>
       <c r="I24" s="3">
-        <v>973600</v>
+        <v>938300</v>
       </c>
       <c r="J24" s="3">
-        <v>372200</v>
+        <v>358700</v>
       </c>
       <c r="K24" s="3">
         <v>1620300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1962800</v>
+        <v>1891600</v>
       </c>
       <c r="E26" s="3">
-        <v>4253800</v>
+        <v>4099600</v>
       </c>
       <c r="F26" s="3">
-        <v>6376500</v>
+        <v>6145200</v>
       </c>
       <c r="G26" s="3">
-        <v>5163700</v>
+        <v>4976500</v>
       </c>
       <c r="H26" s="3">
-        <v>3557600</v>
+        <v>3428600</v>
       </c>
       <c r="I26" s="3">
-        <v>1352800</v>
+        <v>1303800</v>
       </c>
       <c r="J26" s="3">
-        <v>2121200</v>
+        <v>2044300</v>
       </c>
       <c r="K26" s="3">
         <v>-1067800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1224100</v>
+        <v>1179700</v>
       </c>
       <c r="E27" s="3">
-        <v>3479800</v>
+        <v>3353600</v>
       </c>
       <c r="F27" s="3">
-        <v>5775100</v>
+        <v>5565600</v>
       </c>
       <c r="G27" s="3">
-        <v>4593400</v>
+        <v>4426900</v>
       </c>
       <c r="H27" s="3">
-        <v>2960400</v>
+        <v>2853000</v>
       </c>
       <c r="I27" s="3">
-        <v>772700</v>
+        <v>744600</v>
       </c>
       <c r="J27" s="3">
-        <v>1679700</v>
+        <v>1618800</v>
       </c>
       <c r="K27" s="3">
         <v>-1115700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7596300</v>
+        <v>7320800</v>
       </c>
       <c r="E32" s="3">
-        <v>6355300</v>
+        <v>6124800</v>
       </c>
       <c r="F32" s="3">
-        <v>9196800</v>
+        <v>8863300</v>
       </c>
       <c r="G32" s="3">
-        <v>7003400</v>
+        <v>6749400</v>
       </c>
       <c r="H32" s="3">
-        <v>6288700</v>
+        <v>6060700</v>
       </c>
       <c r="I32" s="3">
-        <v>13065700</v>
+        <v>12591900</v>
       </c>
       <c r="J32" s="3">
-        <v>11548700</v>
+        <v>11129900</v>
       </c>
       <c r="K32" s="3">
         <v>5587900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1224100</v>
+        <v>1179700</v>
       </c>
       <c r="E33" s="3">
-        <v>3479800</v>
+        <v>3353600</v>
       </c>
       <c r="F33" s="3">
-        <v>5775100</v>
+        <v>5565600</v>
       </c>
       <c r="G33" s="3">
-        <v>4593400</v>
+        <v>4426900</v>
       </c>
       <c r="H33" s="3">
-        <v>2960400</v>
+        <v>2853000</v>
       </c>
       <c r="I33" s="3">
-        <v>772700</v>
+        <v>744600</v>
       </c>
       <c r="J33" s="3">
-        <v>1679700</v>
+        <v>1618800</v>
       </c>
       <c r="K33" s="3">
         <v>-1115700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1224100</v>
+        <v>1179700</v>
       </c>
       <c r="E35" s="3">
-        <v>3479800</v>
+        <v>3353600</v>
       </c>
       <c r="F35" s="3">
-        <v>5775100</v>
+        <v>5565600</v>
       </c>
       <c r="G35" s="3">
-        <v>4593400</v>
+        <v>4426900</v>
       </c>
       <c r="H35" s="3">
-        <v>2960400</v>
+        <v>2853000</v>
       </c>
       <c r="I35" s="3">
-        <v>772700</v>
+        <v>744600</v>
       </c>
       <c r="J35" s="3">
-        <v>1679700</v>
+        <v>1618800</v>
       </c>
       <c r="K35" s="3">
         <v>-1115700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>115496000</v>
+        <v>111307000</v>
       </c>
       <c r="E41" s="3">
-        <v>90090100</v>
+        <v>86823000</v>
       </c>
       <c r="F41" s="3">
-        <v>86508500</v>
+        <v>83371200</v>
       </c>
       <c r="G41" s="3">
-        <v>92146300</v>
+        <v>88804500</v>
       </c>
       <c r="H41" s="3">
-        <v>104942000</v>
+        <v>101136000</v>
       </c>
       <c r="I41" s="3">
-        <v>117833000</v>
+        <v>113560000</v>
       </c>
       <c r="J41" s="3">
-        <v>107437000</v>
+        <v>103540000</v>
       </c>
       <c r="K41" s="3">
         <v>101325000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>244122000</v>
+        <v>235269000</v>
       </c>
       <c r="E42" s="3">
-        <v>223002000</v>
+        <v>214914000</v>
       </c>
       <c r="F42" s="3">
-        <v>217055000</v>
+        <v>209184000</v>
       </c>
       <c r="G42" s="3">
-        <v>223021000</v>
+        <v>214933000</v>
       </c>
       <c r="H42" s="3">
-        <v>216543000</v>
+        <v>208690000</v>
       </c>
       <c r="I42" s="3">
-        <v>178768000</v>
+        <v>172285000</v>
       </c>
       <c r="J42" s="3">
-        <v>198839000</v>
+        <v>191628000</v>
       </c>
       <c r="K42" s="3">
         <v>173929000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>418900</v>
+        <v>403700</v>
       </c>
       <c r="E47" s="3">
-        <v>430200</v>
+        <v>414600</v>
       </c>
       <c r="F47" s="3">
-        <v>128800</v>
+        <v>124100</v>
       </c>
       <c r="G47" s="3">
-        <v>92000</v>
+        <v>88600</v>
       </c>
       <c r="H47" s="3">
-        <v>83500</v>
+        <v>80500</v>
       </c>
       <c r="I47" s="3">
-        <v>66500</v>
+        <v>64100</v>
       </c>
       <c r="J47" s="3">
-        <v>104700</v>
+        <v>100900</v>
       </c>
       <c r="K47" s="3">
         <v>134500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16633200</v>
+        <v>16030000</v>
       </c>
       <c r="E48" s="3">
-        <v>18543600</v>
+        <v>17871100</v>
       </c>
       <c r="F48" s="3">
-        <v>17405900</v>
+        <v>16774600</v>
       </c>
       <c r="G48" s="3">
-        <v>18010100</v>
+        <v>17357000</v>
       </c>
       <c r="H48" s="3">
-        <v>18356800</v>
+        <v>17691100</v>
       </c>
       <c r="I48" s="3">
-        <v>18366700</v>
+        <v>17700600</v>
       </c>
       <c r="J48" s="3">
-        <v>17751100</v>
+        <v>17107400</v>
       </c>
       <c r="K48" s="3">
         <v>16554600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17090300</v>
+        <v>16470500</v>
       </c>
       <c r="E49" s="3">
-        <v>16542600</v>
+        <v>15942700</v>
       </c>
       <c r="F49" s="3">
-        <v>14744000</v>
+        <v>14209300</v>
       </c>
       <c r="G49" s="3">
-        <v>14128500</v>
+        <v>13616100</v>
       </c>
       <c r="H49" s="3">
-        <v>12366600</v>
+        <v>11918200</v>
       </c>
       <c r="I49" s="3">
-        <v>11957700</v>
+        <v>11524000</v>
       </c>
       <c r="J49" s="3">
-        <v>12665200</v>
+        <v>12205900</v>
       </c>
       <c r="K49" s="3">
         <v>12821400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6304300</v>
+        <v>6075700</v>
       </c>
       <c r="E52" s="3">
-        <v>4736400</v>
+        <v>4564600</v>
       </c>
       <c r="F52" s="3">
-        <v>15327100</v>
+        <v>14771200</v>
       </c>
       <c r="G52" s="3">
-        <v>15273300</v>
+        <v>14719400</v>
       </c>
       <c r="H52" s="3">
-        <v>13716700</v>
+        <v>13219200</v>
       </c>
       <c r="I52" s="3">
-        <v>17881300</v>
+        <v>17232900</v>
       </c>
       <c r="J52" s="3">
-        <v>25518700</v>
+        <v>24593200</v>
       </c>
       <c r="K52" s="3">
         <v>20218600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1232940000</v>
+        <v>1188230000</v>
       </c>
       <c r="E54" s="3">
-        <v>1180050000</v>
+        <v>1137250000</v>
       </c>
       <c r="F54" s="3">
-        <v>1128690000</v>
+        <v>1087760000</v>
       </c>
       <c r="G54" s="3">
-        <v>1149220000</v>
+        <v>1107550000</v>
       </c>
       <c r="H54" s="3">
-        <v>1157270000</v>
+        <v>1115300000</v>
       </c>
       <c r="I54" s="3">
-        <v>1141550000</v>
+        <v>1100150000</v>
       </c>
       <c r="J54" s="3">
-        <v>1209770000</v>
+        <v>1165900000</v>
       </c>
       <c r="K54" s="3">
         <v>1121540000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>43900</v>
+        <v>42300</v>
       </c>
       <c r="E59" s="3">
-        <v>264600</v>
+        <v>255000</v>
       </c>
       <c r="F59" s="3">
-        <v>533500</v>
+        <v>514100</v>
       </c>
       <c r="G59" s="3">
-        <v>387700</v>
+        <v>373700</v>
       </c>
       <c r="H59" s="3">
-        <v>319800</v>
+        <v>308200</v>
       </c>
       <c r="I59" s="3">
-        <v>394800</v>
+        <v>380500</v>
       </c>
       <c r="J59" s="3">
-        <v>97600</v>
+        <v>94100</v>
       </c>
       <c r="K59" s="3">
         <v>195700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>143857000</v>
+        <v>138640000</v>
       </c>
       <c r="E61" s="3">
-        <v>162482000</v>
+        <v>156589000</v>
       </c>
       <c r="F61" s="3">
-        <v>153998000</v>
+        <v>148413000</v>
       </c>
       <c r="G61" s="3">
-        <v>127886000</v>
+        <v>123248000</v>
       </c>
       <c r="H61" s="3">
-        <v>136056000</v>
+        <v>131122000</v>
       </c>
       <c r="I61" s="3">
-        <v>149107000</v>
+        <v>143700000</v>
       </c>
       <c r="J61" s="3">
-        <v>104158000</v>
+        <v>100380000</v>
       </c>
       <c r="K61" s="3">
         <v>121594000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3120300</v>
+        <v>3007200</v>
       </c>
       <c r="E62" s="3">
-        <v>5128400</v>
+        <v>4942400</v>
       </c>
       <c r="F62" s="3">
-        <v>5366100</v>
+        <v>5171500</v>
       </c>
       <c r="G62" s="3">
-        <v>8354800</v>
+        <v>8051800</v>
       </c>
       <c r="H62" s="3">
-        <v>8052000</v>
+        <v>7760000</v>
       </c>
       <c r="I62" s="3">
-        <v>8610900</v>
+        <v>8298700</v>
       </c>
       <c r="J62" s="3">
-        <v>6660900</v>
+        <v>6419400</v>
       </c>
       <c r="K62" s="3">
         <v>7438500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1163340000</v>
+        <v>1121150000</v>
       </c>
       <c r="E66" s="3">
-        <v>1112690000</v>
+        <v>1072330000</v>
       </c>
       <c r="F66" s="3">
-        <v>1058040000</v>
+        <v>1019670000</v>
       </c>
       <c r="G66" s="3">
-        <v>1080020000</v>
+        <v>1040850000</v>
       </c>
       <c r="H66" s="3">
-        <v>1088810000</v>
+        <v>1049320000</v>
       </c>
       <c r="I66" s="3">
-        <v>1075620000</v>
+        <v>1036620000</v>
       </c>
       <c r="J66" s="3">
-        <v>1140870000</v>
+        <v>1099500000</v>
       </c>
       <c r="K66" s="3">
         <v>1069630000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23786600</v>
+        <v>22923900</v>
       </c>
       <c r="E72" s="3">
-        <v>21893200</v>
+        <v>21099200</v>
       </c>
       <c r="F72" s="3">
-        <v>24662500</v>
+        <v>23768100</v>
       </c>
       <c r="G72" s="3">
-        <v>23754000</v>
+        <v>22892600</v>
       </c>
       <c r="H72" s="3">
-        <v>21907300</v>
+        <v>21112800</v>
       </c>
       <c r="I72" s="3">
-        <v>23359200</v>
+        <v>22512100</v>
       </c>
       <c r="J72" s="3">
-        <v>25350300</v>
+        <v>24430900</v>
       </c>
       <c r="K72" s="3">
         <v>21715100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69600800</v>
+        <v>67076600</v>
       </c>
       <c r="E76" s="3">
-        <v>67363500</v>
+        <v>64920500</v>
       </c>
       <c r="F76" s="3">
-        <v>70649400</v>
+        <v>68087200</v>
       </c>
       <c r="G76" s="3">
-        <v>69207400</v>
+        <v>66697500</v>
       </c>
       <c r="H76" s="3">
-        <v>68455900</v>
+        <v>65973300</v>
       </c>
       <c r="I76" s="3">
-        <v>65928600</v>
+        <v>63537600</v>
       </c>
       <c r="J76" s="3">
-        <v>68901700</v>
+        <v>66402900</v>
       </c>
       <c r="K76" s="3">
         <v>51910000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1224100</v>
+        <v>1179700</v>
       </c>
       <c r="E81" s="3">
-        <v>3479800</v>
+        <v>3353600</v>
       </c>
       <c r="F81" s="3">
-        <v>5775100</v>
+        <v>5565600</v>
       </c>
       <c r="G81" s="3">
-        <v>4593400</v>
+        <v>4426900</v>
       </c>
       <c r="H81" s="3">
-        <v>2960400</v>
+        <v>2853000</v>
       </c>
       <c r="I81" s="3">
-        <v>772700</v>
+        <v>744600</v>
       </c>
       <c r="J81" s="3">
-        <v>1679700</v>
+        <v>1618800</v>
       </c>
       <c r="K81" s="3">
         <v>-1115700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3866100</v>
+        <v>3725900</v>
       </c>
       <c r="E83" s="3">
-        <v>3764200</v>
+        <v>3627700</v>
       </c>
       <c r="F83" s="3">
-        <v>3403300</v>
+        <v>3279900</v>
       </c>
       <c r="G83" s="3">
-        <v>3353800</v>
+        <v>3232200</v>
       </c>
       <c r="H83" s="3">
-        <v>3368000</v>
+        <v>3245800</v>
       </c>
       <c r="I83" s="3">
-        <v>2988700</v>
+        <v>2880300</v>
       </c>
       <c r="J83" s="3">
-        <v>2738200</v>
+        <v>2638900</v>
       </c>
       <c r="K83" s="3">
         <v>2582900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38450000</v>
+        <v>37055500</v>
       </c>
       <c r="E89" s="3">
-        <v>15963900</v>
+        <v>15384900</v>
       </c>
       <c r="F89" s="3">
-        <v>-15717600</v>
+        <v>-15147600</v>
       </c>
       <c r="G89" s="3">
-        <v>-4521300</v>
+        <v>-4357300</v>
       </c>
       <c r="H89" s="3">
-        <v>2934900</v>
+        <v>2828500</v>
       </c>
       <c r="I89" s="3">
-        <v>23168200</v>
+        <v>22328000</v>
       </c>
       <c r="J89" s="3">
-        <v>14650600</v>
+        <v>14119300</v>
       </c>
       <c r="K89" s="3">
         <v>-20678000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4105200</v>
+        <v>-3956400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4870800</v>
+        <v>-4694200</v>
       </c>
       <c r="F91" s="3">
-        <v>-4972700</v>
+        <v>-4792400</v>
       </c>
       <c r="G91" s="3">
-        <v>-5172200</v>
+        <v>-4984700</v>
       </c>
       <c r="H91" s="3">
-        <v>-5320800</v>
+        <v>-5127900</v>
       </c>
       <c r="I91" s="3">
-        <v>-4835400</v>
+        <v>-4660100</v>
       </c>
       <c r="J91" s="3">
-        <v>-4870800</v>
+        <v>-4694200</v>
       </c>
       <c r="K91" s="3">
         <v>-3970200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5660400</v>
+        <v>-5455200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3014200</v>
+        <v>-2904900</v>
       </c>
       <c r="F94" s="3">
-        <v>16869500</v>
+        <v>16257700</v>
       </c>
       <c r="G94" s="3">
-        <v>9634100</v>
+        <v>9284700</v>
       </c>
       <c r="H94" s="3">
-        <v>-970800</v>
+        <v>-935600</v>
       </c>
       <c r="I94" s="3">
-        <v>-4684000</v>
+        <v>-4514100</v>
       </c>
       <c r="J94" s="3">
-        <v>-10927500</v>
+        <v>-10531200</v>
       </c>
       <c r="K94" s="3">
         <v>-20781800</v>
@@ -3534,19 +3534,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3271700</v>
+        <v>-3153100</v>
       </c>
       <c r="F96" s="3">
-        <v>-3169800</v>
+        <v>-3054900</v>
       </c>
       <c r="G96" s="3">
-        <v>-3232100</v>
+        <v>-3114900</v>
       </c>
       <c r="H96" s="3">
-        <v>-2850000</v>
+        <v>-2746700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1514200</v>
+        <v>-1459300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7527000</v>
+        <v>-7254000</v>
       </c>
       <c r="E100" s="3">
-        <v>-9281700</v>
+        <v>-8945100</v>
       </c>
       <c r="F100" s="3">
-        <v>-6086400</v>
+        <v>-5865700</v>
       </c>
       <c r="G100" s="3">
-        <v>-7102400</v>
+        <v>-6844900</v>
       </c>
       <c r="H100" s="3">
-        <v>-15529400</v>
+        <v>-14966200</v>
       </c>
       <c r="I100" s="3">
-        <v>-8855800</v>
+        <v>-8534600</v>
       </c>
       <c r="J100" s="3">
-        <v>-6049600</v>
+        <v>-5830200</v>
       </c>
       <c r="K100" s="3">
         <v>-4084700</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-277400</v>
+        <v>-267300</v>
       </c>
       <c r="E101" s="3">
-        <v>-7100</v>
+        <v>-6800</v>
       </c>
       <c r="F101" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>29700</v>
+        <v>28600</v>
       </c>
       <c r="I101" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J101" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="K101" s="3">
         <v>-70600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24985200</v>
+        <v>24079100</v>
       </c>
       <c r="E102" s="3">
-        <v>3660900</v>
+        <v>3528100</v>
       </c>
       <c r="F102" s="3">
-        <v>-4930200</v>
+        <v>-4751400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1989600</v>
+        <v>-1917500</v>
       </c>
       <c r="H102" s="3">
-        <v>-13535500</v>
+        <v>-13044700</v>
       </c>
       <c r="I102" s="3">
-        <v>9631200</v>
+        <v>9282000</v>
       </c>
       <c r="J102" s="3">
-        <v>-2334900</v>
+        <v>-2250300</v>
       </c>
       <c r="K102" s="3">
         <v>-45615100</v>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19510400</v>
+        <v>19042700</v>
       </c>
       <c r="E8" s="3">
-        <v>22994900</v>
+        <v>22443700</v>
       </c>
       <c r="F8" s="3">
-        <v>22296600</v>
+        <v>21762200</v>
       </c>
       <c r="G8" s="3">
-        <v>21828800</v>
+        <v>21305600</v>
       </c>
       <c r="H8" s="3">
-        <v>22666200</v>
+        <v>22122900</v>
       </c>
       <c r="I8" s="3">
-        <v>24023200</v>
+        <v>23447300</v>
       </c>
       <c r="J8" s="3">
-        <v>26199800</v>
+        <v>25571800</v>
       </c>
       <c r="K8" s="3">
         <v>28176400</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3725900</v>
+        <v>-3636600</v>
       </c>
       <c r="E15" s="3">
-        <v>-3627700</v>
+        <v>-3540700</v>
       </c>
       <c r="F15" s="3">
-        <v>-3279900</v>
+        <v>-3201300</v>
       </c>
       <c r="G15" s="3">
-        <v>-3232200</v>
+        <v>-3154700</v>
       </c>
       <c r="H15" s="3">
-        <v>-3245800</v>
+        <v>-3168000</v>
       </c>
       <c r="I15" s="3">
-        <v>-2880300</v>
+        <v>-2811300</v>
       </c>
       <c r="J15" s="3">
-        <v>-2638900</v>
+        <v>-2575700</v>
       </c>
       <c r="K15" s="3">
         <v>-2582900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10517500</v>
+        <v>10265400</v>
       </c>
       <c r="E17" s="3">
-        <v>10879000</v>
+        <v>10618200</v>
       </c>
       <c r="F17" s="3">
-        <v>5305100</v>
+        <v>5178000</v>
       </c>
       <c r="G17" s="3">
-        <v>7885400</v>
+        <v>7696400</v>
       </c>
       <c r="H17" s="3">
-        <v>10825800</v>
+        <v>10566300</v>
       </c>
       <c r="I17" s="3">
-        <v>9189200</v>
+        <v>8969000</v>
       </c>
       <c r="J17" s="3">
-        <v>12666900</v>
+        <v>12363300</v>
       </c>
       <c r="K17" s="3">
         <v>22036000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8992800</v>
+        <v>8777300</v>
       </c>
       <c r="E18" s="3">
-        <v>12115900</v>
+        <v>11825500</v>
       </c>
       <c r="F18" s="3">
-        <v>16991500</v>
+        <v>16584200</v>
       </c>
       <c r="G18" s="3">
-        <v>13943400</v>
+        <v>13609200</v>
       </c>
       <c r="H18" s="3">
-        <v>11840400</v>
+        <v>11556600</v>
       </c>
       <c r="I18" s="3">
-        <v>14833900</v>
+        <v>14478400</v>
       </c>
       <c r="J18" s="3">
-        <v>13532900</v>
+        <v>13208500</v>
       </c>
       <c r="K18" s="3">
         <v>6140400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7320800</v>
+        <v>-7145300</v>
       </c>
       <c r="E20" s="3">
-        <v>-6124800</v>
+        <v>-5978000</v>
       </c>
       <c r="F20" s="3">
-        <v>-8863300</v>
+        <v>-8650800</v>
       </c>
       <c r="G20" s="3">
-        <v>-6749400</v>
+        <v>-6587600</v>
       </c>
       <c r="H20" s="3">
-        <v>-6060700</v>
+        <v>-5915400</v>
       </c>
       <c r="I20" s="3">
-        <v>-12591900</v>
+        <v>-12290000</v>
       </c>
       <c r="J20" s="3">
-        <v>-11129900</v>
+        <v>-10863100</v>
       </c>
       <c r="K20" s="3">
         <v>-5587900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5429900</v>
+        <v>5276400</v>
       </c>
       <c r="E21" s="3">
-        <v>9650000</v>
+        <v>9395900</v>
       </c>
       <c r="F21" s="3">
-        <v>11436300</v>
+        <v>11141600</v>
       </c>
       <c r="G21" s="3">
-        <v>10453900</v>
+        <v>10183100</v>
       </c>
       <c r="H21" s="3">
-        <v>9053400</v>
+        <v>8816100</v>
       </c>
       <c r="I21" s="3">
-        <v>5147100</v>
+        <v>5005700</v>
       </c>
       <c r="J21" s="3">
-        <v>5064600</v>
+        <v>4926700</v>
       </c>
       <c r="K21" s="3">
         <v>3143400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1672000</v>
+        <v>1631900</v>
       </c>
       <c r="E23" s="3">
-        <v>5991100</v>
+        <v>5847500</v>
       </c>
       <c r="F23" s="3">
-        <v>8128200</v>
+        <v>7933400</v>
       </c>
       <c r="G23" s="3">
-        <v>7194000</v>
+        <v>7021600</v>
       </c>
       <c r="H23" s="3">
-        <v>5779700</v>
+        <v>5641200</v>
       </c>
       <c r="I23" s="3">
-        <v>2242100</v>
+        <v>2188300</v>
       </c>
       <c r="J23" s="3">
-        <v>2403000</v>
+        <v>2345400</v>
       </c>
       <c r="K23" s="3">
         <v>552500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-219600</v>
+        <v>-214300</v>
       </c>
       <c r="E24" s="3">
-        <v>1891600</v>
+        <v>1846200</v>
       </c>
       <c r="F24" s="3">
-        <v>1983000</v>
+        <v>1935400</v>
       </c>
       <c r="G24" s="3">
-        <v>2217500</v>
+        <v>2164400</v>
       </c>
       <c r="H24" s="3">
-        <v>2351200</v>
+        <v>2294800</v>
       </c>
       <c r="I24" s="3">
-        <v>938300</v>
+        <v>915800</v>
       </c>
       <c r="J24" s="3">
-        <v>358700</v>
+        <v>350100</v>
       </c>
       <c r="K24" s="3">
         <v>1620300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1891600</v>
+        <v>1846200</v>
       </c>
       <c r="E26" s="3">
-        <v>4099600</v>
+        <v>4001300</v>
       </c>
       <c r="F26" s="3">
-        <v>6145200</v>
+        <v>5997900</v>
       </c>
       <c r="G26" s="3">
-        <v>4976500</v>
+        <v>4857200</v>
       </c>
       <c r="H26" s="3">
-        <v>3428600</v>
+        <v>3346400</v>
       </c>
       <c r="I26" s="3">
-        <v>1303800</v>
+        <v>1272500</v>
       </c>
       <c r="J26" s="3">
-        <v>2044300</v>
+        <v>1995300</v>
       </c>
       <c r="K26" s="3">
         <v>-1067800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1179700</v>
+        <v>1151400</v>
       </c>
       <c r="E27" s="3">
-        <v>3353600</v>
+        <v>3273200</v>
       </c>
       <c r="F27" s="3">
-        <v>5565600</v>
+        <v>5432200</v>
       </c>
       <c r="G27" s="3">
-        <v>4426900</v>
+        <v>4320800</v>
       </c>
       <c r="H27" s="3">
-        <v>2853000</v>
+        <v>2784700</v>
       </c>
       <c r="I27" s="3">
-        <v>744600</v>
+        <v>726800</v>
       </c>
       <c r="J27" s="3">
-        <v>1618800</v>
+        <v>1580000</v>
       </c>
       <c r="K27" s="3">
         <v>-1115700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7320800</v>
+        <v>7145300</v>
       </c>
       <c r="E32" s="3">
-        <v>6124800</v>
+        <v>5978000</v>
       </c>
       <c r="F32" s="3">
-        <v>8863300</v>
+        <v>8650800</v>
       </c>
       <c r="G32" s="3">
-        <v>6749400</v>
+        <v>6587600</v>
       </c>
       <c r="H32" s="3">
-        <v>6060700</v>
+        <v>5915400</v>
       </c>
       <c r="I32" s="3">
-        <v>12591900</v>
+        <v>12290000</v>
       </c>
       <c r="J32" s="3">
-        <v>11129900</v>
+        <v>10863100</v>
       </c>
       <c r="K32" s="3">
         <v>5587900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1179700</v>
+        <v>1151400</v>
       </c>
       <c r="E33" s="3">
-        <v>3353600</v>
+        <v>3273200</v>
       </c>
       <c r="F33" s="3">
-        <v>5565600</v>
+        <v>5432200</v>
       </c>
       <c r="G33" s="3">
-        <v>4426900</v>
+        <v>4320800</v>
       </c>
       <c r="H33" s="3">
-        <v>2853000</v>
+        <v>2784700</v>
       </c>
       <c r="I33" s="3">
-        <v>744600</v>
+        <v>726800</v>
       </c>
       <c r="J33" s="3">
-        <v>1618800</v>
+        <v>1580000</v>
       </c>
       <c r="K33" s="3">
         <v>-1115700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1179700</v>
+        <v>1151400</v>
       </c>
       <c r="E35" s="3">
-        <v>3353600</v>
+        <v>3273200</v>
       </c>
       <c r="F35" s="3">
-        <v>5565600</v>
+        <v>5432200</v>
       </c>
       <c r="G35" s="3">
-        <v>4426900</v>
+        <v>4320800</v>
       </c>
       <c r="H35" s="3">
-        <v>2853000</v>
+        <v>2784700</v>
       </c>
       <c r="I35" s="3">
-        <v>744600</v>
+        <v>726800</v>
       </c>
       <c r="J35" s="3">
-        <v>1618800</v>
+        <v>1580000</v>
       </c>
       <c r="K35" s="3">
         <v>-1115700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>111307000</v>
+        <v>108639000</v>
       </c>
       <c r="E41" s="3">
-        <v>86823000</v>
+        <v>84741800</v>
       </c>
       <c r="F41" s="3">
-        <v>83371200</v>
+        <v>81372800</v>
       </c>
       <c r="G41" s="3">
-        <v>88804500</v>
+        <v>86675900</v>
       </c>
       <c r="H41" s="3">
-        <v>101136000</v>
+        <v>98711700</v>
       </c>
       <c r="I41" s="3">
-        <v>113560000</v>
+        <v>110838000</v>
       </c>
       <c r="J41" s="3">
-        <v>103540000</v>
+        <v>101058000</v>
       </c>
       <c r="K41" s="3">
         <v>101325000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>235269000</v>
+        <v>229629000</v>
       </c>
       <c r="E42" s="3">
-        <v>214914000</v>
+        <v>209763000</v>
       </c>
       <c r="F42" s="3">
-        <v>209184000</v>
+        <v>204169000</v>
       </c>
       <c r="G42" s="3">
-        <v>214933000</v>
+        <v>209781000</v>
       </c>
       <c r="H42" s="3">
-        <v>208690000</v>
+        <v>203688000</v>
       </c>
       <c r="I42" s="3">
-        <v>172285000</v>
+        <v>168155000</v>
       </c>
       <c r="J42" s="3">
-        <v>191628000</v>
+        <v>187034000</v>
       </c>
       <c r="K42" s="3">
         <v>173929000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>403700</v>
+        <v>394000</v>
       </c>
       <c r="E47" s="3">
-        <v>414600</v>
+        <v>404700</v>
       </c>
       <c r="F47" s="3">
-        <v>124100</v>
+        <v>121100</v>
       </c>
       <c r="G47" s="3">
-        <v>88600</v>
+        <v>86500</v>
       </c>
       <c r="H47" s="3">
-        <v>80500</v>
+        <v>78500</v>
       </c>
       <c r="I47" s="3">
-        <v>64100</v>
+        <v>62600</v>
       </c>
       <c r="J47" s="3">
-        <v>100900</v>
+        <v>98500</v>
       </c>
       <c r="K47" s="3">
         <v>134500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16030000</v>
+        <v>15645700</v>
       </c>
       <c r="E48" s="3">
-        <v>17871100</v>
+        <v>17442700</v>
       </c>
       <c r="F48" s="3">
-        <v>16774600</v>
+        <v>16372500</v>
       </c>
       <c r="G48" s="3">
-        <v>17357000</v>
+        <v>16940900</v>
       </c>
       <c r="H48" s="3">
-        <v>17691100</v>
+        <v>17267000</v>
       </c>
       <c r="I48" s="3">
-        <v>17700600</v>
+        <v>17276300</v>
       </c>
       <c r="J48" s="3">
-        <v>17107400</v>
+        <v>16697300</v>
       </c>
       <c r="K48" s="3">
         <v>16554600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16470500</v>
+        <v>16075700</v>
       </c>
       <c r="E49" s="3">
-        <v>15942700</v>
+        <v>15560600</v>
       </c>
       <c r="F49" s="3">
-        <v>14209300</v>
+        <v>13868700</v>
       </c>
       <c r="G49" s="3">
-        <v>13616100</v>
+        <v>13289700</v>
       </c>
       <c r="H49" s="3">
-        <v>11918200</v>
+        <v>11632500</v>
       </c>
       <c r="I49" s="3">
-        <v>11524000</v>
+        <v>11247800</v>
       </c>
       <c r="J49" s="3">
-        <v>12205900</v>
+        <v>11913300</v>
       </c>
       <c r="K49" s="3">
         <v>12821400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6075700</v>
+        <v>5930100</v>
       </c>
       <c r="E52" s="3">
-        <v>4564600</v>
+        <v>4455200</v>
       </c>
       <c r="F52" s="3">
-        <v>14771200</v>
+        <v>14417100</v>
       </c>
       <c r="G52" s="3">
-        <v>14719400</v>
+        <v>14366600</v>
       </c>
       <c r="H52" s="3">
-        <v>13219200</v>
+        <v>12902400</v>
       </c>
       <c r="I52" s="3">
-        <v>17232900</v>
+        <v>16819800</v>
       </c>
       <c r="J52" s="3">
-        <v>24593200</v>
+        <v>24003700</v>
       </c>
       <c r="K52" s="3">
         <v>20218600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1188230000</v>
+        <v>1159750000</v>
       </c>
       <c r="E54" s="3">
-        <v>1137250000</v>
+        <v>1110000000</v>
       </c>
       <c r="F54" s="3">
-        <v>1087760000</v>
+        <v>1061680000</v>
       </c>
       <c r="G54" s="3">
-        <v>1107550000</v>
+        <v>1081000000</v>
       </c>
       <c r="H54" s="3">
-        <v>1115300000</v>
+        <v>1088560000</v>
       </c>
       <c r="I54" s="3">
-        <v>1100150000</v>
+        <v>1073780000</v>
       </c>
       <c r="J54" s="3">
-        <v>1165900000</v>
+        <v>1137950000</v>
       </c>
       <c r="K54" s="3">
         <v>1121540000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42300</v>
+        <v>41300</v>
       </c>
       <c r="E59" s="3">
-        <v>255000</v>
+        <v>248900</v>
       </c>
       <c r="F59" s="3">
-        <v>514100</v>
+        <v>501800</v>
       </c>
       <c r="G59" s="3">
-        <v>373700</v>
+        <v>364700</v>
       </c>
       <c r="H59" s="3">
-        <v>308200</v>
+        <v>300800</v>
       </c>
       <c r="I59" s="3">
-        <v>380500</v>
+        <v>371400</v>
       </c>
       <c r="J59" s="3">
-        <v>94100</v>
+        <v>91800</v>
       </c>
       <c r="K59" s="3">
         <v>195700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>138640000</v>
+        <v>135317000</v>
       </c>
       <c r="E61" s="3">
-        <v>156589000</v>
+        <v>152836000</v>
       </c>
       <c r="F61" s="3">
-        <v>148413000</v>
+        <v>144856000</v>
       </c>
       <c r="G61" s="3">
-        <v>123248000</v>
+        <v>120294000</v>
       </c>
       <c r="H61" s="3">
-        <v>131122000</v>
+        <v>127979000</v>
       </c>
       <c r="I61" s="3">
-        <v>143700000</v>
+        <v>140255000</v>
       </c>
       <c r="J61" s="3">
-        <v>100380000</v>
+        <v>97974300</v>
       </c>
       <c r="K61" s="3">
         <v>121594000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3007200</v>
+        <v>2935100</v>
       </c>
       <c r="E62" s="3">
-        <v>4942400</v>
+        <v>4823900</v>
       </c>
       <c r="F62" s="3">
-        <v>5171500</v>
+        <v>5047500</v>
       </c>
       <c r="G62" s="3">
-        <v>8051800</v>
+        <v>7858800</v>
       </c>
       <c r="H62" s="3">
-        <v>7760000</v>
+        <v>7574000</v>
       </c>
       <c r="I62" s="3">
-        <v>8298700</v>
+        <v>8099700</v>
       </c>
       <c r="J62" s="3">
-        <v>6419400</v>
+        <v>6265500</v>
       </c>
       <c r="K62" s="3">
         <v>7438500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1121150000</v>
+        <v>1094280000</v>
       </c>
       <c r="E66" s="3">
-        <v>1072330000</v>
+        <v>1046630000</v>
       </c>
       <c r="F66" s="3">
-        <v>1019670000</v>
+        <v>995228000</v>
       </c>
       <c r="G66" s="3">
-        <v>1040850000</v>
+        <v>1015900000</v>
       </c>
       <c r="H66" s="3">
-        <v>1049320000</v>
+        <v>1024170000</v>
       </c>
       <c r="I66" s="3">
-        <v>1036620000</v>
+        <v>1011770000</v>
       </c>
       <c r="J66" s="3">
-        <v>1099500000</v>
+        <v>1073140000</v>
       </c>
       <c r="K66" s="3">
         <v>1069630000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22923900</v>
+        <v>22374500</v>
       </c>
       <c r="E72" s="3">
-        <v>21099200</v>
+        <v>20593400</v>
       </c>
       <c r="F72" s="3">
-        <v>23768100</v>
+        <v>23198400</v>
       </c>
       <c r="G72" s="3">
-        <v>22892600</v>
+        <v>22343800</v>
       </c>
       <c r="H72" s="3">
-        <v>21112800</v>
+        <v>20606800</v>
       </c>
       <c r="I72" s="3">
-        <v>22512100</v>
+        <v>21972500</v>
       </c>
       <c r="J72" s="3">
-        <v>24430900</v>
+        <v>23845300</v>
       </c>
       <c r="K72" s="3">
         <v>21715100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67076600</v>
+        <v>65468800</v>
       </c>
       <c r="E76" s="3">
-        <v>64920500</v>
+        <v>63364400</v>
       </c>
       <c r="F76" s="3">
-        <v>68087200</v>
+        <v>66455200</v>
       </c>
       <c r="G76" s="3">
-        <v>66697500</v>
+        <v>65098800</v>
       </c>
       <c r="H76" s="3">
-        <v>65973300</v>
+        <v>64392000</v>
       </c>
       <c r="I76" s="3">
-        <v>63537600</v>
+        <v>62014600</v>
       </c>
       <c r="J76" s="3">
-        <v>66402900</v>
+        <v>64811300</v>
       </c>
       <c r="K76" s="3">
         <v>51910000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1179700</v>
+        <v>1151400</v>
       </c>
       <c r="E81" s="3">
-        <v>3353600</v>
+        <v>3273200</v>
       </c>
       <c r="F81" s="3">
-        <v>5565600</v>
+        <v>5432200</v>
       </c>
       <c r="G81" s="3">
-        <v>4426900</v>
+        <v>4320800</v>
       </c>
       <c r="H81" s="3">
-        <v>2853000</v>
+        <v>2784700</v>
       </c>
       <c r="I81" s="3">
-        <v>744600</v>
+        <v>726800</v>
       </c>
       <c r="J81" s="3">
-        <v>1618800</v>
+        <v>1580000</v>
       </c>
       <c r="K81" s="3">
         <v>-1115700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3725900</v>
+        <v>3636600</v>
       </c>
       <c r="E83" s="3">
-        <v>3627700</v>
+        <v>3540700</v>
       </c>
       <c r="F83" s="3">
-        <v>3279900</v>
+        <v>3201300</v>
       </c>
       <c r="G83" s="3">
-        <v>3232200</v>
+        <v>3154700</v>
       </c>
       <c r="H83" s="3">
-        <v>3245800</v>
+        <v>3168000</v>
       </c>
       <c r="I83" s="3">
-        <v>2880300</v>
+        <v>2811300</v>
       </c>
       <c r="J83" s="3">
-        <v>2638900</v>
+        <v>2575700</v>
       </c>
       <c r="K83" s="3">
         <v>2582900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>37055500</v>
+        <v>36167300</v>
       </c>
       <c r="E89" s="3">
-        <v>15384900</v>
+        <v>15016100</v>
       </c>
       <c r="F89" s="3">
-        <v>-15147600</v>
+        <v>-14784500</v>
       </c>
       <c r="G89" s="3">
-        <v>-4357300</v>
+        <v>-4252900</v>
       </c>
       <c r="H89" s="3">
-        <v>2828500</v>
+        <v>2760700</v>
       </c>
       <c r="I89" s="3">
-        <v>22328000</v>
+        <v>21792800</v>
       </c>
       <c r="J89" s="3">
-        <v>14119300</v>
+        <v>13780900</v>
       </c>
       <c r="K89" s="3">
         <v>-20678000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3956400</v>
+        <v>-3861500</v>
       </c>
       <c r="E91" s="3">
-        <v>-4694200</v>
+        <v>-4581600</v>
       </c>
       <c r="F91" s="3">
-        <v>-4792400</v>
+        <v>-4677500</v>
       </c>
       <c r="G91" s="3">
-        <v>-4984700</v>
+        <v>-4865200</v>
       </c>
       <c r="H91" s="3">
-        <v>-5127900</v>
+        <v>-5004900</v>
       </c>
       <c r="I91" s="3">
-        <v>-4660100</v>
+        <v>-4548400</v>
       </c>
       <c r="J91" s="3">
-        <v>-4694200</v>
+        <v>-4581600</v>
       </c>
       <c r="K91" s="3">
         <v>-3970200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5455200</v>
+        <v>-5324400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2904900</v>
+        <v>-2835200</v>
       </c>
       <c r="F94" s="3">
-        <v>16257700</v>
+        <v>15868000</v>
       </c>
       <c r="G94" s="3">
-        <v>9284700</v>
+        <v>9062100</v>
       </c>
       <c r="H94" s="3">
-        <v>-935600</v>
+        <v>-913100</v>
       </c>
       <c r="I94" s="3">
-        <v>-4514100</v>
+        <v>-4405900</v>
       </c>
       <c r="J94" s="3">
-        <v>-10531200</v>
+        <v>-10278800</v>
       </c>
       <c r="K94" s="3">
         <v>-20781800</v>
@@ -3534,19 +3534,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3153100</v>
+        <v>-3077500</v>
       </c>
       <c r="F96" s="3">
-        <v>-3054900</v>
+        <v>-2981700</v>
       </c>
       <c r="G96" s="3">
-        <v>-3114900</v>
+        <v>-3040200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2746700</v>
+        <v>-2680800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1459300</v>
+        <v>-1424300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7254000</v>
+        <v>-7080100</v>
       </c>
       <c r="E100" s="3">
-        <v>-8945100</v>
+        <v>-8730700</v>
       </c>
       <c r="F100" s="3">
-        <v>-5865700</v>
+        <v>-5725100</v>
       </c>
       <c r="G100" s="3">
-        <v>-6844900</v>
+        <v>-6680800</v>
       </c>
       <c r="H100" s="3">
-        <v>-14966200</v>
+        <v>-14607500</v>
       </c>
       <c r="I100" s="3">
-        <v>-8534600</v>
+        <v>-8330000</v>
       </c>
       <c r="J100" s="3">
-        <v>-5830200</v>
+        <v>-5690500</v>
       </c>
       <c r="K100" s="3">
         <v>-4084700</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-267300</v>
+        <v>-260900</v>
       </c>
       <c r="E101" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="F101" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>28600</v>
+        <v>28000</v>
       </c>
       <c r="I101" s="3">
         <v>2700</v>
       </c>
       <c r="J101" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="K101" s="3">
         <v>-70600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24079100</v>
+        <v>23501900</v>
       </c>
       <c r="E102" s="3">
-        <v>3528100</v>
+        <v>3443600</v>
       </c>
       <c r="F102" s="3">
-        <v>-4751400</v>
+        <v>-4637600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1917500</v>
+        <v>-1871500</v>
       </c>
       <c r="H102" s="3">
-        <v>-13044700</v>
+        <v>-12732000</v>
       </c>
       <c r="I102" s="3">
-        <v>9282000</v>
+        <v>9059500</v>
       </c>
       <c r="J102" s="3">
-        <v>-2250300</v>
+        <v>-2196300</v>
       </c>
       <c r="K102" s="3">
         <v>-45615100</v>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>LYG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19042700</v>
+        <v>17283000</v>
       </c>
       <c r="E8" s="3">
-        <v>22443700</v>
+        <v>18649200</v>
       </c>
       <c r="F8" s="3">
-        <v>21762200</v>
+        <v>21979800</v>
       </c>
       <c r="G8" s="3">
-        <v>21305600</v>
+        <v>21312400</v>
       </c>
       <c r="H8" s="3">
-        <v>22122900</v>
+        <v>20865300</v>
       </c>
       <c r="I8" s="3">
-        <v>23447300</v>
+        <v>21665700</v>
       </c>
       <c r="J8" s="3">
+        <v>22962700</v>
+      </c>
+      <c r="K8" s="3">
         <v>25571800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28176400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30426300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34652600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3636600</v>
+        <v>-3682600</v>
       </c>
       <c r="E15" s="3">
-        <v>-3540700</v>
+        <v>-3561400</v>
       </c>
       <c r="F15" s="3">
-        <v>-3201300</v>
+        <v>-3467500</v>
       </c>
       <c r="G15" s="3">
-        <v>-3154700</v>
+        <v>-3135100</v>
       </c>
       <c r="H15" s="3">
-        <v>-3168000</v>
+        <v>-3089500</v>
       </c>
       <c r="I15" s="3">
-        <v>-2811300</v>
+        <v>-3102500</v>
       </c>
       <c r="J15" s="3">
+        <v>-2753200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-2575700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-2582900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-2646400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-3737100</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10265400</v>
+        <v>3277200</v>
       </c>
       <c r="E17" s="3">
-        <v>10618200</v>
+        <v>10053300</v>
       </c>
       <c r="F17" s="3">
-        <v>5178000</v>
+        <v>10398700</v>
       </c>
       <c r="G17" s="3">
-        <v>7696400</v>
+        <v>5071000</v>
       </c>
       <c r="H17" s="3">
-        <v>10566300</v>
+        <v>7537400</v>
       </c>
       <c r="I17" s="3">
-        <v>8969000</v>
+        <v>10347900</v>
       </c>
       <c r="J17" s="3">
+        <v>8783600</v>
+      </c>
+      <c r="K17" s="3">
         <v>12363300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22036000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25350700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28557200</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8777300</v>
+        <v>14005800</v>
       </c>
       <c r="E18" s="3">
-        <v>11825500</v>
+        <v>8595900</v>
       </c>
       <c r="F18" s="3">
-        <v>16584200</v>
+        <v>11581100</v>
       </c>
       <c r="G18" s="3">
-        <v>13609200</v>
+        <v>16241400</v>
       </c>
       <c r="H18" s="3">
-        <v>11556600</v>
+        <v>13327900</v>
       </c>
       <c r="I18" s="3">
-        <v>14478400</v>
+        <v>11317800</v>
       </c>
       <c r="J18" s="3">
+        <v>14179100</v>
+      </c>
+      <c r="K18" s="3">
         <v>13208500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6140400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5075600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6095400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7145300</v>
+        <v>-5008400</v>
       </c>
       <c r="E20" s="3">
-        <v>-5978000</v>
+        <v>-6997700</v>
       </c>
       <c r="F20" s="3">
-        <v>-8650800</v>
+        <v>-5854400</v>
       </c>
       <c r="G20" s="3">
-        <v>-6587600</v>
+        <v>-8472000</v>
       </c>
       <c r="H20" s="3">
-        <v>-5915400</v>
+        <v>-6451500</v>
       </c>
       <c r="I20" s="3">
-        <v>-12290000</v>
+        <v>-5793200</v>
       </c>
       <c r="J20" s="3">
+        <v>-12036000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-10863100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5587900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5812500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6821000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5276400</v>
+        <v>12720500</v>
       </c>
       <c r="E21" s="3">
-        <v>9395900</v>
+        <v>5198700</v>
       </c>
       <c r="F21" s="3">
-        <v>11141600</v>
+        <v>9232300</v>
       </c>
       <c r="G21" s="3">
-        <v>10183100</v>
+        <v>10939000</v>
       </c>
       <c r="H21" s="3">
-        <v>8816100</v>
+        <v>9999900</v>
       </c>
       <c r="I21" s="3">
-        <v>5005700</v>
+        <v>8661200</v>
       </c>
       <c r="J21" s="3">
+        <v>4926500</v>
+      </c>
+      <c r="K21" s="3">
         <v>4926700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3143400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2026900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2127900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1631900</v>
+        <v>8997400</v>
       </c>
       <c r="E23" s="3">
-        <v>5847500</v>
+        <v>1598200</v>
       </c>
       <c r="F23" s="3">
-        <v>7933400</v>
+        <v>5726700</v>
       </c>
       <c r="G23" s="3">
-        <v>7021600</v>
+        <v>7769400</v>
       </c>
       <c r="H23" s="3">
-        <v>5641200</v>
+        <v>6876400</v>
       </c>
       <c r="I23" s="3">
-        <v>2188300</v>
+        <v>5524600</v>
       </c>
       <c r="J23" s="3">
+        <v>2143100</v>
+      </c>
+      <c r="K23" s="3">
         <v>2345400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>552500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-736900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-725600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-214300</v>
+        <v>1325800</v>
       </c>
       <c r="E24" s="3">
-        <v>1846200</v>
+        <v>-209900</v>
       </c>
       <c r="F24" s="3">
-        <v>1935400</v>
+        <v>1808100</v>
       </c>
       <c r="G24" s="3">
-        <v>2164400</v>
+        <v>1895400</v>
       </c>
       <c r="H24" s="3">
-        <v>2294800</v>
+        <v>2119600</v>
       </c>
       <c r="I24" s="3">
-        <v>915800</v>
+        <v>2247400</v>
       </c>
       <c r="J24" s="3">
+        <v>896900</v>
+      </c>
+      <c r="K24" s="3">
         <v>350100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1620300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>999300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1846200</v>
+        <v>7671600</v>
       </c>
       <c r="E26" s="3">
-        <v>4001300</v>
+        <v>1808100</v>
       </c>
       <c r="F26" s="3">
-        <v>5997900</v>
+        <v>3918600</v>
       </c>
       <c r="G26" s="3">
-        <v>4857200</v>
+        <v>5874000</v>
       </c>
       <c r="H26" s="3">
-        <v>3346400</v>
+        <v>4756800</v>
       </c>
       <c r="I26" s="3">
-        <v>1272500</v>
+        <v>3277200</v>
       </c>
       <c r="J26" s="3">
+        <v>1246200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1995300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1067800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1736200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-729500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1151400</v>
+        <v>6980700</v>
       </c>
       <c r="E27" s="3">
-        <v>3273200</v>
+        <v>1127600</v>
       </c>
       <c r="F27" s="3">
-        <v>5432200</v>
+        <v>3205500</v>
       </c>
       <c r="G27" s="3">
-        <v>4320800</v>
+        <v>5320000</v>
       </c>
       <c r="H27" s="3">
-        <v>2784700</v>
+        <v>4231500</v>
       </c>
       <c r="I27" s="3">
-        <v>726800</v>
+        <v>2727100</v>
       </c>
       <c r="J27" s="3">
+        <v>711800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1580000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1115700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1844800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-825600</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7145300</v>
+        <v>5008400</v>
       </c>
       <c r="E32" s="3">
-        <v>5978000</v>
+        <v>6997700</v>
       </c>
       <c r="F32" s="3">
-        <v>8650800</v>
+        <v>5854400</v>
       </c>
       <c r="G32" s="3">
-        <v>6587600</v>
+        <v>8472000</v>
       </c>
       <c r="H32" s="3">
-        <v>5915400</v>
+        <v>6451500</v>
       </c>
       <c r="I32" s="3">
-        <v>12290000</v>
+        <v>5793200</v>
       </c>
       <c r="J32" s="3">
+        <v>12036000</v>
+      </c>
+      <c r="K32" s="3">
         <v>10863100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5587900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5812500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6821000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1151400</v>
+        <v>6980700</v>
       </c>
       <c r="E33" s="3">
-        <v>3273200</v>
+        <v>1127600</v>
       </c>
       <c r="F33" s="3">
-        <v>5432200</v>
+        <v>3205500</v>
       </c>
       <c r="G33" s="3">
-        <v>4320800</v>
+        <v>5320000</v>
       </c>
       <c r="H33" s="3">
-        <v>2784700</v>
+        <v>4231500</v>
       </c>
       <c r="I33" s="3">
-        <v>726800</v>
+        <v>2727100</v>
       </c>
       <c r="J33" s="3">
+        <v>711800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1580000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1115700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1844800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-825600</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1151400</v>
+        <v>6980700</v>
       </c>
       <c r="E35" s="3">
-        <v>3273200</v>
+        <v>1127600</v>
       </c>
       <c r="F35" s="3">
-        <v>5432200</v>
+        <v>3205500</v>
       </c>
       <c r="G35" s="3">
-        <v>4320800</v>
+        <v>5320000</v>
       </c>
       <c r="H35" s="3">
-        <v>2784700</v>
+        <v>4231500</v>
       </c>
       <c r="I35" s="3">
-        <v>726800</v>
+        <v>2727100</v>
       </c>
       <c r="J35" s="3">
+        <v>711800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1580000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1115700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1844800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-825600</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>108639000</v>
+        <v>108938000</v>
       </c>
       <c r="E41" s="3">
-        <v>84741800</v>
+        <v>106394000</v>
       </c>
       <c r="F41" s="3">
-        <v>81372800</v>
+        <v>82990500</v>
       </c>
       <c r="G41" s="3">
-        <v>86675900</v>
+        <v>79691100</v>
       </c>
       <c r="H41" s="3">
-        <v>98711700</v>
+        <v>84884600</v>
       </c>
       <c r="I41" s="3">
-        <v>110838000</v>
+        <v>96671600</v>
       </c>
       <c r="J41" s="3">
+        <v>108547000</v>
+      </c>
+      <c r="K41" s="3">
         <v>101058000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>101325000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>190135000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>168058000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>229629000</v>
+        <v>329127000</v>
       </c>
       <c r="E42" s="3">
-        <v>209763000</v>
+        <v>224884000</v>
       </c>
       <c r="F42" s="3">
-        <v>204169000</v>
+        <v>205428000</v>
       </c>
       <c r="G42" s="3">
-        <v>209781000</v>
+        <v>199950000</v>
       </c>
       <c r="H42" s="3">
-        <v>203688000</v>
+        <v>205446000</v>
       </c>
       <c r="I42" s="3">
-        <v>168155000</v>
+        <v>199478000</v>
       </c>
       <c r="J42" s="3">
+        <v>164680000</v>
+      </c>
+      <c r="K42" s="3">
         <v>187034000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>173929000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>220864000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>95065700</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>394000</v>
+        <v>458900</v>
       </c>
       <c r="E47" s="3">
-        <v>404700</v>
+        <v>385900</v>
       </c>
       <c r="F47" s="3">
-        <v>121100</v>
+        <v>396300</v>
       </c>
       <c r="G47" s="3">
-        <v>86500</v>
+        <v>118600</v>
       </c>
       <c r="H47" s="3">
-        <v>78500</v>
+        <v>84700</v>
       </c>
       <c r="I47" s="3">
-        <v>62600</v>
+        <v>76900</v>
       </c>
       <c r="J47" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K47" s="3">
         <v>98500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>134500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>404600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>439800</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15645700</v>
+        <v>15091700</v>
       </c>
       <c r="E48" s="3">
-        <v>17442700</v>
+        <v>15322400</v>
       </c>
       <c r="F48" s="3">
-        <v>16372500</v>
+        <v>17082200</v>
       </c>
       <c r="G48" s="3">
-        <v>16940900</v>
+        <v>16034200</v>
       </c>
       <c r="H48" s="3">
-        <v>17267000</v>
+        <v>16590800</v>
       </c>
       <c r="I48" s="3">
-        <v>17276300</v>
+        <v>16910200</v>
       </c>
       <c r="J48" s="3">
+        <v>16919300</v>
+      </c>
+      <c r="K48" s="3">
         <v>16697300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16554600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22811600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28268800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16075700</v>
+        <v>15682200</v>
       </c>
       <c r="E49" s="3">
-        <v>15560600</v>
+        <v>15743500</v>
       </c>
       <c r="F49" s="3">
-        <v>13868700</v>
+        <v>15239000</v>
       </c>
       <c r="G49" s="3">
-        <v>13289700</v>
+        <v>13582100</v>
       </c>
       <c r="H49" s="3">
-        <v>11632500</v>
+        <v>13015000</v>
       </c>
       <c r="I49" s="3">
-        <v>11247800</v>
+        <v>11392100</v>
       </c>
       <c r="J49" s="3">
+        <v>11015300</v>
+      </c>
+      <c r="K49" s="3">
         <v>11913300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12821400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>22350100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19812400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5930100</v>
+        <v>9971200</v>
       </c>
       <c r="E52" s="3">
-        <v>4455200</v>
+        <v>5807500</v>
       </c>
       <c r="F52" s="3">
-        <v>14417100</v>
+        <v>4363100</v>
       </c>
       <c r="G52" s="3">
-        <v>14366600</v>
+        <v>14119200</v>
       </c>
       <c r="H52" s="3">
-        <v>12902400</v>
+        <v>14069600</v>
       </c>
       <c r="I52" s="3">
-        <v>16819800</v>
+        <v>12635700</v>
       </c>
       <c r="J52" s="3">
+        <v>16472200</v>
+      </c>
+      <c r="K52" s="3">
         <v>24003700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20218600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15522800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7765100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1159750000</v>
+        <v>1155670000</v>
       </c>
       <c r="E54" s="3">
-        <v>1110000000</v>
+        <v>1135780000</v>
       </c>
       <c r="F54" s="3">
-        <v>1061680000</v>
+        <v>1087050000</v>
       </c>
       <c r="G54" s="3">
-        <v>1081000000</v>
+        <v>1039740000</v>
       </c>
       <c r="H54" s="3">
-        <v>1088560000</v>
+        <v>1058660000</v>
       </c>
       <c r="I54" s="3">
-        <v>1073780000</v>
+        <v>1066070000</v>
       </c>
       <c r="J54" s="3">
+        <v>1051590000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1137950000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1121540000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1207770000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1290780000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,31 +2397,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>7225800</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>6983300</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2303,9 +2433,12 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2339,45 +2472,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41300</v>
+        <v>7800</v>
       </c>
       <c r="E59" s="3">
-        <v>248900</v>
+        <v>40400</v>
       </c>
       <c r="F59" s="3">
-        <v>501800</v>
+        <v>243800</v>
       </c>
       <c r="G59" s="3">
-        <v>364700</v>
+        <v>491500</v>
       </c>
       <c r="H59" s="3">
-        <v>300800</v>
+        <v>357200</v>
       </c>
       <c r="I59" s="3">
-        <v>371400</v>
+        <v>294600</v>
       </c>
       <c r="J59" s="3">
+        <v>363700</v>
+      </c>
+      <c r="K59" s="3">
         <v>91800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>195700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>178400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>135600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>135317000</v>
+        <v>112285000</v>
       </c>
       <c r="E61" s="3">
-        <v>152836000</v>
+        <v>134700000</v>
       </c>
       <c r="F61" s="3">
-        <v>144856000</v>
+        <v>149677000</v>
       </c>
       <c r="G61" s="3">
-        <v>120294000</v>
+        <v>141862000</v>
       </c>
       <c r="H61" s="3">
-        <v>127979000</v>
+        <v>117808000</v>
       </c>
       <c r="I61" s="3">
-        <v>140255000</v>
+        <v>125334000</v>
       </c>
       <c r="J61" s="3">
+        <v>137357000</v>
+      </c>
+      <c r="K61" s="3">
         <v>97974300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>121594000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>145472000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>289764000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2935100</v>
+        <v>3077800</v>
       </c>
       <c r="E62" s="3">
-        <v>4823900</v>
+        <v>2874400</v>
       </c>
       <c r="F62" s="3">
-        <v>5047500</v>
+        <v>4724200</v>
       </c>
       <c r="G62" s="3">
-        <v>7858800</v>
+        <v>4943200</v>
       </c>
       <c r="H62" s="3">
-        <v>7574000</v>
+        <v>7696400</v>
       </c>
       <c r="I62" s="3">
-        <v>8099700</v>
+        <v>7417400</v>
       </c>
       <c r="J62" s="3">
+        <v>7932300</v>
+      </c>
+      <c r="K62" s="3">
         <v>6265500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7438500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8006400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5712200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1094280000</v>
+        <v>1086680000</v>
       </c>
       <c r="E66" s="3">
-        <v>1046630000</v>
+        <v>1071660000</v>
       </c>
       <c r="F66" s="3">
-        <v>995228000</v>
+        <v>1025000000</v>
       </c>
       <c r="G66" s="3">
-        <v>1015900000</v>
+        <v>974659000</v>
       </c>
       <c r="H66" s="3">
-        <v>1024170000</v>
+        <v>994904000</v>
       </c>
       <c r="I66" s="3">
-        <v>1011770000</v>
+        <v>1003010000</v>
       </c>
       <c r="J66" s="3">
+        <v>990858000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1073140000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1069630000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1153610000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1230860000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22374500</v>
+        <v>28508200</v>
       </c>
       <c r="E72" s="3">
-        <v>20593400</v>
+        <v>21912000</v>
       </c>
       <c r="F72" s="3">
-        <v>23198400</v>
+        <v>20167800</v>
       </c>
       <c r="G72" s="3">
-        <v>22343800</v>
+        <v>22719000</v>
       </c>
       <c r="H72" s="3">
-        <v>20606800</v>
+        <v>21882100</v>
       </c>
       <c r="I72" s="3">
-        <v>21972500</v>
+        <v>20180900</v>
       </c>
       <c r="J72" s="3">
+        <v>21518400</v>
+      </c>
+      <c r="K72" s="3">
         <v>23845300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21715100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22368200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26978400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>65468800</v>
+        <v>68982100</v>
       </c>
       <c r="E76" s="3">
-        <v>63364400</v>
+        <v>64115800</v>
       </c>
       <c r="F76" s="3">
-        <v>66455200</v>
+        <v>62054800</v>
       </c>
       <c r="G76" s="3">
-        <v>65098800</v>
+        <v>65081700</v>
       </c>
       <c r="H76" s="3">
-        <v>64392000</v>
+        <v>63753400</v>
       </c>
       <c r="I76" s="3">
-        <v>62014600</v>
+        <v>63061200</v>
       </c>
       <c r="J76" s="3">
+        <v>60733000</v>
+      </c>
+      <c r="K76" s="3">
         <v>64811300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51910000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54163600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>59921800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1151400</v>
+        <v>6980700</v>
       </c>
       <c r="E81" s="3">
-        <v>3273200</v>
+        <v>1127600</v>
       </c>
       <c r="F81" s="3">
-        <v>5432200</v>
+        <v>3205500</v>
       </c>
       <c r="G81" s="3">
-        <v>4320800</v>
+        <v>5320000</v>
       </c>
       <c r="H81" s="3">
-        <v>2784700</v>
+        <v>4231500</v>
       </c>
       <c r="I81" s="3">
-        <v>726800</v>
+        <v>2727100</v>
       </c>
       <c r="J81" s="3">
+        <v>711800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1580000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1115700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1844800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-825600</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3636600</v>
+        <v>3682600</v>
       </c>
       <c r="E83" s="3">
-        <v>3540700</v>
+        <v>3561400</v>
       </c>
       <c r="F83" s="3">
-        <v>3201300</v>
+        <v>3467500</v>
       </c>
       <c r="G83" s="3">
-        <v>3154700</v>
+        <v>3135100</v>
       </c>
       <c r="H83" s="3">
-        <v>3168000</v>
+        <v>3089500</v>
       </c>
       <c r="I83" s="3">
-        <v>2811300</v>
+        <v>3102500</v>
       </c>
       <c r="J83" s="3">
+        <v>2753200</v>
+      </c>
+      <c r="K83" s="3">
         <v>2575700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2582900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2748500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2864000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36167300</v>
+        <v>8631100</v>
       </c>
       <c r="E89" s="3">
-        <v>15016100</v>
+        <v>35419800</v>
       </c>
       <c r="F89" s="3">
-        <v>-14784500</v>
+        <v>14705800</v>
       </c>
       <c r="G89" s="3">
-        <v>-4252900</v>
+        <v>-14479000</v>
       </c>
       <c r="H89" s="3">
-        <v>2760700</v>
+        <v>-4165000</v>
       </c>
       <c r="I89" s="3">
-        <v>21792800</v>
+        <v>2703600</v>
       </c>
       <c r="J89" s="3">
+        <v>21342400</v>
+      </c>
+      <c r="K89" s="3">
         <v>13780900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20678000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3941800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26194900</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3861500</v>
+        <v>-4208000</v>
       </c>
       <c r="E91" s="3">
+        <v>-3781700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4487000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4580800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4764600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4901500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4454400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4581600</v>
       </c>
-      <c r="F91" s="3">
-        <v>-4677500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-4865200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-5004900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4548400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-4581600</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3970200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3882300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4075500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5324400</v>
+        <v>-3317600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2835200</v>
+        <v>-5214400</v>
       </c>
       <c r="F94" s="3">
-        <v>15868000</v>
+        <v>-2776600</v>
       </c>
       <c r="G94" s="3">
-        <v>9062100</v>
+        <v>15540100</v>
       </c>
       <c r="H94" s="3">
-        <v>-913100</v>
+        <v>8874800</v>
       </c>
       <c r="I94" s="3">
-        <v>-4405900</v>
+        <v>-894300</v>
       </c>
       <c r="J94" s="3">
+        <v>-4314900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10278800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20781800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>19692100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>9128000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,31 +3757,32 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1143200</v>
       </c>
       <c r="E96" s="3">
-        <v>-3077500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2981700</v>
+        <v>-3013900</v>
       </c>
       <c r="G96" s="3">
-        <v>-3040200</v>
+        <v>-2920000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2680800</v>
+        <v>-2977400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1424300</v>
+        <v>-2625400</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1394800</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7080100</v>
+        <v>-4215800</v>
       </c>
       <c r="E100" s="3">
-        <v>-8730700</v>
+        <v>-6933800</v>
       </c>
       <c r="F100" s="3">
-        <v>-5725100</v>
+        <v>-8550200</v>
       </c>
       <c r="G100" s="3">
-        <v>-6680800</v>
+        <v>-5606700</v>
       </c>
       <c r="H100" s="3">
-        <v>-14607500</v>
+        <v>-6542700</v>
       </c>
       <c r="I100" s="3">
-        <v>-8330000</v>
+        <v>-14305600</v>
       </c>
       <c r="J100" s="3">
+        <v>-8157900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5690500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4084700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4012900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4269000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-260900</v>
+        <v>91300</v>
       </c>
       <c r="E101" s="3">
-        <v>-6700</v>
+        <v>-255500</v>
       </c>
       <c r="F101" s="3">
-        <v>4000</v>
+        <v>-6500</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="H101" s="3">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>2700</v>
+        <v>27400</v>
       </c>
       <c r="J101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-70600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23501900</v>
+        <v>1188900</v>
       </c>
       <c r="E102" s="3">
-        <v>3443600</v>
+        <v>23016200</v>
       </c>
       <c r="F102" s="3">
-        <v>-4637600</v>
+        <v>3372400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1871500</v>
+        <v>-4541700</v>
       </c>
       <c r="H102" s="3">
-        <v>-12732000</v>
+        <v>-1832800</v>
       </c>
       <c r="I102" s="3">
-        <v>9059500</v>
+        <v>-12468800</v>
       </c>
       <c r="J102" s="3">
+        <v>8872200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2196300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-45615100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19610600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31061800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -665,7 +665,9 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -723,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17283000</v>
+        <v>16173400</v>
       </c>
       <c r="E8" s="3">
-        <v>18649200</v>
+        <v>17451900</v>
       </c>
       <c r="F8" s="3">
-        <v>21979800</v>
+        <v>20568700</v>
       </c>
       <c r="G8" s="3">
-        <v>21312400</v>
+        <v>19944100</v>
       </c>
       <c r="H8" s="3">
-        <v>20865300</v>
+        <v>19525700</v>
       </c>
       <c r="I8" s="3">
-        <v>21665700</v>
+        <v>20274700</v>
       </c>
       <c r="J8" s="3">
-        <v>22962700</v>
+        <v>21488500</v>
       </c>
       <c r="K8" s="3">
         <v>25571800</v>
@@ -974,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3682600</v>
+        <v>-3446200</v>
       </c>
       <c r="E15" s="3">
-        <v>-3561400</v>
+        <v>-3332800</v>
       </c>
       <c r="F15" s="3">
-        <v>-3467500</v>
+        <v>-3244900</v>
       </c>
       <c r="G15" s="3">
-        <v>-3135100</v>
+        <v>-2933900</v>
       </c>
       <c r="H15" s="3">
-        <v>-3089500</v>
+        <v>-2891200</v>
       </c>
       <c r="I15" s="3">
-        <v>-3102500</v>
+        <v>-2903400</v>
       </c>
       <c r="J15" s="3">
-        <v>-2753200</v>
+        <v>-2576400</v>
       </c>
       <c r="K15" s="3">
         <v>-2575700</v>
@@ -1027,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3277200</v>
+        <v>3066800</v>
       </c>
       <c r="E17" s="3">
-        <v>10053300</v>
+        <v>9407900</v>
       </c>
       <c r="F17" s="3">
-        <v>10398700</v>
+        <v>9731100</v>
       </c>
       <c r="G17" s="3">
-        <v>5071000</v>
+        <v>4745400</v>
       </c>
       <c r="H17" s="3">
-        <v>7537400</v>
+        <v>7053500</v>
       </c>
       <c r="I17" s="3">
-        <v>10347900</v>
+        <v>9683600</v>
       </c>
       <c r="J17" s="3">
-        <v>8783600</v>
+        <v>8219700</v>
       </c>
       <c r="K17" s="3">
         <v>12363300</v>
@@ -1066,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14005800</v>
+        <v>13106600</v>
       </c>
       <c r="E18" s="3">
-        <v>8595900</v>
+        <v>8044000</v>
       </c>
       <c r="F18" s="3">
-        <v>11581100</v>
+        <v>10837600</v>
       </c>
       <c r="G18" s="3">
-        <v>16241400</v>
+        <v>15198700</v>
       </c>
       <c r="H18" s="3">
-        <v>13327900</v>
+        <v>12472300</v>
       </c>
       <c r="I18" s="3">
-        <v>11317800</v>
+        <v>10591200</v>
       </c>
       <c r="J18" s="3">
-        <v>14179100</v>
+        <v>13268900</v>
       </c>
       <c r="K18" s="3">
         <v>13208500</v>
@@ -1122,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5008400</v>
+        <v>-4686900</v>
       </c>
       <c r="E20" s="3">
-        <v>-6997700</v>
+        <v>-6548400</v>
       </c>
       <c r="F20" s="3">
-        <v>-5854400</v>
+        <v>-5478600</v>
       </c>
       <c r="G20" s="3">
-        <v>-8472000</v>
+        <v>-7928100</v>
       </c>
       <c r="H20" s="3">
-        <v>-6451500</v>
+        <v>-6037300</v>
       </c>
       <c r="I20" s="3">
-        <v>-5793200</v>
+        <v>-5421200</v>
       </c>
       <c r="J20" s="3">
-        <v>-12036000</v>
+        <v>-11263300</v>
       </c>
       <c r="K20" s="3">
         <v>-10863100</v>
@@ -1161,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12720500</v>
+        <v>11880300</v>
       </c>
       <c r="E21" s="3">
-        <v>5198700</v>
+        <v>4842300</v>
       </c>
       <c r="F21" s="3">
-        <v>9232300</v>
+        <v>8617500</v>
       </c>
       <c r="G21" s="3">
-        <v>10939000</v>
+        <v>10216700</v>
       </c>
       <c r="H21" s="3">
-        <v>9999900</v>
+        <v>9338200</v>
       </c>
       <c r="I21" s="3">
-        <v>8661200</v>
+        <v>8085400</v>
       </c>
       <c r="J21" s="3">
-        <v>4926500</v>
+        <v>4592700</v>
       </c>
       <c r="K21" s="3">
         <v>4926700</v>
@@ -1239,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8997400</v>
+        <v>8419700</v>
       </c>
       <c r="E23" s="3">
-        <v>1598200</v>
+        <v>1495600</v>
       </c>
       <c r="F23" s="3">
-        <v>5726700</v>
+        <v>5359000</v>
       </c>
       <c r="G23" s="3">
-        <v>7769400</v>
+        <v>7270600</v>
       </c>
       <c r="H23" s="3">
-        <v>6876400</v>
+        <v>6435000</v>
       </c>
       <c r="I23" s="3">
-        <v>5524600</v>
+        <v>5169900</v>
       </c>
       <c r="J23" s="3">
-        <v>2143100</v>
+        <v>2005500</v>
       </c>
       <c r="K23" s="3">
         <v>2345400</v>
@@ -1278,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1325800</v>
+        <v>1240600</v>
       </c>
       <c r="E24" s="3">
-        <v>-209900</v>
+        <v>-196400</v>
       </c>
       <c r="F24" s="3">
-        <v>1808100</v>
+        <v>1692000</v>
       </c>
       <c r="G24" s="3">
-        <v>1895400</v>
+        <v>1773700</v>
       </c>
       <c r="H24" s="3">
-        <v>2119600</v>
+        <v>1983600</v>
       </c>
       <c r="I24" s="3">
-        <v>2247400</v>
+        <v>2103100</v>
       </c>
       <c r="J24" s="3">
-        <v>896900</v>
+        <v>839300</v>
       </c>
       <c r="K24" s="3">
         <v>350100</v>
@@ -1356,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7671600</v>
+        <v>7179100</v>
       </c>
       <c r="E26" s="3">
-        <v>1808100</v>
+        <v>1692000</v>
       </c>
       <c r="F26" s="3">
-        <v>3918600</v>
+        <v>3667000</v>
       </c>
       <c r="G26" s="3">
-        <v>5874000</v>
+        <v>5496900</v>
       </c>
       <c r="H26" s="3">
-        <v>4756800</v>
+        <v>4451400</v>
       </c>
       <c r="I26" s="3">
-        <v>3277200</v>
+        <v>3066800</v>
       </c>
       <c r="J26" s="3">
-        <v>1246200</v>
+        <v>1166200</v>
       </c>
       <c r="K26" s="3">
         <v>1995300</v>
@@ -1395,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6980700</v>
+        <v>6532600</v>
       </c>
       <c r="E27" s="3">
-        <v>1127600</v>
+        <v>1055200</v>
       </c>
       <c r="F27" s="3">
-        <v>3205500</v>
+        <v>2999700</v>
       </c>
       <c r="G27" s="3">
-        <v>5320000</v>
+        <v>4978400</v>
       </c>
       <c r="H27" s="3">
-        <v>4231500</v>
+        <v>3959800</v>
       </c>
       <c r="I27" s="3">
-        <v>2727100</v>
+        <v>2552000</v>
       </c>
       <c r="J27" s="3">
-        <v>711800</v>
+        <v>666100</v>
       </c>
       <c r="K27" s="3">
         <v>1580000</v>
@@ -1590,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5008400</v>
+        <v>4686900</v>
       </c>
       <c r="E32" s="3">
-        <v>6997700</v>
+        <v>6548400</v>
       </c>
       <c r="F32" s="3">
-        <v>5854400</v>
+        <v>5478600</v>
       </c>
       <c r="G32" s="3">
-        <v>8472000</v>
+        <v>7928100</v>
       </c>
       <c r="H32" s="3">
-        <v>6451500</v>
+        <v>6037300</v>
       </c>
       <c r="I32" s="3">
-        <v>5793200</v>
+        <v>5421200</v>
       </c>
       <c r="J32" s="3">
-        <v>12036000</v>
+        <v>11263300</v>
       </c>
       <c r="K32" s="3">
         <v>10863100</v>
@@ -1629,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6980700</v>
+        <v>6532600</v>
       </c>
       <c r="E33" s="3">
-        <v>1127600</v>
+        <v>1055200</v>
       </c>
       <c r="F33" s="3">
-        <v>3205500</v>
+        <v>2999700</v>
       </c>
       <c r="G33" s="3">
-        <v>5320000</v>
+        <v>4978400</v>
       </c>
       <c r="H33" s="3">
-        <v>4231500</v>
+        <v>3959800</v>
       </c>
       <c r="I33" s="3">
-        <v>2727100</v>
+        <v>2552000</v>
       </c>
       <c r="J33" s="3">
-        <v>711800</v>
+        <v>666100</v>
       </c>
       <c r="K33" s="3">
         <v>1580000</v>
@@ -1707,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6980700</v>
+        <v>6532600</v>
       </c>
       <c r="E35" s="3">
-        <v>1127600</v>
+        <v>1055200</v>
       </c>
       <c r="F35" s="3">
-        <v>3205500</v>
+        <v>2999700</v>
       </c>
       <c r="G35" s="3">
-        <v>5320000</v>
+        <v>4978400</v>
       </c>
       <c r="H35" s="3">
-        <v>4231500</v>
+        <v>3959800</v>
       </c>
       <c r="I35" s="3">
-        <v>2727100</v>
+        <v>2552000</v>
       </c>
       <c r="J35" s="3">
-        <v>711800</v>
+        <v>666100</v>
       </c>
       <c r="K35" s="3">
         <v>1580000</v>
@@ -1824,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>108938000</v>
+        <v>101945000</v>
       </c>
       <c r="E41" s="3">
-        <v>106394000</v>
+        <v>99563400</v>
       </c>
       <c r="F41" s="3">
-        <v>82990500</v>
+        <v>77662500</v>
       </c>
       <c r="G41" s="3">
-        <v>79691100</v>
+        <v>74574900</v>
       </c>
       <c r="H41" s="3">
-        <v>84884600</v>
+        <v>79435000</v>
       </c>
       <c r="I41" s="3">
-        <v>96671600</v>
+        <v>90465300</v>
       </c>
       <c r="J41" s="3">
-        <v>108547000</v>
+        <v>101579000</v>
       </c>
       <c r="K41" s="3">
         <v>101058000</v>
@@ -1863,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>329127000</v>
+        <v>307997000</v>
       </c>
       <c r="E42" s="3">
-        <v>224884000</v>
+        <v>210446000</v>
       </c>
       <c r="F42" s="3">
-        <v>205428000</v>
+        <v>192239000</v>
       </c>
       <c r="G42" s="3">
-        <v>199950000</v>
+        <v>187113000</v>
       </c>
       <c r="H42" s="3">
-        <v>205446000</v>
+        <v>192256000</v>
       </c>
       <c r="I42" s="3">
-        <v>199478000</v>
+        <v>186672000</v>
       </c>
       <c r="J42" s="3">
-        <v>164680000</v>
+        <v>154108000</v>
       </c>
       <c r="K42" s="3">
         <v>187034000</v>
@@ -2058,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>458900</v>
+        <v>429400</v>
       </c>
       <c r="E47" s="3">
-        <v>385900</v>
+        <v>361100</v>
       </c>
       <c r="F47" s="3">
-        <v>396300</v>
+        <v>370800</v>
       </c>
       <c r="G47" s="3">
-        <v>118600</v>
+        <v>111000</v>
       </c>
       <c r="H47" s="3">
-        <v>84700</v>
+        <v>79300</v>
       </c>
       <c r="I47" s="3">
-        <v>76900</v>
+        <v>72000</v>
       </c>
       <c r="J47" s="3">
-        <v>61300</v>
+        <v>57300</v>
       </c>
       <c r="K47" s="3">
         <v>98500</v>
@@ -2097,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15091700</v>
+        <v>14122800</v>
       </c>
       <c r="E48" s="3">
-        <v>15322400</v>
+        <v>14338700</v>
       </c>
       <c r="F48" s="3">
-        <v>17082200</v>
+        <v>15985600</v>
       </c>
       <c r="G48" s="3">
-        <v>16034200</v>
+        <v>15004800</v>
       </c>
       <c r="H48" s="3">
-        <v>16590800</v>
+        <v>15525700</v>
       </c>
       <c r="I48" s="3">
-        <v>16910200</v>
+        <v>15824500</v>
       </c>
       <c r="J48" s="3">
-        <v>16919300</v>
+        <v>15833100</v>
       </c>
       <c r="K48" s="3">
         <v>16697300</v>
@@ -2136,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15682200</v>
+        <v>14675400</v>
       </c>
       <c r="E49" s="3">
-        <v>15743500</v>
+        <v>14732700</v>
       </c>
       <c r="F49" s="3">
-        <v>15239000</v>
+        <v>14260600</v>
       </c>
       <c r="G49" s="3">
-        <v>13582100</v>
+        <v>12710100</v>
       </c>
       <c r="H49" s="3">
-        <v>13015000</v>
+        <v>12179500</v>
       </c>
       <c r="I49" s="3">
-        <v>11392100</v>
+        <v>10660700</v>
       </c>
       <c r="J49" s="3">
-        <v>11015300</v>
+        <v>10308200</v>
       </c>
       <c r="K49" s="3">
         <v>11913300</v>
@@ -2253,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9971200</v>
+        <v>9331000</v>
       </c>
       <c r="E52" s="3">
-        <v>5807500</v>
+        <v>5434700</v>
       </c>
       <c r="F52" s="3">
-        <v>4363100</v>
+        <v>4083000</v>
       </c>
       <c r="G52" s="3">
-        <v>14119200</v>
+        <v>13212700</v>
       </c>
       <c r="H52" s="3">
-        <v>14069600</v>
+        <v>13166400</v>
       </c>
       <c r="I52" s="3">
-        <v>12635700</v>
+        <v>11824500</v>
       </c>
       <c r="J52" s="3">
-        <v>16472200</v>
+        <v>15414700</v>
       </c>
       <c r="K52" s="3">
         <v>24003700</v>
@@ -2331,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1155670000</v>
+        <v>1081470000</v>
       </c>
       <c r="E54" s="3">
-        <v>1135780000</v>
+        <v>1062860000</v>
       </c>
       <c r="F54" s="3">
-        <v>1087050000</v>
+        <v>1017270000</v>
       </c>
       <c r="G54" s="3">
-        <v>1039740000</v>
+        <v>972990000</v>
       </c>
       <c r="H54" s="3">
-        <v>1058660000</v>
+        <v>990692000</v>
       </c>
       <c r="I54" s="3">
-        <v>1066070000</v>
+        <v>997626000</v>
       </c>
       <c r="J54" s="3">
-        <v>1051590000</v>
+        <v>984079000</v>
       </c>
       <c r="K54" s="3">
         <v>1137950000</v>
@@ -2404,10 +2406,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7225800</v>
+        <v>6761900</v>
       </c>
       <c r="E57" s="3">
-        <v>6983300</v>
+        <v>6535000</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
@@ -2482,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="E59" s="3">
-        <v>40400</v>
+        <v>37800</v>
       </c>
       <c r="F59" s="3">
-        <v>243800</v>
+        <v>228100</v>
       </c>
       <c r="G59" s="3">
-        <v>491500</v>
+        <v>459900</v>
       </c>
       <c r="H59" s="3">
-        <v>357200</v>
+        <v>334300</v>
       </c>
       <c r="I59" s="3">
-        <v>294600</v>
+        <v>275700</v>
       </c>
       <c r="J59" s="3">
-        <v>363700</v>
+        <v>340400</v>
       </c>
       <c r="K59" s="3">
         <v>91800</v>
@@ -2560,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>112285000</v>
+        <v>105076000</v>
       </c>
       <c r="E61" s="3">
-        <v>134700000</v>
+        <v>126052000</v>
       </c>
       <c r="F61" s="3">
-        <v>149677000</v>
+        <v>140068000</v>
       </c>
       <c r="G61" s="3">
-        <v>141862000</v>
+        <v>132754000</v>
       </c>
       <c r="H61" s="3">
-        <v>117808000</v>
+        <v>110245000</v>
       </c>
       <c r="I61" s="3">
-        <v>125334000</v>
+        <v>117287000</v>
       </c>
       <c r="J61" s="3">
-        <v>137357000</v>
+        <v>128538000</v>
       </c>
       <c r="K61" s="3">
         <v>97974300</v>
@@ -2599,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3077800</v>
+        <v>2880200</v>
       </c>
       <c r="E62" s="3">
-        <v>2874400</v>
+        <v>2689900</v>
       </c>
       <c r="F62" s="3">
-        <v>4724200</v>
+        <v>4420900</v>
       </c>
       <c r="G62" s="3">
-        <v>4943200</v>
+        <v>4625900</v>
       </c>
       <c r="H62" s="3">
-        <v>7696400</v>
+        <v>7202300</v>
       </c>
       <c r="I62" s="3">
-        <v>7417400</v>
+        <v>6941200</v>
       </c>
       <c r="J62" s="3">
-        <v>7932300</v>
+        <v>7423100</v>
       </c>
       <c r="K62" s="3">
         <v>6265500</v>
@@ -2755,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1086680000</v>
+        <v>1016920000</v>
       </c>
       <c r="E66" s="3">
-        <v>1071660000</v>
+        <v>1002860000</v>
       </c>
       <c r="F66" s="3">
-        <v>1025000000</v>
+        <v>959195000</v>
       </c>
       <c r="G66" s="3">
-        <v>974659000</v>
+        <v>912086000</v>
       </c>
       <c r="H66" s="3">
-        <v>994904000</v>
+        <v>931031000</v>
       </c>
       <c r="I66" s="3">
-        <v>1003010000</v>
+        <v>938613000</v>
       </c>
       <c r="J66" s="3">
-        <v>990858000</v>
+        <v>927245000</v>
       </c>
       <c r="K66" s="3">
         <v>1073140000</v>
@@ -2967,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>28508200</v>
+        <v>26678000</v>
       </c>
       <c r="E72" s="3">
-        <v>21912000</v>
+        <v>20505300</v>
       </c>
       <c r="F72" s="3">
-        <v>20167800</v>
+        <v>18873100</v>
       </c>
       <c r="G72" s="3">
-        <v>22719000</v>
+        <v>21260400</v>
       </c>
       <c r="H72" s="3">
-        <v>21882100</v>
+        <v>20477200</v>
       </c>
       <c r="I72" s="3">
-        <v>20180900</v>
+        <v>18885300</v>
       </c>
       <c r="J72" s="3">
-        <v>21518400</v>
+        <v>20136900</v>
       </c>
       <c r="K72" s="3">
         <v>23845300</v>
@@ -3123,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68982100</v>
+        <v>64553400</v>
       </c>
       <c r="E76" s="3">
-        <v>64115800</v>
+        <v>59999600</v>
       </c>
       <c r="F76" s="3">
-        <v>62054800</v>
+        <v>58070900</v>
       </c>
       <c r="G76" s="3">
-        <v>65081700</v>
+        <v>60903500</v>
       </c>
       <c r="H76" s="3">
-        <v>63753400</v>
+        <v>59660400</v>
       </c>
       <c r="I76" s="3">
-        <v>63061200</v>
+        <v>59012700</v>
       </c>
       <c r="J76" s="3">
-        <v>60733000</v>
+        <v>56833900</v>
       </c>
       <c r="K76" s="3">
         <v>64811300</v>
@@ -3245,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6980700</v>
+        <v>6532600</v>
       </c>
       <c r="E81" s="3">
-        <v>1127600</v>
+        <v>1055200</v>
       </c>
       <c r="F81" s="3">
-        <v>3205500</v>
+        <v>2999700</v>
       </c>
       <c r="G81" s="3">
-        <v>5320000</v>
+        <v>4978400</v>
       </c>
       <c r="H81" s="3">
-        <v>4231500</v>
+        <v>3959800</v>
       </c>
       <c r="I81" s="3">
-        <v>2727100</v>
+        <v>2552000</v>
       </c>
       <c r="J81" s="3">
-        <v>711800</v>
+        <v>666100</v>
       </c>
       <c r="K81" s="3">
         <v>1580000</v>
@@ -3301,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3682600</v>
+        <v>3446200</v>
       </c>
       <c r="E83" s="3">
-        <v>3561400</v>
+        <v>3332800</v>
       </c>
       <c r="F83" s="3">
-        <v>3467500</v>
+        <v>3244900</v>
       </c>
       <c r="G83" s="3">
-        <v>3135100</v>
+        <v>2933900</v>
       </c>
       <c r="H83" s="3">
-        <v>3089500</v>
+        <v>2891200</v>
       </c>
       <c r="I83" s="3">
-        <v>3102500</v>
+        <v>2903400</v>
       </c>
       <c r="J83" s="3">
-        <v>2753200</v>
+        <v>2576400</v>
       </c>
       <c r="K83" s="3">
         <v>2575700</v>
@@ -3535,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8631100</v>
+        <v>8077000</v>
       </c>
       <c r="E89" s="3">
-        <v>35419800</v>
+        <v>33145900</v>
       </c>
       <c r="F89" s="3">
-        <v>14705800</v>
+        <v>13761700</v>
       </c>
       <c r="G89" s="3">
-        <v>-14479000</v>
+        <v>-13549400</v>
       </c>
       <c r="H89" s="3">
-        <v>-4165000</v>
+        <v>-3897600</v>
       </c>
       <c r="I89" s="3">
-        <v>2703600</v>
+        <v>2530100</v>
       </c>
       <c r="J89" s="3">
-        <v>21342400</v>
+        <v>19972200</v>
       </c>
       <c r="K89" s="3">
         <v>13780900</v>
@@ -3591,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4208000</v>
+        <v>-3937800</v>
       </c>
       <c r="E91" s="3">
-        <v>-3781700</v>
+        <v>-3538900</v>
       </c>
       <c r="F91" s="3">
-        <v>-4487000</v>
+        <v>-4198900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4580800</v>
+        <v>-4286700</v>
       </c>
       <c r="H91" s="3">
-        <v>-4764600</v>
+        <v>-4458700</v>
       </c>
       <c r="I91" s="3">
-        <v>-4901500</v>
+        <v>-4586800</v>
       </c>
       <c r="J91" s="3">
-        <v>-4454400</v>
+        <v>-4168400</v>
       </c>
       <c r="K91" s="3">
         <v>-4581600</v>
@@ -3708,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3317600</v>
+        <v>-3104600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5214400</v>
+        <v>-4879600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2776600</v>
+        <v>-2598400</v>
       </c>
       <c r="G94" s="3">
-        <v>15540100</v>
+        <v>14542400</v>
       </c>
       <c r="H94" s="3">
-        <v>8874800</v>
+        <v>8305100</v>
       </c>
       <c r="I94" s="3">
-        <v>-894300</v>
+        <v>-836900</v>
       </c>
       <c r="J94" s="3">
-        <v>-4314900</v>
+        <v>-4037900</v>
       </c>
       <c r="K94" s="3">
         <v>-10278800</v>
@@ -3764,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1143200</v>
+        <v>-1069900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-3013900</v>
+        <v>-2820400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2920000</v>
+        <v>-2732600</v>
       </c>
       <c r="H96" s="3">
-        <v>-2977400</v>
+        <v>-2786300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2625400</v>
+        <v>-2456900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1394800</v>
+        <v>-1305300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3920,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4215800</v>
+        <v>-3945200</v>
       </c>
       <c r="E100" s="3">
-        <v>-6933800</v>
+        <v>-6488600</v>
       </c>
       <c r="F100" s="3">
-        <v>-8550200</v>
+        <v>-8001300</v>
       </c>
       <c r="G100" s="3">
-        <v>-5606700</v>
+        <v>-5246800</v>
       </c>
       <c r="H100" s="3">
-        <v>-6542700</v>
+        <v>-6122700</v>
       </c>
       <c r="I100" s="3">
-        <v>-14305600</v>
+        <v>-13387200</v>
       </c>
       <c r="J100" s="3">
-        <v>-8157900</v>
+        <v>-7634100</v>
       </c>
       <c r="K100" s="3">
         <v>-5690500</v>
@@ -3959,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>91300</v>
+        <v>85400</v>
       </c>
       <c r="E101" s="3">
-        <v>-255500</v>
+        <v>-239100</v>
       </c>
       <c r="F101" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="G101" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>27400</v>
+        <v>25600</v>
       </c>
       <c r="J101" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K101" s="3">
         <v>-8000</v>
@@ -3998,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1188900</v>
+        <v>1112500</v>
       </c>
       <c r="E102" s="3">
-        <v>23016200</v>
+        <v>21538600</v>
       </c>
       <c r="F102" s="3">
-        <v>3372400</v>
+        <v>3155900</v>
       </c>
       <c r="G102" s="3">
-        <v>-4541700</v>
+        <v>-4250100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1832800</v>
+        <v>-1715200</v>
       </c>
       <c r="I102" s="3">
-        <v>-12468800</v>
+        <v>-11668300</v>
       </c>
       <c r="J102" s="3">
-        <v>8872200</v>
+        <v>8302600</v>
       </c>
       <c r="K102" s="3">
         <v>-2196300</v>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16173400</v>
+        <v>15682900</v>
       </c>
       <c r="E8" s="3">
-        <v>17451900</v>
+        <v>16922600</v>
       </c>
       <c r="F8" s="3">
-        <v>20568700</v>
+        <v>19944900</v>
       </c>
       <c r="G8" s="3">
-        <v>19944100</v>
+        <v>19339200</v>
       </c>
       <c r="H8" s="3">
-        <v>19525700</v>
+        <v>18933500</v>
       </c>
       <c r="I8" s="3">
-        <v>20274700</v>
+        <v>19659800</v>
       </c>
       <c r="J8" s="3">
-        <v>21488500</v>
+        <v>20836800</v>
       </c>
       <c r="K8" s="3">
         <v>25571800</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3446200</v>
+        <v>-3341700</v>
       </c>
       <c r="E15" s="3">
-        <v>-3332800</v>
+        <v>-3231700</v>
       </c>
       <c r="F15" s="3">
-        <v>-3244900</v>
+        <v>-3146500</v>
       </c>
       <c r="G15" s="3">
-        <v>-2933900</v>
+        <v>-2844900</v>
       </c>
       <c r="H15" s="3">
-        <v>-2891200</v>
+        <v>-2803500</v>
       </c>
       <c r="I15" s="3">
-        <v>-2903400</v>
+        <v>-2815300</v>
       </c>
       <c r="J15" s="3">
-        <v>-2576400</v>
+        <v>-2498300</v>
       </c>
       <c r="K15" s="3">
         <v>-2575700</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3066800</v>
+        <v>2973800</v>
       </c>
       <c r="E17" s="3">
-        <v>9407900</v>
+        <v>9122500</v>
       </c>
       <c r="F17" s="3">
-        <v>9731100</v>
+        <v>9436000</v>
       </c>
       <c r="G17" s="3">
-        <v>4745400</v>
+        <v>4601500</v>
       </c>
       <c r="H17" s="3">
-        <v>7053500</v>
+        <v>6839500</v>
       </c>
       <c r="I17" s="3">
-        <v>9683600</v>
+        <v>9389900</v>
       </c>
       <c r="J17" s="3">
-        <v>8219700</v>
+        <v>7970400</v>
       </c>
       <c r="K17" s="3">
         <v>12363300</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13106600</v>
+        <v>12709100</v>
       </c>
       <c r="E18" s="3">
-        <v>8044000</v>
+        <v>7800000</v>
       </c>
       <c r="F18" s="3">
-        <v>10837600</v>
+        <v>10508900</v>
       </c>
       <c r="G18" s="3">
-        <v>15198700</v>
+        <v>14737800</v>
       </c>
       <c r="H18" s="3">
-        <v>12472300</v>
+        <v>12094000</v>
       </c>
       <c r="I18" s="3">
-        <v>10591200</v>
+        <v>10269900</v>
       </c>
       <c r="J18" s="3">
-        <v>13268900</v>
+        <v>12866400</v>
       </c>
       <c r="K18" s="3">
         <v>13208500</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4686900</v>
+        <v>-4544700</v>
       </c>
       <c r="E20" s="3">
-        <v>-6548400</v>
+        <v>-6349800</v>
       </c>
       <c r="F20" s="3">
-        <v>-5478600</v>
+        <v>-5312400</v>
       </c>
       <c r="G20" s="3">
-        <v>-7928100</v>
+        <v>-7687700</v>
       </c>
       <c r="H20" s="3">
-        <v>-6037300</v>
+        <v>-5854200</v>
       </c>
       <c r="I20" s="3">
-        <v>-5421200</v>
+        <v>-5256800</v>
       </c>
       <c r="J20" s="3">
-        <v>-11263300</v>
+        <v>-10921700</v>
       </c>
       <c r="K20" s="3">
         <v>-10863100</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11880300</v>
+        <v>11497000</v>
       </c>
       <c r="E21" s="3">
-        <v>4842300</v>
+        <v>4673200</v>
       </c>
       <c r="F21" s="3">
-        <v>8617500</v>
+        <v>8334500</v>
       </c>
       <c r="G21" s="3">
-        <v>10216700</v>
+        <v>9887300</v>
       </c>
       <c r="H21" s="3">
-        <v>9338200</v>
+        <v>9035700</v>
       </c>
       <c r="I21" s="3">
-        <v>8085400</v>
+        <v>7820800</v>
       </c>
       <c r="J21" s="3">
-        <v>4592700</v>
+        <v>4436200</v>
       </c>
       <c r="K21" s="3">
         <v>4926700</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8419700</v>
+        <v>8164400</v>
       </c>
       <c r="E23" s="3">
-        <v>1495600</v>
+        <v>1450200</v>
       </c>
       <c r="F23" s="3">
-        <v>5359000</v>
+        <v>5196500</v>
       </c>
       <c r="G23" s="3">
-        <v>7270600</v>
+        <v>7050100</v>
       </c>
       <c r="H23" s="3">
-        <v>6435000</v>
+        <v>6239800</v>
       </c>
       <c r="I23" s="3">
-        <v>5169900</v>
+        <v>5013100</v>
       </c>
       <c r="J23" s="3">
-        <v>2005500</v>
+        <v>1944700</v>
       </c>
       <c r="K23" s="3">
         <v>2345400</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1240600</v>
+        <v>1203000</v>
       </c>
       <c r="E24" s="3">
-        <v>-196400</v>
+        <v>-190400</v>
       </c>
       <c r="F24" s="3">
-        <v>1692000</v>
+        <v>1640700</v>
       </c>
       <c r="G24" s="3">
-        <v>1773700</v>
+        <v>1719900</v>
       </c>
       <c r="H24" s="3">
-        <v>1983600</v>
+        <v>1923400</v>
       </c>
       <c r="I24" s="3">
-        <v>2103100</v>
+        <v>2039300</v>
       </c>
       <c r="J24" s="3">
-        <v>839300</v>
+        <v>813800</v>
       </c>
       <c r="K24" s="3">
         <v>350100</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7179100</v>
+        <v>6961400</v>
       </c>
       <c r="E26" s="3">
-        <v>1692000</v>
+        <v>1640700</v>
       </c>
       <c r="F26" s="3">
-        <v>3667000</v>
+        <v>3555800</v>
       </c>
       <c r="G26" s="3">
-        <v>5496900</v>
+        <v>5330100</v>
       </c>
       <c r="H26" s="3">
-        <v>4451400</v>
+        <v>4316400</v>
       </c>
       <c r="I26" s="3">
-        <v>3066800</v>
+        <v>2973800</v>
       </c>
       <c r="J26" s="3">
-        <v>1166200</v>
+        <v>1130900</v>
       </c>
       <c r="K26" s="3">
         <v>1995300</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6532600</v>
+        <v>6334400</v>
       </c>
       <c r="E27" s="3">
-        <v>1055200</v>
+        <v>1023200</v>
       </c>
       <c r="F27" s="3">
-        <v>2999700</v>
+        <v>2908800</v>
       </c>
       <c r="G27" s="3">
-        <v>4978400</v>
+        <v>4827400</v>
       </c>
       <c r="H27" s="3">
-        <v>3959800</v>
+        <v>3839700</v>
       </c>
       <c r="I27" s="3">
-        <v>2552000</v>
+        <v>2474600</v>
       </c>
       <c r="J27" s="3">
-        <v>666100</v>
+        <v>645900</v>
       </c>
       <c r="K27" s="3">
         <v>1580000</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4686900</v>
+        <v>4544700</v>
       </c>
       <c r="E32" s="3">
-        <v>6548400</v>
+        <v>6349800</v>
       </c>
       <c r="F32" s="3">
-        <v>5478600</v>
+        <v>5312400</v>
       </c>
       <c r="G32" s="3">
-        <v>7928100</v>
+        <v>7687700</v>
       </c>
       <c r="H32" s="3">
-        <v>6037300</v>
+        <v>5854200</v>
       </c>
       <c r="I32" s="3">
-        <v>5421200</v>
+        <v>5256800</v>
       </c>
       <c r="J32" s="3">
-        <v>11263300</v>
+        <v>10921700</v>
       </c>
       <c r="K32" s="3">
         <v>10863100</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6532600</v>
+        <v>6334400</v>
       </c>
       <c r="E33" s="3">
-        <v>1055200</v>
+        <v>1023200</v>
       </c>
       <c r="F33" s="3">
-        <v>2999700</v>
+        <v>2908800</v>
       </c>
       <c r="G33" s="3">
-        <v>4978400</v>
+        <v>4827400</v>
       </c>
       <c r="H33" s="3">
-        <v>3959800</v>
+        <v>3839700</v>
       </c>
       <c r="I33" s="3">
-        <v>2552000</v>
+        <v>2474600</v>
       </c>
       <c r="J33" s="3">
-        <v>666100</v>
+        <v>645900</v>
       </c>
       <c r="K33" s="3">
         <v>1580000</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6532600</v>
+        <v>6334400</v>
       </c>
       <c r="E35" s="3">
-        <v>1055200</v>
+        <v>1023200</v>
       </c>
       <c r="F35" s="3">
-        <v>2999700</v>
+        <v>2908800</v>
       </c>
       <c r="G35" s="3">
-        <v>4978400</v>
+        <v>4827400</v>
       </c>
       <c r="H35" s="3">
-        <v>3959800</v>
+        <v>3839700</v>
       </c>
       <c r="I35" s="3">
-        <v>2552000</v>
+        <v>2474600</v>
       </c>
       <c r="J35" s="3">
-        <v>666100</v>
+        <v>645900</v>
       </c>
       <c r="K35" s="3">
         <v>1580000</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>101945000</v>
+        <v>98852600</v>
       </c>
       <c r="E41" s="3">
-        <v>99563400</v>
+        <v>96543600</v>
       </c>
       <c r="F41" s="3">
-        <v>77662500</v>
+        <v>75307000</v>
       </c>
       <c r="G41" s="3">
-        <v>74574900</v>
+        <v>72313000</v>
       </c>
       <c r="H41" s="3">
-        <v>79435000</v>
+        <v>77025700</v>
       </c>
       <c r="I41" s="3">
-        <v>90465300</v>
+        <v>87721500</v>
       </c>
       <c r="J41" s="3">
-        <v>101579000</v>
+        <v>98497700</v>
       </c>
       <c r="K41" s="3">
         <v>101058000</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>307997000</v>
+        <v>298655000</v>
       </c>
       <c r="E42" s="3">
-        <v>210446000</v>
+        <v>204063000</v>
       </c>
       <c r="F42" s="3">
-        <v>192239000</v>
+        <v>186409000</v>
       </c>
       <c r="G42" s="3">
-        <v>187113000</v>
+        <v>181438000</v>
       </c>
       <c r="H42" s="3">
-        <v>192256000</v>
+        <v>186425000</v>
       </c>
       <c r="I42" s="3">
-        <v>186672000</v>
+        <v>181010000</v>
       </c>
       <c r="J42" s="3">
-        <v>154108000</v>
+        <v>149433000</v>
       </c>
       <c r="K42" s="3">
         <v>187034000</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>429400</v>
+        <v>416400</v>
       </c>
       <c r="E47" s="3">
-        <v>361100</v>
+        <v>350100</v>
       </c>
       <c r="F47" s="3">
-        <v>370800</v>
+        <v>359600</v>
       </c>
       <c r="G47" s="3">
-        <v>111000</v>
+        <v>107600</v>
       </c>
       <c r="H47" s="3">
-        <v>79300</v>
+        <v>76900</v>
       </c>
       <c r="I47" s="3">
-        <v>72000</v>
+        <v>69800</v>
       </c>
       <c r="J47" s="3">
-        <v>57300</v>
+        <v>55600</v>
       </c>
       <c r="K47" s="3">
         <v>98500</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14122800</v>
+        <v>13694400</v>
       </c>
       <c r="E48" s="3">
-        <v>14338700</v>
+        <v>13903800</v>
       </c>
       <c r="F48" s="3">
-        <v>15985600</v>
+        <v>15500700</v>
       </c>
       <c r="G48" s="3">
-        <v>15004800</v>
+        <v>14549700</v>
       </c>
       <c r="H48" s="3">
-        <v>15525700</v>
+        <v>15054800</v>
       </c>
       <c r="I48" s="3">
-        <v>15824500</v>
+        <v>15344600</v>
       </c>
       <c r="J48" s="3">
-        <v>15833100</v>
+        <v>15352900</v>
       </c>
       <c r="K48" s="3">
         <v>16697300</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14675400</v>
+        <v>14230300</v>
       </c>
       <c r="E49" s="3">
-        <v>14732700</v>
+        <v>14285900</v>
       </c>
       <c r="F49" s="3">
-        <v>14260600</v>
+        <v>13828100</v>
       </c>
       <c r="G49" s="3">
-        <v>12710100</v>
+        <v>12324600</v>
       </c>
       <c r="H49" s="3">
-        <v>12179500</v>
+        <v>11810100</v>
       </c>
       <c r="I49" s="3">
-        <v>10660700</v>
+        <v>10337400</v>
       </c>
       <c r="J49" s="3">
-        <v>10308200</v>
+        <v>9995500</v>
       </c>
       <c r="K49" s="3">
         <v>11913300</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9331000</v>
+        <v>9048000</v>
       </c>
       <c r="E52" s="3">
-        <v>5434700</v>
+        <v>5269800</v>
       </c>
       <c r="F52" s="3">
-        <v>4083000</v>
+        <v>3959200</v>
       </c>
       <c r="G52" s="3">
-        <v>13212700</v>
+        <v>12812000</v>
       </c>
       <c r="H52" s="3">
-        <v>13166400</v>
+        <v>12767000</v>
       </c>
       <c r="I52" s="3">
-        <v>11824500</v>
+        <v>11465800</v>
       </c>
       <c r="J52" s="3">
-        <v>15414700</v>
+        <v>14947100</v>
       </c>
       <c r="K52" s="3">
         <v>24003700</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1081470000</v>
+        <v>1048670000</v>
       </c>
       <c r="E54" s="3">
-        <v>1062860000</v>
+        <v>1030620000</v>
       </c>
       <c r="F54" s="3">
-        <v>1017270000</v>
+        <v>986412000</v>
       </c>
       <c r="G54" s="3">
-        <v>972990000</v>
+        <v>943479000</v>
       </c>
       <c r="H54" s="3">
-        <v>990692000</v>
+        <v>960644000</v>
       </c>
       <c r="I54" s="3">
-        <v>997626000</v>
+        <v>967367000</v>
       </c>
       <c r="J54" s="3">
-        <v>984079000</v>
+        <v>954231000</v>
       </c>
       <c r="K54" s="3">
         <v>1137950000</v>
@@ -2406,10 +2406,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6761900</v>
+        <v>6556800</v>
       </c>
       <c r="E57" s="3">
-        <v>6535000</v>
+        <v>6336800</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="E59" s="3">
-        <v>37800</v>
+        <v>36700</v>
       </c>
       <c r="F59" s="3">
-        <v>228100</v>
+        <v>221200</v>
       </c>
       <c r="G59" s="3">
-        <v>459900</v>
+        <v>446000</v>
       </c>
       <c r="H59" s="3">
-        <v>334300</v>
+        <v>324100</v>
       </c>
       <c r="I59" s="3">
-        <v>275700</v>
+        <v>267300</v>
       </c>
       <c r="J59" s="3">
-        <v>340400</v>
+        <v>330000</v>
       </c>
       <c r="K59" s="3">
         <v>91800</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>105076000</v>
+        <v>101889000</v>
       </c>
       <c r="E61" s="3">
-        <v>126052000</v>
+        <v>122229000</v>
       </c>
       <c r="F61" s="3">
-        <v>140068000</v>
+        <v>135819000</v>
       </c>
       <c r="G61" s="3">
-        <v>132754000</v>
+        <v>128728000</v>
       </c>
       <c r="H61" s="3">
-        <v>110245000</v>
+        <v>106901000</v>
       </c>
       <c r="I61" s="3">
-        <v>117287000</v>
+        <v>113730000</v>
       </c>
       <c r="J61" s="3">
-        <v>128538000</v>
+        <v>124640000</v>
       </c>
       <c r="K61" s="3">
         <v>97974300</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2880200</v>
+        <v>2792800</v>
       </c>
       <c r="E62" s="3">
-        <v>2689900</v>
+        <v>2608300</v>
       </c>
       <c r="F62" s="3">
-        <v>4420900</v>
+        <v>4286800</v>
       </c>
       <c r="G62" s="3">
-        <v>4625900</v>
+        <v>4485600</v>
       </c>
       <c r="H62" s="3">
-        <v>7202300</v>
+        <v>6983800</v>
       </c>
       <c r="I62" s="3">
-        <v>6941200</v>
+        <v>6730700</v>
       </c>
       <c r="J62" s="3">
-        <v>7423100</v>
+        <v>7197900</v>
       </c>
       <c r="K62" s="3">
         <v>6265500</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1016920000</v>
+        <v>986075000</v>
       </c>
       <c r="E66" s="3">
-        <v>1002860000</v>
+        <v>972444000</v>
       </c>
       <c r="F66" s="3">
-        <v>959195000</v>
+        <v>930102000</v>
       </c>
       <c r="G66" s="3">
-        <v>912086000</v>
+        <v>884422000</v>
       </c>
       <c r="H66" s="3">
-        <v>931031000</v>
+        <v>902793000</v>
       </c>
       <c r="I66" s="3">
-        <v>938613000</v>
+        <v>910145000</v>
       </c>
       <c r="J66" s="3">
-        <v>927245000</v>
+        <v>899121000</v>
       </c>
       <c r="K66" s="3">
         <v>1073140000</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26678000</v>
+        <v>25868800</v>
       </c>
       <c r="E72" s="3">
-        <v>20505300</v>
+        <v>19883400</v>
       </c>
       <c r="F72" s="3">
-        <v>18873100</v>
+        <v>18300600</v>
       </c>
       <c r="G72" s="3">
-        <v>21260400</v>
+        <v>20615600</v>
       </c>
       <c r="H72" s="3">
-        <v>20477200</v>
+        <v>19856200</v>
       </c>
       <c r="I72" s="3">
-        <v>18885300</v>
+        <v>18312500</v>
       </c>
       <c r="J72" s="3">
-        <v>20136900</v>
+        <v>19526100</v>
       </c>
       <c r="K72" s="3">
         <v>23845300</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64553400</v>
+        <v>62595500</v>
       </c>
       <c r="E76" s="3">
-        <v>59999600</v>
+        <v>58179800</v>
       </c>
       <c r="F76" s="3">
-        <v>58070900</v>
+        <v>56309600</v>
       </c>
       <c r="G76" s="3">
-        <v>60903500</v>
+        <v>59056300</v>
       </c>
       <c r="H76" s="3">
-        <v>59660400</v>
+        <v>57850900</v>
       </c>
       <c r="I76" s="3">
-        <v>59012700</v>
+        <v>57222800</v>
       </c>
       <c r="J76" s="3">
-        <v>56833900</v>
+        <v>55110100</v>
       </c>
       <c r="K76" s="3">
         <v>64811300</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6532600</v>
+        <v>6334400</v>
       </c>
       <c r="E81" s="3">
-        <v>1055200</v>
+        <v>1023200</v>
       </c>
       <c r="F81" s="3">
-        <v>2999700</v>
+        <v>2908800</v>
       </c>
       <c r="G81" s="3">
-        <v>4978400</v>
+        <v>4827400</v>
       </c>
       <c r="H81" s="3">
-        <v>3959800</v>
+        <v>3839700</v>
       </c>
       <c r="I81" s="3">
-        <v>2552000</v>
+        <v>2474600</v>
       </c>
       <c r="J81" s="3">
-        <v>666100</v>
+        <v>645900</v>
       </c>
       <c r="K81" s="3">
         <v>1580000</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3446200</v>
+        <v>3341700</v>
       </c>
       <c r="E83" s="3">
-        <v>3332800</v>
+        <v>3231700</v>
       </c>
       <c r="F83" s="3">
-        <v>3244900</v>
+        <v>3146500</v>
       </c>
       <c r="G83" s="3">
-        <v>2933900</v>
+        <v>2844900</v>
       </c>
       <c r="H83" s="3">
-        <v>2891200</v>
+        <v>2803500</v>
       </c>
       <c r="I83" s="3">
-        <v>2903400</v>
+        <v>2815300</v>
       </c>
       <c r="J83" s="3">
-        <v>2576400</v>
+        <v>2498300</v>
       </c>
       <c r="K83" s="3">
         <v>2575700</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8077000</v>
+        <v>7832000</v>
       </c>
       <c r="E89" s="3">
-        <v>33145900</v>
+        <v>32140600</v>
       </c>
       <c r="F89" s="3">
-        <v>13761700</v>
+        <v>13344300</v>
       </c>
       <c r="G89" s="3">
-        <v>-13549400</v>
+        <v>-13138500</v>
       </c>
       <c r="H89" s="3">
-        <v>-3897600</v>
+        <v>-3779400</v>
       </c>
       <c r="I89" s="3">
-        <v>2530100</v>
+        <v>2453300</v>
       </c>
       <c r="J89" s="3">
-        <v>19972200</v>
+        <v>19366400</v>
       </c>
       <c r="K89" s="3">
         <v>13780900</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3937800</v>
+        <v>-3818400</v>
       </c>
       <c r="E91" s="3">
-        <v>-3538900</v>
+        <v>-3431600</v>
       </c>
       <c r="F91" s="3">
-        <v>-4198900</v>
+        <v>-4071500</v>
       </c>
       <c r="G91" s="3">
-        <v>-4286700</v>
+        <v>-4156700</v>
       </c>
       <c r="H91" s="3">
-        <v>-4458700</v>
+        <v>-4323500</v>
       </c>
       <c r="I91" s="3">
-        <v>-4586800</v>
+        <v>-4447700</v>
       </c>
       <c r="J91" s="3">
-        <v>-4168400</v>
+        <v>-4042000</v>
       </c>
       <c r="K91" s="3">
         <v>-4581600</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3104600</v>
+        <v>-3010500</v>
       </c>
       <c r="E94" s="3">
-        <v>-4879600</v>
+        <v>-4731600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2598400</v>
+        <v>-2519600</v>
       </c>
       <c r="G94" s="3">
-        <v>14542400</v>
+        <v>14101400</v>
       </c>
       <c r="H94" s="3">
-        <v>8305100</v>
+        <v>8053200</v>
       </c>
       <c r="I94" s="3">
-        <v>-836900</v>
+        <v>-811500</v>
       </c>
       <c r="J94" s="3">
-        <v>-4037900</v>
+        <v>-3915400</v>
       </c>
       <c r="K94" s="3">
         <v>-10278800</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1069900</v>
+        <v>-1037400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2820400</v>
+        <v>-2734900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2732600</v>
+        <v>-2649700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2786300</v>
+        <v>-2701700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2456900</v>
+        <v>-2382400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1305300</v>
+        <v>-1265700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3945200</v>
+        <v>-3825500</v>
       </c>
       <c r="E100" s="3">
-        <v>-6488600</v>
+        <v>-6291800</v>
       </c>
       <c r="F100" s="3">
-        <v>-8001300</v>
+        <v>-7758600</v>
       </c>
       <c r="G100" s="3">
-        <v>-5246800</v>
+        <v>-5087700</v>
       </c>
       <c r="H100" s="3">
-        <v>-6122700</v>
+        <v>-5937000</v>
       </c>
       <c r="I100" s="3">
-        <v>-13387200</v>
+        <v>-12981100</v>
       </c>
       <c r="J100" s="3">
-        <v>-7634100</v>
+        <v>-7402600</v>
       </c>
       <c r="K100" s="3">
         <v>-5690500</v>
@@ -3961,22 +3961,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>85400</v>
+        <v>82800</v>
       </c>
       <c r="E101" s="3">
-        <v>-239100</v>
+        <v>-231800</v>
       </c>
       <c r="F101" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="G101" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="J101" s="3">
         <v>2400</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1112500</v>
+        <v>1078800</v>
       </c>
       <c r="E102" s="3">
-        <v>21538600</v>
+        <v>20885300</v>
       </c>
       <c r="F102" s="3">
-        <v>3155900</v>
+        <v>3060200</v>
       </c>
       <c r="G102" s="3">
-        <v>-4250100</v>
+        <v>-4121200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1715200</v>
+        <v>-1663200</v>
       </c>
       <c r="I102" s="3">
-        <v>-11668300</v>
+        <v>-11314400</v>
       </c>
       <c r="J102" s="3">
-        <v>8302600</v>
+        <v>8050800</v>
       </c>
       <c r="K102" s="3">
         <v>-2196300</v>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15682900</v>
+        <v>15529100</v>
       </c>
       <c r="E8" s="3">
-        <v>16922600</v>
+        <v>16756600</v>
       </c>
       <c r="F8" s="3">
-        <v>19944900</v>
+        <v>19749300</v>
       </c>
       <c r="G8" s="3">
-        <v>19339200</v>
+        <v>19149600</v>
       </c>
       <c r="H8" s="3">
-        <v>18933500</v>
+        <v>18747800</v>
       </c>
       <c r="I8" s="3">
-        <v>19659800</v>
+        <v>19467000</v>
       </c>
       <c r="J8" s="3">
-        <v>20836800</v>
+        <v>20632400</v>
       </c>
       <c r="K8" s="3">
         <v>25571800</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3341700</v>
+        <v>-3308900</v>
       </c>
       <c r="E15" s="3">
-        <v>-3231700</v>
+        <v>-3200000</v>
       </c>
       <c r="F15" s="3">
-        <v>-3146500</v>
+        <v>-3115700</v>
       </c>
       <c r="G15" s="3">
-        <v>-2844900</v>
+        <v>-2817000</v>
       </c>
       <c r="H15" s="3">
-        <v>-2803500</v>
+        <v>-2776000</v>
       </c>
       <c r="I15" s="3">
-        <v>-2815300</v>
+        <v>-2787700</v>
       </c>
       <c r="J15" s="3">
-        <v>-2498300</v>
+        <v>-2473800</v>
       </c>
       <c r="K15" s="3">
         <v>-2575700</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2973800</v>
+        <v>2944600</v>
       </c>
       <c r="E17" s="3">
-        <v>9122500</v>
+        <v>9033100</v>
       </c>
       <c r="F17" s="3">
-        <v>9436000</v>
+        <v>9343500</v>
       </c>
       <c r="G17" s="3">
-        <v>4601500</v>
+        <v>4556400</v>
       </c>
       <c r="H17" s="3">
-        <v>6839500</v>
+        <v>6772500</v>
       </c>
       <c r="I17" s="3">
-        <v>9389900</v>
+        <v>9297800</v>
       </c>
       <c r="J17" s="3">
-        <v>7970400</v>
+        <v>7892200</v>
       </c>
       <c r="K17" s="3">
         <v>12363300</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12709100</v>
+        <v>12584400</v>
       </c>
       <c r="E18" s="3">
-        <v>7800000</v>
+        <v>7723600</v>
       </c>
       <c r="F18" s="3">
-        <v>10508900</v>
+        <v>10405800</v>
       </c>
       <c r="G18" s="3">
-        <v>14737800</v>
+        <v>14593200</v>
       </c>
       <c r="H18" s="3">
-        <v>12094000</v>
+        <v>11975400</v>
       </c>
       <c r="I18" s="3">
-        <v>10269900</v>
+        <v>10169200</v>
       </c>
       <c r="J18" s="3">
-        <v>12866400</v>
+        <v>12740200</v>
       </c>
       <c r="K18" s="3">
         <v>13208500</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4544700</v>
+        <v>-4500100</v>
       </c>
       <c r="E20" s="3">
-        <v>-6349800</v>
+        <v>-6287500</v>
       </c>
       <c r="F20" s="3">
-        <v>-5312400</v>
+        <v>-5260300</v>
       </c>
       <c r="G20" s="3">
-        <v>-7687700</v>
+        <v>-7612300</v>
       </c>
       <c r="H20" s="3">
-        <v>-5854200</v>
+        <v>-5796800</v>
       </c>
       <c r="I20" s="3">
-        <v>-5256800</v>
+        <v>-5205300</v>
       </c>
       <c r="J20" s="3">
-        <v>-10921700</v>
+        <v>-10814600</v>
       </c>
       <c r="K20" s="3">
         <v>-10863100</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11497000</v>
+        <v>11292400</v>
       </c>
       <c r="E21" s="3">
-        <v>4673200</v>
+        <v>4538500</v>
       </c>
       <c r="F21" s="3">
-        <v>8334500</v>
+        <v>8166200</v>
       </c>
       <c r="G21" s="3">
-        <v>9887300</v>
+        <v>9712100</v>
       </c>
       <c r="H21" s="3">
-        <v>9035700</v>
+        <v>8870000</v>
       </c>
       <c r="I21" s="3">
-        <v>7820800</v>
+        <v>7666700</v>
       </c>
       <c r="J21" s="3">
-        <v>4436200</v>
+        <v>4324000</v>
       </c>
       <c r="K21" s="3">
         <v>4926700</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8164400</v>
+        <v>8084300</v>
       </c>
       <c r="E23" s="3">
-        <v>1450200</v>
+        <v>1436000</v>
       </c>
       <c r="F23" s="3">
-        <v>5196500</v>
+        <v>5145500</v>
       </c>
       <c r="G23" s="3">
-        <v>7050100</v>
+        <v>6980900</v>
       </c>
       <c r="H23" s="3">
-        <v>6239800</v>
+        <v>6178600</v>
       </c>
       <c r="I23" s="3">
-        <v>5013100</v>
+        <v>4964000</v>
       </c>
       <c r="J23" s="3">
-        <v>1944700</v>
+        <v>1925600</v>
       </c>
       <c r="K23" s="3">
         <v>2345400</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1203000</v>
+        <v>1191200</v>
       </c>
       <c r="E24" s="3">
-        <v>-190400</v>
+        <v>-188600</v>
       </c>
       <c r="F24" s="3">
-        <v>1640700</v>
+        <v>1624600</v>
       </c>
       <c r="G24" s="3">
-        <v>1719900</v>
+        <v>1703100</v>
       </c>
       <c r="H24" s="3">
-        <v>1923400</v>
+        <v>1904500</v>
       </c>
       <c r="I24" s="3">
-        <v>2039300</v>
+        <v>2019300</v>
       </c>
       <c r="J24" s="3">
-        <v>813800</v>
+        <v>805900</v>
       </c>
       <c r="K24" s="3">
         <v>350100</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6961400</v>
+        <v>6893100</v>
       </c>
       <c r="E26" s="3">
-        <v>1640700</v>
+        <v>1624600</v>
       </c>
       <c r="F26" s="3">
-        <v>3555800</v>
+        <v>3520900</v>
       </c>
       <c r="G26" s="3">
-        <v>5330100</v>
+        <v>5277900</v>
       </c>
       <c r="H26" s="3">
-        <v>4316400</v>
+        <v>4274100</v>
       </c>
       <c r="I26" s="3">
-        <v>2973800</v>
+        <v>2944600</v>
       </c>
       <c r="J26" s="3">
-        <v>1130900</v>
+        <v>1119800</v>
       </c>
       <c r="K26" s="3">
         <v>1995300</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6334400</v>
+        <v>6272300</v>
       </c>
       <c r="E27" s="3">
-        <v>1023200</v>
+        <v>1013200</v>
       </c>
       <c r="F27" s="3">
-        <v>2908800</v>
+        <v>2880200</v>
       </c>
       <c r="G27" s="3">
-        <v>4827400</v>
+        <v>4780100</v>
       </c>
       <c r="H27" s="3">
-        <v>3839700</v>
+        <v>3802000</v>
       </c>
       <c r="I27" s="3">
-        <v>2474600</v>
+        <v>2450400</v>
       </c>
       <c r="J27" s="3">
-        <v>645900</v>
+        <v>639500</v>
       </c>
       <c r="K27" s="3">
         <v>1580000</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4544700</v>
+        <v>4500100</v>
       </c>
       <c r="E32" s="3">
-        <v>6349800</v>
+        <v>6287500</v>
       </c>
       <c r="F32" s="3">
-        <v>5312400</v>
+        <v>5260300</v>
       </c>
       <c r="G32" s="3">
-        <v>7687700</v>
+        <v>7612300</v>
       </c>
       <c r="H32" s="3">
-        <v>5854200</v>
+        <v>5796800</v>
       </c>
       <c r="I32" s="3">
-        <v>5256800</v>
+        <v>5205300</v>
       </c>
       <c r="J32" s="3">
-        <v>10921700</v>
+        <v>10814600</v>
       </c>
       <c r="K32" s="3">
         <v>10863100</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6334400</v>
+        <v>6272300</v>
       </c>
       <c r="E33" s="3">
-        <v>1023200</v>
+        <v>1013200</v>
       </c>
       <c r="F33" s="3">
-        <v>2908800</v>
+        <v>2880200</v>
       </c>
       <c r="G33" s="3">
-        <v>4827400</v>
+        <v>4780100</v>
       </c>
       <c r="H33" s="3">
-        <v>3839700</v>
+        <v>3802000</v>
       </c>
       <c r="I33" s="3">
-        <v>2474600</v>
+        <v>2450400</v>
       </c>
       <c r="J33" s="3">
-        <v>645900</v>
+        <v>639500</v>
       </c>
       <c r="K33" s="3">
         <v>1580000</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6334400</v>
+        <v>6272300</v>
       </c>
       <c r="E35" s="3">
-        <v>1023200</v>
+        <v>1013200</v>
       </c>
       <c r="F35" s="3">
-        <v>2908800</v>
+        <v>2880200</v>
       </c>
       <c r="G35" s="3">
-        <v>4827400</v>
+        <v>4780100</v>
       </c>
       <c r="H35" s="3">
-        <v>3839700</v>
+        <v>3802000</v>
       </c>
       <c r="I35" s="3">
-        <v>2474600</v>
+        <v>2450400</v>
       </c>
       <c r="J35" s="3">
-        <v>645900</v>
+        <v>639500</v>
       </c>
       <c r="K35" s="3">
         <v>1580000</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>98852600</v>
+        <v>97883200</v>
       </c>
       <c r="E41" s="3">
-        <v>96543600</v>
+        <v>95596800</v>
       </c>
       <c r="F41" s="3">
-        <v>75307000</v>
+        <v>74568500</v>
       </c>
       <c r="G41" s="3">
-        <v>72313000</v>
+        <v>71603900</v>
       </c>
       <c r="H41" s="3">
-        <v>77025700</v>
+        <v>76270400</v>
       </c>
       <c r="I41" s="3">
-        <v>87721500</v>
+        <v>86861300</v>
       </c>
       <c r="J41" s="3">
-        <v>98497700</v>
+        <v>97531800</v>
       </c>
       <c r="K41" s="3">
         <v>101058000</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>298655000</v>
+        <v>295726000</v>
       </c>
       <c r="E42" s="3">
-        <v>204063000</v>
+        <v>202062000</v>
       </c>
       <c r="F42" s="3">
-        <v>186409000</v>
+        <v>184581000</v>
       </c>
       <c r="G42" s="3">
-        <v>181438000</v>
+        <v>179659000</v>
       </c>
       <c r="H42" s="3">
-        <v>186425000</v>
+        <v>184597000</v>
       </c>
       <c r="I42" s="3">
-        <v>181010000</v>
+        <v>179235000</v>
       </c>
       <c r="J42" s="3">
-        <v>149433000</v>
+        <v>147968000</v>
       </c>
       <c r="K42" s="3">
         <v>187034000</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>416400</v>
+        <v>412300</v>
       </c>
       <c r="E47" s="3">
-        <v>350100</v>
+        <v>346700</v>
       </c>
       <c r="F47" s="3">
-        <v>359600</v>
+        <v>356100</v>
       </c>
       <c r="G47" s="3">
-        <v>107600</v>
+        <v>106600</v>
       </c>
       <c r="H47" s="3">
-        <v>76900</v>
+        <v>76100</v>
       </c>
       <c r="I47" s="3">
-        <v>69800</v>
+        <v>69100</v>
       </c>
       <c r="J47" s="3">
-        <v>55600</v>
+        <v>55100</v>
       </c>
       <c r="K47" s="3">
         <v>98500</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13694400</v>
+        <v>13560100</v>
       </c>
       <c r="E48" s="3">
-        <v>13903800</v>
+        <v>13767500</v>
       </c>
       <c r="F48" s="3">
-        <v>15500700</v>
+        <v>15348700</v>
       </c>
       <c r="G48" s="3">
-        <v>14549700</v>
+        <v>14407000</v>
       </c>
       <c r="H48" s="3">
-        <v>15054800</v>
+        <v>14907100</v>
       </c>
       <c r="I48" s="3">
-        <v>15344600</v>
+        <v>15194100</v>
       </c>
       <c r="J48" s="3">
-        <v>15352900</v>
+        <v>15202300</v>
       </c>
       <c r="K48" s="3">
         <v>16697300</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14230300</v>
+        <v>14090700</v>
       </c>
       <c r="E49" s="3">
-        <v>14285900</v>
+        <v>14145800</v>
       </c>
       <c r="F49" s="3">
-        <v>13828100</v>
+        <v>13692500</v>
       </c>
       <c r="G49" s="3">
-        <v>12324600</v>
+        <v>12203800</v>
       </c>
       <c r="H49" s="3">
-        <v>11810100</v>
+        <v>11694300</v>
       </c>
       <c r="I49" s="3">
-        <v>10337400</v>
+        <v>10236000</v>
       </c>
       <c r="J49" s="3">
-        <v>9995500</v>
+        <v>9897500</v>
       </c>
       <c r="K49" s="3">
         <v>11913300</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9048000</v>
+        <v>8959300</v>
       </c>
       <c r="E52" s="3">
-        <v>5269800</v>
+        <v>5218100</v>
       </c>
       <c r="F52" s="3">
-        <v>3959200</v>
+        <v>3920300</v>
       </c>
       <c r="G52" s="3">
-        <v>12812000</v>
+        <v>12686400</v>
       </c>
       <c r="H52" s="3">
-        <v>12767000</v>
+        <v>12641800</v>
       </c>
       <c r="I52" s="3">
-        <v>11465800</v>
+        <v>11353400</v>
       </c>
       <c r="J52" s="3">
-        <v>14947100</v>
+        <v>14800500</v>
       </c>
       <c r="K52" s="3">
         <v>24003700</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1048670000</v>
+        <v>1038390000</v>
       </c>
       <c r="E54" s="3">
-        <v>1030620000</v>
+        <v>1020520000</v>
       </c>
       <c r="F54" s="3">
-        <v>986412000</v>
+        <v>976739000</v>
       </c>
       <c r="G54" s="3">
-        <v>943479000</v>
+        <v>934227000</v>
       </c>
       <c r="H54" s="3">
-        <v>960644000</v>
+        <v>951223000</v>
       </c>
       <c r="I54" s="3">
-        <v>967367000</v>
+        <v>957881000</v>
       </c>
       <c r="J54" s="3">
-        <v>954231000</v>
+        <v>944874000</v>
       </c>
       <c r="K54" s="3">
         <v>1137950000</v>
@@ -2406,10 +2406,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6556800</v>
+        <v>6492500</v>
       </c>
       <c r="E57" s="3">
-        <v>6336800</v>
+        <v>6274700</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E59" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="F59" s="3">
-        <v>221200</v>
+        <v>219000</v>
       </c>
       <c r="G59" s="3">
-        <v>446000</v>
+        <v>441600</v>
       </c>
       <c r="H59" s="3">
-        <v>324100</v>
+        <v>320900</v>
       </c>
       <c r="I59" s="3">
-        <v>267300</v>
+        <v>264700</v>
       </c>
       <c r="J59" s="3">
-        <v>330000</v>
+        <v>326800</v>
       </c>
       <c r="K59" s="3">
         <v>91800</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>101889000</v>
+        <v>100890000</v>
       </c>
       <c r="E61" s="3">
-        <v>122229000</v>
+        <v>121030000</v>
       </c>
       <c r="F61" s="3">
-        <v>135819000</v>
+        <v>134488000</v>
       </c>
       <c r="G61" s="3">
-        <v>128728000</v>
+        <v>127466000</v>
       </c>
       <c r="H61" s="3">
-        <v>106901000</v>
+        <v>105853000</v>
       </c>
       <c r="I61" s="3">
-        <v>113730000</v>
+        <v>112615000</v>
       </c>
       <c r="J61" s="3">
-        <v>124640000</v>
+        <v>123418000</v>
       </c>
       <c r="K61" s="3">
         <v>97974300</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2792800</v>
+        <v>2765400</v>
       </c>
       <c r="E62" s="3">
-        <v>2608300</v>
+        <v>2582700</v>
       </c>
       <c r="F62" s="3">
-        <v>4286800</v>
+        <v>4244800</v>
       </c>
       <c r="G62" s="3">
-        <v>4485600</v>
+        <v>4441600</v>
       </c>
       <c r="H62" s="3">
-        <v>6983800</v>
+        <v>6915400</v>
       </c>
       <c r="I62" s="3">
-        <v>6730700</v>
+        <v>6664700</v>
       </c>
       <c r="J62" s="3">
-        <v>7197900</v>
+        <v>7127400</v>
       </c>
       <c r="K62" s="3">
         <v>6265500</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>986075000</v>
+        <v>976405000</v>
       </c>
       <c r="E66" s="3">
-        <v>972444000</v>
+        <v>962908000</v>
       </c>
       <c r="F66" s="3">
-        <v>930102000</v>
+        <v>920982000</v>
       </c>
       <c r="G66" s="3">
-        <v>884422000</v>
+        <v>875749000</v>
       </c>
       <c r="H66" s="3">
-        <v>902793000</v>
+        <v>893940000</v>
       </c>
       <c r="I66" s="3">
-        <v>910145000</v>
+        <v>901219000</v>
       </c>
       <c r="J66" s="3">
-        <v>899121000</v>
+        <v>890304000</v>
       </c>
       <c r="K66" s="3">
         <v>1073140000</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25868800</v>
+        <v>25615200</v>
       </c>
       <c r="E72" s="3">
-        <v>19883400</v>
+        <v>19688400</v>
       </c>
       <c r="F72" s="3">
-        <v>18300600</v>
+        <v>18121200</v>
       </c>
       <c r="G72" s="3">
-        <v>20615600</v>
+        <v>20413400</v>
       </c>
       <c r="H72" s="3">
-        <v>19856200</v>
+        <v>19661400</v>
       </c>
       <c r="I72" s="3">
-        <v>18312500</v>
+        <v>18132900</v>
       </c>
       <c r="J72" s="3">
-        <v>19526100</v>
+        <v>19334600</v>
       </c>
       <c r="K72" s="3">
         <v>23845300</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>62595500</v>
+        <v>61981700</v>
       </c>
       <c r="E76" s="3">
-        <v>58179800</v>
+        <v>57609200</v>
       </c>
       <c r="F76" s="3">
-        <v>56309600</v>
+        <v>55757400</v>
       </c>
       <c r="G76" s="3">
-        <v>59056300</v>
+        <v>58477200</v>
       </c>
       <c r="H76" s="3">
-        <v>57850900</v>
+        <v>57283600</v>
       </c>
       <c r="I76" s="3">
-        <v>57222800</v>
+        <v>56661600</v>
       </c>
       <c r="J76" s="3">
-        <v>55110100</v>
+        <v>54569700</v>
       </c>
       <c r="K76" s="3">
         <v>64811300</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6334400</v>
+        <v>6272300</v>
       </c>
       <c r="E81" s="3">
-        <v>1023200</v>
+        <v>1013200</v>
       </c>
       <c r="F81" s="3">
-        <v>2908800</v>
+        <v>2880200</v>
       </c>
       <c r="G81" s="3">
-        <v>4827400</v>
+        <v>4780100</v>
       </c>
       <c r="H81" s="3">
-        <v>3839700</v>
+        <v>3802000</v>
       </c>
       <c r="I81" s="3">
-        <v>2474600</v>
+        <v>2450400</v>
       </c>
       <c r="J81" s="3">
-        <v>645900</v>
+        <v>639500</v>
       </c>
       <c r="K81" s="3">
         <v>1580000</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3341700</v>
+        <v>3308900</v>
       </c>
       <c r="E83" s="3">
-        <v>3231700</v>
+        <v>3200000</v>
       </c>
       <c r="F83" s="3">
-        <v>3146500</v>
+        <v>3115700</v>
       </c>
       <c r="G83" s="3">
-        <v>2844900</v>
+        <v>2817000</v>
       </c>
       <c r="H83" s="3">
-        <v>2803500</v>
+        <v>2776000</v>
       </c>
       <c r="I83" s="3">
-        <v>2815300</v>
+        <v>2787700</v>
       </c>
       <c r="J83" s="3">
-        <v>2498300</v>
+        <v>2473800</v>
       </c>
       <c r="K83" s="3">
         <v>2575700</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7832000</v>
+        <v>7755200</v>
       </c>
       <c r="E89" s="3">
-        <v>32140600</v>
+        <v>31825400</v>
       </c>
       <c r="F89" s="3">
-        <v>13344300</v>
+        <v>13213400</v>
       </c>
       <c r="G89" s="3">
-        <v>-13138500</v>
+        <v>-13009600</v>
       </c>
       <c r="H89" s="3">
-        <v>-3779400</v>
+        <v>-3742300</v>
       </c>
       <c r="I89" s="3">
-        <v>2453300</v>
+        <v>2429300</v>
       </c>
       <c r="J89" s="3">
-        <v>19366400</v>
+        <v>19176500</v>
       </c>
       <c r="K89" s="3">
         <v>13780900</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3818400</v>
+        <v>-3781000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3431600</v>
+        <v>-3397900</v>
       </c>
       <c r="F91" s="3">
-        <v>-4071500</v>
+        <v>-4031600</v>
       </c>
       <c r="G91" s="3">
-        <v>-4156700</v>
+        <v>-4115900</v>
       </c>
       <c r="H91" s="3">
-        <v>-4323500</v>
+        <v>-4281100</v>
       </c>
       <c r="I91" s="3">
-        <v>-4447700</v>
+        <v>-4404100</v>
       </c>
       <c r="J91" s="3">
-        <v>-4042000</v>
+        <v>-4002300</v>
       </c>
       <c r="K91" s="3">
         <v>-4581600</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3010500</v>
+        <v>-2981000</v>
       </c>
       <c r="E94" s="3">
-        <v>-4731600</v>
+        <v>-4685200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2519600</v>
+        <v>-2494900</v>
       </c>
       <c r="G94" s="3">
-        <v>14101400</v>
+        <v>13963100</v>
       </c>
       <c r="H94" s="3">
-        <v>8053200</v>
+        <v>7974200</v>
       </c>
       <c r="I94" s="3">
-        <v>-811500</v>
+        <v>-803500</v>
       </c>
       <c r="J94" s="3">
-        <v>-3915400</v>
+        <v>-3877000</v>
       </c>
       <c r="K94" s="3">
         <v>-10278800</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1037400</v>
+        <v>-1027200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2734900</v>
+        <v>-2708000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2649700</v>
+        <v>-2623700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2701700</v>
+        <v>-2675200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2382400</v>
+        <v>-2359000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1265700</v>
+        <v>-1253300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3825500</v>
+        <v>-3788000</v>
       </c>
       <c r="E100" s="3">
-        <v>-6291800</v>
+        <v>-6230100</v>
       </c>
       <c r="F100" s="3">
-        <v>-7758600</v>
+        <v>-7682600</v>
       </c>
       <c r="G100" s="3">
-        <v>-5087700</v>
+        <v>-5037800</v>
       </c>
       <c r="H100" s="3">
-        <v>-5937000</v>
+        <v>-5878800</v>
       </c>
       <c r="I100" s="3">
-        <v>-12981100</v>
+        <v>-12853800</v>
       </c>
       <c r="J100" s="3">
-        <v>-7402600</v>
+        <v>-7330000</v>
       </c>
       <c r="K100" s="3">
         <v>-5690500</v>
@@ -3961,10 +3961,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>82800</v>
+        <v>82000</v>
       </c>
       <c r="E101" s="3">
-        <v>-231800</v>
+        <v>-229600</v>
       </c>
       <c r="F101" s="3">
         <v>-5900</v>
@@ -3976,10 +3976,10 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="J101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K101" s="3">
         <v>-8000</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1078800</v>
+        <v>1068200</v>
       </c>
       <c r="E102" s="3">
-        <v>20885300</v>
+        <v>20680500</v>
       </c>
       <c r="F102" s="3">
-        <v>3060200</v>
+        <v>3030200</v>
       </c>
       <c r="G102" s="3">
-        <v>-4121200</v>
+        <v>-4080800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1663200</v>
+        <v>-1646800</v>
       </c>
       <c r="I102" s="3">
-        <v>-11314400</v>
+        <v>-11203500</v>
       </c>
       <c r="J102" s="3">
-        <v>8050800</v>
+        <v>7971900</v>
       </c>
       <c r="K102" s="3">
         <v>-2196300</v>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>LYG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,107 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15529100</v>
+        <v>21041800</v>
       </c>
       <c r="E8" s="3">
-        <v>16756600</v>
+        <v>15810300</v>
       </c>
       <c r="F8" s="3">
-        <v>19749300</v>
+        <v>17060000</v>
       </c>
       <c r="G8" s="3">
-        <v>19149600</v>
+        <v>20106900</v>
       </c>
       <c r="H8" s="3">
-        <v>18747800</v>
+        <v>19496300</v>
       </c>
       <c r="I8" s="3">
-        <v>19467000</v>
+        <v>19087300</v>
       </c>
       <c r="J8" s="3">
+        <v>19819500</v>
+      </c>
+      <c r="K8" s="3">
         <v>20632400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25571800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28176400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30426300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34652600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -796,9 +802,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,9 +844,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,9 +946,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -969,48 +988,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3308900</v>
+        <v>-2857300</v>
       </c>
       <c r="E15" s="3">
-        <v>-3200000</v>
+        <v>-3368800</v>
       </c>
       <c r="F15" s="3">
-        <v>-3115700</v>
+        <v>-3257900</v>
       </c>
       <c r="G15" s="3">
-        <v>-2817000</v>
+        <v>-3172100</v>
       </c>
       <c r="H15" s="3">
-        <v>-2776000</v>
+        <v>-2868000</v>
       </c>
       <c r="I15" s="3">
-        <v>-2787700</v>
+        <v>-2826200</v>
       </c>
       <c r="J15" s="3">
+        <v>-2838200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-2473800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-2575700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-2582900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-2646400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-3737100</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2944600</v>
+        <v>6213000</v>
       </c>
       <c r="E17" s="3">
-        <v>9033100</v>
+        <v>2998000</v>
       </c>
       <c r="F17" s="3">
-        <v>9343500</v>
+        <v>9196600</v>
       </c>
       <c r="G17" s="3">
-        <v>4556400</v>
+        <v>9512700</v>
       </c>
       <c r="H17" s="3">
-        <v>6772500</v>
+        <v>4638900</v>
       </c>
       <c r="I17" s="3">
-        <v>9297800</v>
+        <v>6895100</v>
       </c>
       <c r="J17" s="3">
+        <v>9466100</v>
+      </c>
+      <c r="K17" s="3">
         <v>7892200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12363300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22036000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25350700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28557200</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12584400</v>
+        <v>14828900</v>
       </c>
       <c r="E18" s="3">
-        <v>7723600</v>
+        <v>12812300</v>
       </c>
       <c r="F18" s="3">
-        <v>10405800</v>
+        <v>7863400</v>
       </c>
       <c r="G18" s="3">
-        <v>14593200</v>
+        <v>10594300</v>
       </c>
       <c r="H18" s="3">
-        <v>11975400</v>
+        <v>14857500</v>
       </c>
       <c r="I18" s="3">
-        <v>10169200</v>
+        <v>12192200</v>
       </c>
       <c r="J18" s="3">
+        <v>10353400</v>
+      </c>
+      <c r="K18" s="3">
         <v>12740200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13208500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6140400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5075600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6095400</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,86 +1150,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4500100</v>
+        <v>-6567200</v>
       </c>
       <c r="E20" s="3">
-        <v>-6287500</v>
+        <v>-4581600</v>
       </c>
       <c r="F20" s="3">
-        <v>-5260300</v>
+        <v>-6401400</v>
       </c>
       <c r="G20" s="3">
-        <v>-7612300</v>
+        <v>-5355600</v>
       </c>
       <c r="H20" s="3">
-        <v>-5796800</v>
+        <v>-7750100</v>
       </c>
       <c r="I20" s="3">
-        <v>-5205300</v>
+        <v>-5901700</v>
       </c>
       <c r="J20" s="3">
+        <v>-5299500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-10814600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10863100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5587900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5812500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6821000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11292400</v>
+        <v>11099100</v>
       </c>
       <c r="E21" s="3">
-        <v>4538500</v>
+        <v>11576100</v>
       </c>
       <c r="F21" s="3">
-        <v>8166200</v>
+        <v>4697300</v>
       </c>
       <c r="G21" s="3">
-        <v>9712100</v>
+        <v>8388700</v>
       </c>
       <c r="H21" s="3">
-        <v>8870000</v>
+        <v>9955400</v>
       </c>
       <c r="I21" s="3">
-        <v>7666700</v>
+        <v>9097000</v>
       </c>
       <c r="J21" s="3">
+        <v>7872300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4324000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4926700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3143400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2026900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2127900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1234,87 +1273,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8084300</v>
+        <v>8261700</v>
       </c>
       <c r="E23" s="3">
-        <v>1436000</v>
+        <v>8230700</v>
       </c>
       <c r="F23" s="3">
-        <v>5145500</v>
+        <v>1462000</v>
       </c>
       <c r="G23" s="3">
-        <v>6980900</v>
+        <v>5238700</v>
       </c>
       <c r="H23" s="3">
-        <v>6178600</v>
+        <v>7107400</v>
       </c>
       <c r="I23" s="3">
-        <v>4964000</v>
+        <v>6290500</v>
       </c>
       <c r="J23" s="3">
+        <v>5053900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1925600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2345400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>552500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-736900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-725600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1191200</v>
+        <v>1637300</v>
       </c>
       <c r="E24" s="3">
-        <v>-188600</v>
+        <v>1212800</v>
       </c>
       <c r="F24" s="3">
-        <v>1624600</v>
+        <v>-192000</v>
       </c>
       <c r="G24" s="3">
-        <v>1703100</v>
+        <v>1654000</v>
       </c>
       <c r="H24" s="3">
-        <v>1904500</v>
+        <v>1733900</v>
       </c>
       <c r="I24" s="3">
-        <v>2019300</v>
+        <v>1939000</v>
       </c>
       <c r="J24" s="3">
+        <v>2055900</v>
+      </c>
+      <c r="K24" s="3">
         <v>805900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>350100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1620300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>999300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6893100</v>
+        <v>6624400</v>
       </c>
       <c r="E26" s="3">
-        <v>1624600</v>
+        <v>7017900</v>
       </c>
       <c r="F26" s="3">
-        <v>3520900</v>
+        <v>1654000</v>
       </c>
       <c r="G26" s="3">
-        <v>5277900</v>
+        <v>3584700</v>
       </c>
       <c r="H26" s="3">
-        <v>4274100</v>
+        <v>5373500</v>
       </c>
       <c r="I26" s="3">
-        <v>2944600</v>
+        <v>4351500</v>
       </c>
       <c r="J26" s="3">
+        <v>2998000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1119800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1995300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1067800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1736200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-729500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6272300</v>
+        <v>5987600</v>
       </c>
       <c r="E27" s="3">
-        <v>1013200</v>
+        <v>6385900</v>
       </c>
       <c r="F27" s="3">
-        <v>2880200</v>
+        <v>1031500</v>
       </c>
       <c r="G27" s="3">
-        <v>4780100</v>
+        <v>2932400</v>
       </c>
       <c r="H27" s="3">
-        <v>3802000</v>
+        <v>4866600</v>
       </c>
       <c r="I27" s="3">
-        <v>2450400</v>
+        <v>3870900</v>
       </c>
       <c r="J27" s="3">
+        <v>2494700</v>
+      </c>
+      <c r="K27" s="3">
         <v>639500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1580000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1115700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1844800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-825600</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4500100</v>
+        <v>6567200</v>
       </c>
       <c r="E32" s="3">
-        <v>6287500</v>
+        <v>4581600</v>
       </c>
       <c r="F32" s="3">
-        <v>5260300</v>
+        <v>6401400</v>
       </c>
       <c r="G32" s="3">
-        <v>7612300</v>
+        <v>5355600</v>
       </c>
       <c r="H32" s="3">
-        <v>5796800</v>
+        <v>7750100</v>
       </c>
       <c r="I32" s="3">
-        <v>5205300</v>
+        <v>5901700</v>
       </c>
       <c r="J32" s="3">
+        <v>5299500</v>
+      </c>
+      <c r="K32" s="3">
         <v>10814600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10863100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5587900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5812500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6821000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6272300</v>
+        <v>5987600</v>
       </c>
       <c r="E33" s="3">
-        <v>1013200</v>
+        <v>6385900</v>
       </c>
       <c r="F33" s="3">
-        <v>2880200</v>
+        <v>1031500</v>
       </c>
       <c r="G33" s="3">
-        <v>4780100</v>
+        <v>2932400</v>
       </c>
       <c r="H33" s="3">
-        <v>3802000</v>
+        <v>4866600</v>
       </c>
       <c r="I33" s="3">
-        <v>2450400</v>
+        <v>3870900</v>
       </c>
       <c r="J33" s="3">
+        <v>2494700</v>
+      </c>
+      <c r="K33" s="3">
         <v>639500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1580000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1115700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1844800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-825600</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6272300</v>
+        <v>5987600</v>
       </c>
       <c r="E35" s="3">
-        <v>1013200</v>
+        <v>6385900</v>
       </c>
       <c r="F35" s="3">
-        <v>2880200</v>
+        <v>1031500</v>
       </c>
       <c r="G35" s="3">
-        <v>4780100</v>
+        <v>2932400</v>
       </c>
       <c r="H35" s="3">
-        <v>3802000</v>
+        <v>4866600</v>
       </c>
       <c r="I35" s="3">
-        <v>2450400</v>
+        <v>3870900</v>
       </c>
       <c r="J35" s="3">
+        <v>2494700</v>
+      </c>
+      <c r="K35" s="3">
         <v>639500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1580000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1115700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1844800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-825600</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,86 +1905,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>97883200</v>
+        <v>121949000</v>
       </c>
       <c r="E41" s="3">
-        <v>95596800</v>
+        <v>99655700</v>
       </c>
       <c r="F41" s="3">
-        <v>74568500</v>
+        <v>97327900</v>
       </c>
       <c r="G41" s="3">
-        <v>71603900</v>
+        <v>75918800</v>
       </c>
       <c r="H41" s="3">
-        <v>76270400</v>
+        <v>72900500</v>
       </c>
       <c r="I41" s="3">
-        <v>86861300</v>
+        <v>77651500</v>
       </c>
       <c r="J41" s="3">
+        <v>88434200</v>
+      </c>
+      <c r="K41" s="3">
         <v>97531800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>101058000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>101325000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>190135000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>168058000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>295726000</v>
+        <v>264261000</v>
       </c>
       <c r="E42" s="3">
-        <v>202062000</v>
+        <v>301081000</v>
       </c>
       <c r="F42" s="3">
-        <v>184581000</v>
+        <v>205721000</v>
       </c>
       <c r="G42" s="3">
-        <v>179659000</v>
+        <v>187923000</v>
       </c>
       <c r="H42" s="3">
-        <v>184597000</v>
+        <v>182912000</v>
       </c>
       <c r="I42" s="3">
-        <v>179235000</v>
+        <v>187940000</v>
       </c>
       <c r="J42" s="3">
+        <v>182480000</v>
+      </c>
+      <c r="K42" s="3">
         <v>147968000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>187034000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>173929000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>220864000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>95065700</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1936,9 +2028,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1975,9 +2070,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2014,9 +2112,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2053,126 +2154,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>412300</v>
+        <v>459100</v>
       </c>
       <c r="E47" s="3">
-        <v>346700</v>
+        <v>419800</v>
       </c>
       <c r="F47" s="3">
-        <v>356100</v>
+        <v>353000</v>
       </c>
       <c r="G47" s="3">
-        <v>106600</v>
+        <v>362500</v>
       </c>
       <c r="H47" s="3">
-        <v>76100</v>
+        <v>108500</v>
       </c>
       <c r="I47" s="3">
-        <v>69100</v>
+        <v>77500</v>
       </c>
       <c r="J47" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K47" s="3">
         <v>55100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>98500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>134500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>404600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>439800</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13560100</v>
+        <v>12712200</v>
       </c>
       <c r="E48" s="3">
-        <v>13767500</v>
+        <v>13805700</v>
       </c>
       <c r="F48" s="3">
-        <v>15348700</v>
+        <v>14016800</v>
       </c>
       <c r="G48" s="3">
-        <v>14407000</v>
+        <v>15626700</v>
       </c>
       <c r="H48" s="3">
-        <v>14907100</v>
+        <v>14667900</v>
       </c>
       <c r="I48" s="3">
-        <v>15194100</v>
+        <v>15177100</v>
       </c>
       <c r="J48" s="3">
+        <v>15469200</v>
+      </c>
+      <c r="K48" s="3">
         <v>15202300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16697300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16554600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22811600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28268800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14090700</v>
+        <v>15335700</v>
       </c>
       <c r="E49" s="3">
-        <v>14145800</v>
+        <v>14345900</v>
       </c>
       <c r="F49" s="3">
-        <v>13692500</v>
+        <v>14401900</v>
       </c>
       <c r="G49" s="3">
-        <v>12203800</v>
+        <v>13940400</v>
       </c>
       <c r="H49" s="3">
-        <v>11694300</v>
+        <v>12424800</v>
       </c>
       <c r="I49" s="3">
-        <v>10236000</v>
+        <v>11906000</v>
       </c>
       <c r="J49" s="3">
+        <v>10421300</v>
+      </c>
+      <c r="K49" s="3">
         <v>9897500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11913300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12821400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>22350100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19812400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8959300</v>
+        <v>10793400</v>
       </c>
       <c r="E52" s="3">
-        <v>5218100</v>
+        <v>9121500</v>
       </c>
       <c r="F52" s="3">
-        <v>3920300</v>
+        <v>5312600</v>
       </c>
       <c r="G52" s="3">
-        <v>12686400</v>
+        <v>3991300</v>
       </c>
       <c r="H52" s="3">
-        <v>12641800</v>
+        <v>12916100</v>
       </c>
       <c r="I52" s="3">
-        <v>11353400</v>
+        <v>12870800</v>
       </c>
       <c r="J52" s="3">
+        <v>11559000</v>
+      </c>
+      <c r="K52" s="3">
         <v>14800500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24003700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20218600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15522800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7765100</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1038390000</v>
+        <v>1046820000</v>
       </c>
       <c r="E54" s="3">
-        <v>1020520000</v>
+        <v>1057190000</v>
       </c>
       <c r="F54" s="3">
-        <v>976739000</v>
+        <v>1039000000</v>
       </c>
       <c r="G54" s="3">
-        <v>934227000</v>
+        <v>994426000</v>
       </c>
       <c r="H54" s="3">
-        <v>951223000</v>
+        <v>951144000</v>
       </c>
       <c r="I54" s="3">
-        <v>957881000</v>
+        <v>968448000</v>
       </c>
       <c r="J54" s="3">
+        <v>975226000</v>
+      </c>
+      <c r="K54" s="3">
         <v>944874000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1137950000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1121540000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1207770000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1290780000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,19 +2529,20 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6492500</v>
+        <v>7139600</v>
       </c>
       <c r="E57" s="3">
-        <v>6274700</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
+        <v>6610100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6388300</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
@@ -2426,8 +2556,8 @@
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2438,9 +2568,12 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2477,48 +2610,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="E59" s="3">
-        <v>36300</v>
+        <v>7200</v>
       </c>
       <c r="F59" s="3">
-        <v>219000</v>
+        <v>37000</v>
       </c>
       <c r="G59" s="3">
-        <v>441600</v>
+        <v>223000</v>
       </c>
       <c r="H59" s="3">
-        <v>320900</v>
+        <v>449600</v>
       </c>
       <c r="I59" s="3">
-        <v>264700</v>
+        <v>326700</v>
       </c>
       <c r="J59" s="3">
+        <v>269500</v>
+      </c>
+      <c r="K59" s="3">
         <v>326800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>91800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>195700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>178400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>135600</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2555,87 +2694,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100890000</v>
+        <v>102396000</v>
       </c>
       <c r="E61" s="3">
-        <v>121030000</v>
+        <v>102717000</v>
       </c>
       <c r="F61" s="3">
-        <v>134488000</v>
+        <v>123222000</v>
       </c>
       <c r="G61" s="3">
-        <v>127466000</v>
+        <v>136923000</v>
       </c>
       <c r="H61" s="3">
-        <v>105853000</v>
+        <v>129774000</v>
       </c>
       <c r="I61" s="3">
-        <v>112615000</v>
+        <v>107770000</v>
       </c>
       <c r="J61" s="3">
+        <v>114654000</v>
+      </c>
+      <c r="K61" s="3">
         <v>123418000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>97974300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>121594000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>145472000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>289764000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2765400</v>
+        <v>2565100</v>
       </c>
       <c r="E62" s="3">
-        <v>2582700</v>
+        <v>2815500</v>
       </c>
       <c r="F62" s="3">
-        <v>4244800</v>
+        <v>2629500</v>
       </c>
       <c r="G62" s="3">
-        <v>4441600</v>
+        <v>4321700</v>
       </c>
       <c r="H62" s="3">
-        <v>6915400</v>
+        <v>4522000</v>
       </c>
       <c r="I62" s="3">
-        <v>6664700</v>
+        <v>7040600</v>
       </c>
       <c r="J62" s="3">
+        <v>6785400</v>
+      </c>
+      <c r="K62" s="3">
         <v>7127400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6265500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7438500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8006400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5712200</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>976405000</v>
+        <v>990442000</v>
       </c>
       <c r="E66" s="3">
-        <v>962908000</v>
+        <v>994086000</v>
       </c>
       <c r="F66" s="3">
-        <v>920982000</v>
+        <v>980345000</v>
       </c>
       <c r="G66" s="3">
-        <v>875749000</v>
+        <v>937659000</v>
       </c>
       <c r="H66" s="3">
-        <v>893940000</v>
+        <v>891608000</v>
       </c>
       <c r="I66" s="3">
-        <v>901219000</v>
+        <v>910127000</v>
       </c>
       <c r="J66" s="3">
+        <v>917539000</v>
+      </c>
+      <c r="K66" s="3">
         <v>890304000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1073140000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1069630000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1153610000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1230860000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25615200</v>
+        <v>26504700</v>
       </c>
       <c r="E72" s="3">
-        <v>19688400</v>
+        <v>26079000</v>
       </c>
       <c r="F72" s="3">
-        <v>18121200</v>
+        <v>20044900</v>
       </c>
       <c r="G72" s="3">
-        <v>20413400</v>
+        <v>18449300</v>
       </c>
       <c r="H72" s="3">
-        <v>19661400</v>
+        <v>20783100</v>
       </c>
       <c r="I72" s="3">
-        <v>18132900</v>
+        <v>20017500</v>
       </c>
       <c r="J72" s="3">
+        <v>18461200</v>
+      </c>
+      <c r="K72" s="3">
         <v>19334600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23845300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21715100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22368200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26978400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61981700</v>
+        <v>56378300</v>
       </c>
       <c r="E76" s="3">
-        <v>57609200</v>
+        <v>63104100</v>
       </c>
       <c r="F76" s="3">
-        <v>55757400</v>
+        <v>58652400</v>
       </c>
       <c r="G76" s="3">
-        <v>58477200</v>
+        <v>56767100</v>
       </c>
       <c r="H76" s="3">
-        <v>57283600</v>
+        <v>59536100</v>
       </c>
       <c r="I76" s="3">
-        <v>56661600</v>
+        <v>58320900</v>
       </c>
       <c r="J76" s="3">
+        <v>57687700</v>
+      </c>
+      <c r="K76" s="3">
         <v>54569700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>64811300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>51910000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54163600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>59921800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6272300</v>
+        <v>5987600</v>
       </c>
       <c r="E81" s="3">
-        <v>1013200</v>
+        <v>6385900</v>
       </c>
       <c r="F81" s="3">
-        <v>2880200</v>
+        <v>1031500</v>
       </c>
       <c r="G81" s="3">
-        <v>4780100</v>
+        <v>2932400</v>
       </c>
       <c r="H81" s="3">
-        <v>3802000</v>
+        <v>4866600</v>
       </c>
       <c r="I81" s="3">
-        <v>2450400</v>
+        <v>3870900</v>
       </c>
       <c r="J81" s="3">
+        <v>2494700</v>
+      </c>
+      <c r="K81" s="3">
         <v>639500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1580000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1115700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1844800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-825600</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3308900</v>
+        <v>2857300</v>
       </c>
       <c r="E83" s="3">
-        <v>3200000</v>
+        <v>3368800</v>
       </c>
       <c r="F83" s="3">
-        <v>3115700</v>
+        <v>3257900</v>
       </c>
       <c r="G83" s="3">
-        <v>2817000</v>
+        <v>3172100</v>
       </c>
       <c r="H83" s="3">
-        <v>2776000</v>
+        <v>2868000</v>
       </c>
       <c r="I83" s="3">
-        <v>2787700</v>
+        <v>2826200</v>
       </c>
       <c r="J83" s="3">
+        <v>2838200</v>
+      </c>
+      <c r="K83" s="3">
         <v>2473800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2575700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2582900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2748500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2864000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7755200</v>
+        <v>26248300</v>
       </c>
       <c r="E89" s="3">
-        <v>31825400</v>
+        <v>7895600</v>
       </c>
       <c r="F89" s="3">
-        <v>13213400</v>
+        <v>32401700</v>
       </c>
       <c r="G89" s="3">
-        <v>-13009600</v>
+        <v>13452700</v>
       </c>
       <c r="H89" s="3">
-        <v>-3742300</v>
+        <v>-13245200</v>
       </c>
       <c r="I89" s="3">
-        <v>2429300</v>
+        <v>-3810100</v>
       </c>
       <c r="J89" s="3">
+        <v>2473300</v>
+      </c>
+      <c r="K89" s="3">
         <v>19176500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13780900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20678000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3941800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26194900</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3781000</v>
+        <v>-4597100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3397900</v>
+        <v>-3849400</v>
       </c>
       <c r="F91" s="3">
-        <v>-4031600</v>
+        <v>-3459500</v>
       </c>
       <c r="G91" s="3">
-        <v>-4115900</v>
+        <v>-4104600</v>
       </c>
       <c r="H91" s="3">
-        <v>-4281100</v>
+        <v>-4190500</v>
       </c>
       <c r="I91" s="3">
-        <v>-4404100</v>
+        <v>-4358600</v>
       </c>
       <c r="J91" s="3">
+        <v>-4483800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4002300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4581600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3970200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3882300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4075500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2981000</v>
+        <v>608200</v>
       </c>
       <c r="E94" s="3">
-        <v>-4685200</v>
+        <v>-3034900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2494900</v>
+        <v>-4770000</v>
       </c>
       <c r="G94" s="3">
-        <v>13963100</v>
+        <v>-2540000</v>
       </c>
       <c r="H94" s="3">
-        <v>7974200</v>
+        <v>14215900</v>
       </c>
       <c r="I94" s="3">
-        <v>-803500</v>
+        <v>8118600</v>
       </c>
       <c r="J94" s="3">
+        <v>-818100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3877000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10278800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20781800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>19692100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>9128000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,35 +3992,36 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1027200</v>
+        <v>-1759000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1045800</v>
       </c>
       <c r="F96" s="3">
-        <v>-2708000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-2623700</v>
+        <v>-2757100</v>
       </c>
       <c r="H96" s="3">
-        <v>-2675200</v>
+        <v>-2671200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2359000</v>
+        <v>-2723700</v>
       </c>
       <c r="J96" s="3">
+        <v>-2401700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1253300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -3798,9 +4031,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3788000</v>
+        <v>-7886100</v>
       </c>
       <c r="E100" s="3">
-        <v>-6230100</v>
+        <v>-3856600</v>
       </c>
       <c r="F100" s="3">
-        <v>-7682600</v>
+        <v>-6343000</v>
       </c>
       <c r="G100" s="3">
-        <v>-5037800</v>
+        <v>-7821700</v>
       </c>
       <c r="H100" s="3">
-        <v>-5878800</v>
+        <v>-5129000</v>
       </c>
       <c r="I100" s="3">
-        <v>-12853800</v>
+        <v>-5985200</v>
       </c>
       <c r="J100" s="3">
+        <v>-13086600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-7330000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5690500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4084700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4012900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4269000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>82000</v>
+        <v>867000</v>
       </c>
       <c r="E101" s="3">
-        <v>-229600</v>
+        <v>83500</v>
       </c>
       <c r="F101" s="3">
-        <v>-5900</v>
+        <v>-233700</v>
       </c>
       <c r="G101" s="3">
-        <v>3500</v>
+        <v>-6000</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="I101" s="3">
-        <v>24600</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K101" s="3">
         <v>2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-70600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7900</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1068200</v>
+        <v>19837400</v>
       </c>
       <c r="E102" s="3">
-        <v>20680500</v>
+        <v>1087600</v>
       </c>
       <c r="F102" s="3">
-        <v>3030200</v>
+        <v>21055000</v>
       </c>
       <c r="G102" s="3">
-        <v>-4080800</v>
+        <v>3085000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1646800</v>
+        <v>-4154700</v>
       </c>
       <c r="I102" s="3">
-        <v>-11203500</v>
+        <v>-1676700</v>
       </c>
       <c r="J102" s="3">
+        <v>-11406400</v>
+      </c>
+      <c r="K102" s="3">
         <v>7971900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2196300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-45615100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19610600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31061800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -665,8 +665,10 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -728,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21041800</v>
+        <v>21893900</v>
       </c>
       <c r="E8" s="3">
-        <v>15810300</v>
+        <v>16450500</v>
       </c>
       <c r="F8" s="3">
-        <v>17060000</v>
+        <v>17750900</v>
       </c>
       <c r="G8" s="3">
-        <v>20106900</v>
+        <v>20921100</v>
       </c>
       <c r="H8" s="3">
-        <v>19496300</v>
+        <v>20285800</v>
       </c>
       <c r="I8" s="3">
-        <v>19087300</v>
+        <v>19860200</v>
       </c>
       <c r="J8" s="3">
-        <v>19819500</v>
+        <v>20622100</v>
       </c>
       <c r="K8" s="3">
         <v>20632400</v>
@@ -998,25 +1000,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-2857300</v>
+        <v>-2973000</v>
       </c>
       <c r="E15" s="3">
-        <v>-3368800</v>
+        <v>-3505300</v>
       </c>
       <c r="F15" s="3">
-        <v>-3257900</v>
+        <v>-3389900</v>
       </c>
       <c r="G15" s="3">
-        <v>-3172100</v>
+        <v>-3300500</v>
       </c>
       <c r="H15" s="3">
-        <v>-2868000</v>
+        <v>-2984100</v>
       </c>
       <c r="I15" s="3">
-        <v>-2826200</v>
+        <v>-2940700</v>
       </c>
       <c r="J15" s="3">
-        <v>-2838200</v>
+        <v>-2953100</v>
       </c>
       <c r="K15" s="3">
         <v>-2473800</v>
@@ -1055,25 +1057,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6213000</v>
+        <v>6464600</v>
       </c>
       <c r="E17" s="3">
-        <v>2998000</v>
+        <v>3119400</v>
       </c>
       <c r="F17" s="3">
-        <v>9196600</v>
+        <v>9569000</v>
       </c>
       <c r="G17" s="3">
-        <v>9512700</v>
+        <v>9897900</v>
       </c>
       <c r="H17" s="3">
-        <v>4638900</v>
+        <v>4826700</v>
       </c>
       <c r="I17" s="3">
-        <v>6895100</v>
+        <v>7174300</v>
       </c>
       <c r="J17" s="3">
-        <v>9466100</v>
+        <v>9849500</v>
       </c>
       <c r="K17" s="3">
         <v>7892200</v>
@@ -1097,25 +1099,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14828900</v>
+        <v>15429300</v>
       </c>
       <c r="E18" s="3">
-        <v>12812300</v>
+        <v>13331200</v>
       </c>
       <c r="F18" s="3">
-        <v>7863400</v>
+        <v>8181800</v>
       </c>
       <c r="G18" s="3">
-        <v>10594300</v>
+        <v>11023300</v>
       </c>
       <c r="H18" s="3">
-        <v>14857500</v>
+        <v>15459100</v>
       </c>
       <c r="I18" s="3">
-        <v>12192200</v>
+        <v>12685900</v>
       </c>
       <c r="J18" s="3">
-        <v>10353400</v>
+        <v>10772600</v>
       </c>
       <c r="K18" s="3">
         <v>12740200</v>
@@ -1157,25 +1159,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6567200</v>
+        <v>-6833100</v>
       </c>
       <c r="E20" s="3">
-        <v>-4581600</v>
+        <v>-4767200</v>
       </c>
       <c r="F20" s="3">
-        <v>-6401400</v>
+        <v>-6660600</v>
       </c>
       <c r="G20" s="3">
-        <v>-5355600</v>
+        <v>-5572400</v>
       </c>
       <c r="H20" s="3">
-        <v>-7750100</v>
+        <v>-8064000</v>
       </c>
       <c r="I20" s="3">
-        <v>-5901700</v>
+        <v>-6140700</v>
       </c>
       <c r="J20" s="3">
-        <v>-5299500</v>
+        <v>-5514100</v>
       </c>
       <c r="K20" s="3">
         <v>-10814600</v>
@@ -1199,25 +1201,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11099100</v>
+        <v>11587900</v>
       </c>
       <c r="E21" s="3">
-        <v>11576100</v>
+        <v>12091300</v>
       </c>
       <c r="F21" s="3">
-        <v>4697300</v>
+        <v>4932400</v>
       </c>
       <c r="G21" s="3">
-        <v>8388700</v>
+        <v>8772100</v>
       </c>
       <c r="H21" s="3">
-        <v>9955400</v>
+        <v>10398100</v>
       </c>
       <c r="I21" s="3">
-        <v>9097000</v>
+        <v>9504400</v>
       </c>
       <c r="J21" s="3">
-        <v>7872300</v>
+        <v>8230200</v>
       </c>
       <c r="K21" s="3">
         <v>4324000</v>
@@ -1283,25 +1285,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8261700</v>
+        <v>8596300</v>
       </c>
       <c r="E23" s="3">
-        <v>8230700</v>
+        <v>8564000</v>
       </c>
       <c r="F23" s="3">
-        <v>1462000</v>
+        <v>1521200</v>
       </c>
       <c r="G23" s="3">
-        <v>5238700</v>
+        <v>5450800</v>
       </c>
       <c r="H23" s="3">
-        <v>7107400</v>
+        <v>7395200</v>
       </c>
       <c r="I23" s="3">
-        <v>6290500</v>
+        <v>6545200</v>
       </c>
       <c r="J23" s="3">
-        <v>5053900</v>
+        <v>5258500</v>
       </c>
       <c r="K23" s="3">
         <v>1925600</v>
@@ -1325,25 +1327,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1637300</v>
+        <v>1703600</v>
       </c>
       <c r="E24" s="3">
-        <v>1212800</v>
+        <v>1261900</v>
       </c>
       <c r="F24" s="3">
-        <v>-192000</v>
+        <v>-199800</v>
       </c>
       <c r="G24" s="3">
-        <v>1654000</v>
+        <v>1721000</v>
       </c>
       <c r="H24" s="3">
-        <v>1733900</v>
+        <v>1804100</v>
       </c>
       <c r="I24" s="3">
-        <v>1939000</v>
+        <v>2017500</v>
       </c>
       <c r="J24" s="3">
-        <v>2055900</v>
+        <v>2139100</v>
       </c>
       <c r="K24" s="3">
         <v>805900</v>
@@ -1409,25 +1411,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6624400</v>
+        <v>6892600</v>
       </c>
       <c r="E26" s="3">
-        <v>7017900</v>
+        <v>7302100</v>
       </c>
       <c r="F26" s="3">
-        <v>1654000</v>
+        <v>1721000</v>
       </c>
       <c r="G26" s="3">
-        <v>3584700</v>
+        <v>3729800</v>
       </c>
       <c r="H26" s="3">
-        <v>5373500</v>
+        <v>5591000</v>
       </c>
       <c r="I26" s="3">
-        <v>4351500</v>
+        <v>4527700</v>
       </c>
       <c r="J26" s="3">
-        <v>2998000</v>
+        <v>3119400</v>
       </c>
       <c r="K26" s="3">
         <v>1119800</v>
@@ -1451,25 +1453,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5987600</v>
+        <v>6230100</v>
       </c>
       <c r="E27" s="3">
-        <v>6385900</v>
+        <v>6644500</v>
       </c>
       <c r="F27" s="3">
-        <v>1031500</v>
+        <v>1073300</v>
       </c>
       <c r="G27" s="3">
-        <v>2932400</v>
+        <v>3051100</v>
       </c>
       <c r="H27" s="3">
-        <v>4866600</v>
+        <v>5063700</v>
       </c>
       <c r="I27" s="3">
-        <v>3870900</v>
+        <v>4027600</v>
       </c>
       <c r="J27" s="3">
-        <v>2494700</v>
+        <v>2595800</v>
       </c>
       <c r="K27" s="3">
         <v>639500</v>
@@ -1661,25 +1663,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6567200</v>
+        <v>6833100</v>
       </c>
       <c r="E32" s="3">
-        <v>4581600</v>
+        <v>4767200</v>
       </c>
       <c r="F32" s="3">
-        <v>6401400</v>
+        <v>6660600</v>
       </c>
       <c r="G32" s="3">
-        <v>5355600</v>
+        <v>5572400</v>
       </c>
       <c r="H32" s="3">
-        <v>7750100</v>
+        <v>8064000</v>
       </c>
       <c r="I32" s="3">
-        <v>5901700</v>
+        <v>6140700</v>
       </c>
       <c r="J32" s="3">
-        <v>5299500</v>
+        <v>5514100</v>
       </c>
       <c r="K32" s="3">
         <v>10814600</v>
@@ -1703,25 +1705,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5987600</v>
+        <v>6230100</v>
       </c>
       <c r="E33" s="3">
-        <v>6385900</v>
+        <v>6644500</v>
       </c>
       <c r="F33" s="3">
-        <v>1031500</v>
+        <v>1073300</v>
       </c>
       <c r="G33" s="3">
-        <v>2932400</v>
+        <v>3051100</v>
       </c>
       <c r="H33" s="3">
-        <v>4866600</v>
+        <v>5063700</v>
       </c>
       <c r="I33" s="3">
-        <v>3870900</v>
+        <v>4027600</v>
       </c>
       <c r="J33" s="3">
-        <v>2494700</v>
+        <v>2595800</v>
       </c>
       <c r="K33" s="3">
         <v>639500</v>
@@ -1787,25 +1789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5987600</v>
+        <v>6230100</v>
       </c>
       <c r="E35" s="3">
-        <v>6385900</v>
+        <v>6644500</v>
       </c>
       <c r="F35" s="3">
-        <v>1031500</v>
+        <v>1073300</v>
       </c>
       <c r="G35" s="3">
-        <v>2932400</v>
+        <v>3051100</v>
       </c>
       <c r="H35" s="3">
-        <v>4866600</v>
+        <v>5063700</v>
       </c>
       <c r="I35" s="3">
-        <v>3870900</v>
+        <v>4027600</v>
       </c>
       <c r="J35" s="3">
-        <v>2494700</v>
+        <v>2595800</v>
       </c>
       <c r="K35" s="3">
         <v>639500</v>
@@ -1912,25 +1914,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>121949000</v>
+        <v>126887000</v>
       </c>
       <c r="E41" s="3">
-        <v>99655700</v>
+        <v>103691000</v>
       </c>
       <c r="F41" s="3">
-        <v>97327900</v>
+        <v>101269000</v>
       </c>
       <c r="G41" s="3">
-        <v>75918800</v>
+        <v>78993100</v>
       </c>
       <c r="H41" s="3">
-        <v>72900500</v>
+        <v>75852600</v>
       </c>
       <c r="I41" s="3">
-        <v>77651500</v>
+        <v>80795900</v>
       </c>
       <c r="J41" s="3">
-        <v>88434200</v>
+        <v>92015200</v>
       </c>
       <c r="K41" s="3">
         <v>97531800</v>
@@ -1954,25 +1956,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>264261000</v>
+        <v>274963000</v>
       </c>
       <c r="E42" s="3">
-        <v>301081000</v>
+        <v>313274000</v>
       </c>
       <c r="F42" s="3">
-        <v>205721000</v>
+        <v>214052000</v>
       </c>
       <c r="G42" s="3">
-        <v>187923000</v>
+        <v>195533000</v>
       </c>
       <c r="H42" s="3">
-        <v>182912000</v>
+        <v>190319000</v>
       </c>
       <c r="I42" s="3">
-        <v>187940000</v>
+        <v>195550000</v>
       </c>
       <c r="J42" s="3">
-        <v>182480000</v>
+        <v>189870000</v>
       </c>
       <c r="K42" s="3">
         <v>147968000</v>
@@ -2164,25 +2166,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>459100</v>
+        <v>477700</v>
       </c>
       <c r="E47" s="3">
-        <v>419800</v>
+        <v>436800</v>
       </c>
       <c r="F47" s="3">
-        <v>353000</v>
+        <v>367300</v>
       </c>
       <c r="G47" s="3">
-        <v>362500</v>
+        <v>377200</v>
       </c>
       <c r="H47" s="3">
-        <v>108500</v>
+        <v>112900</v>
       </c>
       <c r="I47" s="3">
-        <v>77500</v>
+        <v>80700</v>
       </c>
       <c r="J47" s="3">
-        <v>70400</v>
+        <v>73200</v>
       </c>
       <c r="K47" s="3">
         <v>55100</v>
@@ -2206,25 +2208,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12712200</v>
+        <v>13226900</v>
       </c>
       <c r="E48" s="3">
-        <v>13805700</v>
+        <v>14364700</v>
       </c>
       <c r="F48" s="3">
-        <v>14016800</v>
+        <v>14584400</v>
       </c>
       <c r="G48" s="3">
-        <v>15626700</v>
+        <v>16259400</v>
       </c>
       <c r="H48" s="3">
-        <v>14667900</v>
+        <v>15261800</v>
       </c>
       <c r="I48" s="3">
-        <v>15177100</v>
+        <v>15791700</v>
       </c>
       <c r="J48" s="3">
-        <v>15469200</v>
+        <v>16095700</v>
       </c>
       <c r="K48" s="3">
         <v>15202300</v>
@@ -2248,25 +2250,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15335700</v>
+        <v>15956700</v>
       </c>
       <c r="E49" s="3">
-        <v>14345900</v>
+        <v>14926800</v>
       </c>
       <c r="F49" s="3">
-        <v>14401900</v>
+        <v>14985100</v>
       </c>
       <c r="G49" s="3">
-        <v>13940400</v>
+        <v>14505000</v>
       </c>
       <c r="H49" s="3">
-        <v>12424800</v>
+        <v>12927900</v>
       </c>
       <c r="I49" s="3">
-        <v>11906000</v>
+        <v>12388100</v>
       </c>
       <c r="J49" s="3">
-        <v>10421300</v>
+        <v>10843400</v>
       </c>
       <c r="K49" s="3">
         <v>9897500</v>
@@ -2374,25 +2376,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10793400</v>
+        <v>11230500</v>
       </c>
       <c r="E52" s="3">
-        <v>9121500</v>
+        <v>9490900</v>
       </c>
       <c r="F52" s="3">
-        <v>5312600</v>
+        <v>5527800</v>
       </c>
       <c r="G52" s="3">
-        <v>3991300</v>
+        <v>4153000</v>
       </c>
       <c r="H52" s="3">
-        <v>12916100</v>
+        <v>13439100</v>
       </c>
       <c r="I52" s="3">
-        <v>12870800</v>
+        <v>13392000</v>
       </c>
       <c r="J52" s="3">
-        <v>11559000</v>
+        <v>12027100</v>
       </c>
       <c r="K52" s="3">
         <v>14800500</v>
@@ -2458,25 +2460,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1046820000</v>
+        <v>1089210000</v>
       </c>
       <c r="E54" s="3">
-        <v>1057190000</v>
+        <v>1100000000</v>
       </c>
       <c r="F54" s="3">
-        <v>1039000000</v>
+        <v>1081070000</v>
       </c>
       <c r="G54" s="3">
-        <v>994426000</v>
+        <v>1034690000</v>
       </c>
       <c r="H54" s="3">
-        <v>951144000</v>
+        <v>989660000</v>
       </c>
       <c r="I54" s="3">
-        <v>968448000</v>
+        <v>1007660000</v>
       </c>
       <c r="J54" s="3">
-        <v>975226000</v>
+        <v>1014720000</v>
       </c>
       <c r="K54" s="3">
         <v>944874000</v>
@@ -2536,13 +2538,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7139600</v>
+        <v>7428700</v>
       </c>
       <c r="E57" s="3">
-        <v>6610100</v>
+        <v>6877800</v>
       </c>
       <c r="F57" s="3">
-        <v>6388300</v>
+        <v>6647000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
@@ -2620,25 +2622,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="E59" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="F59" s="3">
-        <v>37000</v>
+        <v>38500</v>
       </c>
       <c r="G59" s="3">
-        <v>223000</v>
+        <v>232000</v>
       </c>
       <c r="H59" s="3">
-        <v>449600</v>
+        <v>467800</v>
       </c>
       <c r="I59" s="3">
-        <v>326700</v>
+        <v>340000</v>
       </c>
       <c r="J59" s="3">
-        <v>269500</v>
+        <v>280400</v>
       </c>
       <c r="K59" s="3">
         <v>326800</v>
@@ -2704,25 +2706,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>102396000</v>
+        <v>106543000</v>
       </c>
       <c r="E61" s="3">
-        <v>102717000</v>
+        <v>106876000</v>
       </c>
       <c r="F61" s="3">
-        <v>123222000</v>
+        <v>128212000</v>
       </c>
       <c r="G61" s="3">
-        <v>136923000</v>
+        <v>142467000</v>
       </c>
       <c r="H61" s="3">
-        <v>129774000</v>
+        <v>135029000</v>
       </c>
       <c r="I61" s="3">
-        <v>107770000</v>
+        <v>112134000</v>
       </c>
       <c r="J61" s="3">
-        <v>114654000</v>
+        <v>119297000</v>
       </c>
       <c r="K61" s="3">
         <v>123418000</v>
@@ -2746,25 +2748,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2565100</v>
+        <v>2669000</v>
       </c>
       <c r="E62" s="3">
-        <v>2815500</v>
+        <v>2929500</v>
       </c>
       <c r="F62" s="3">
-        <v>2629500</v>
+        <v>2736000</v>
       </c>
       <c r="G62" s="3">
-        <v>4321700</v>
+        <v>4496700</v>
       </c>
       <c r="H62" s="3">
-        <v>4522000</v>
+        <v>4705100</v>
       </c>
       <c r="I62" s="3">
-        <v>7040600</v>
+        <v>7325700</v>
       </c>
       <c r="J62" s="3">
-        <v>6785400</v>
+        <v>7060200</v>
       </c>
       <c r="K62" s="3">
         <v>7127400</v>
@@ -2914,25 +2916,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>990442000</v>
+        <v>1030550000</v>
       </c>
       <c r="E66" s="3">
-        <v>994086000</v>
+        <v>1034340000</v>
       </c>
       <c r="F66" s="3">
-        <v>980345000</v>
+        <v>1020040000</v>
       </c>
       <c r="G66" s="3">
-        <v>937659000</v>
+        <v>975629000</v>
       </c>
       <c r="H66" s="3">
-        <v>891608000</v>
+        <v>927713000</v>
       </c>
       <c r="I66" s="3">
-        <v>910127000</v>
+        <v>946982000</v>
       </c>
       <c r="J66" s="3">
-        <v>917539000</v>
+        <v>954694000</v>
       </c>
       <c r="K66" s="3">
         <v>890304000</v>
@@ -3142,25 +3144,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26504700</v>
+        <v>27578000</v>
       </c>
       <c r="E72" s="3">
-        <v>26079000</v>
+        <v>27135100</v>
       </c>
       <c r="F72" s="3">
-        <v>20044900</v>
+        <v>20856600</v>
       </c>
       <c r="G72" s="3">
-        <v>18449300</v>
+        <v>19196400</v>
       </c>
       <c r="H72" s="3">
-        <v>20783100</v>
+        <v>21624700</v>
       </c>
       <c r="I72" s="3">
-        <v>20017500</v>
+        <v>20828100</v>
       </c>
       <c r="J72" s="3">
-        <v>18461200</v>
+        <v>19208800</v>
       </c>
       <c r="K72" s="3">
         <v>19334600</v>
@@ -3310,25 +3312,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56378300</v>
+        <v>58661300</v>
       </c>
       <c r="E76" s="3">
-        <v>63104100</v>
+        <v>65659400</v>
       </c>
       <c r="F76" s="3">
-        <v>58652400</v>
+        <v>61027500</v>
       </c>
       <c r="G76" s="3">
-        <v>56767100</v>
+        <v>59065800</v>
       </c>
       <c r="H76" s="3">
-        <v>59536100</v>
+        <v>61946900</v>
       </c>
       <c r="I76" s="3">
-        <v>58320900</v>
+        <v>60682600</v>
       </c>
       <c r="J76" s="3">
-        <v>57687700</v>
+        <v>60023700</v>
       </c>
       <c r="K76" s="3">
         <v>54569700</v>
@@ -3441,25 +3443,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5987600</v>
+        <v>6230100</v>
       </c>
       <c r="E81" s="3">
-        <v>6385900</v>
+        <v>6644500</v>
       </c>
       <c r="F81" s="3">
-        <v>1031500</v>
+        <v>1073300</v>
       </c>
       <c r="G81" s="3">
-        <v>2932400</v>
+        <v>3051100</v>
       </c>
       <c r="H81" s="3">
-        <v>4866600</v>
+        <v>5063700</v>
       </c>
       <c r="I81" s="3">
-        <v>3870900</v>
+        <v>4027600</v>
       </c>
       <c r="J81" s="3">
-        <v>2494700</v>
+        <v>2595800</v>
       </c>
       <c r="K81" s="3">
         <v>639500</v>
@@ -3501,25 +3503,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2857300</v>
+        <v>2973000</v>
       </c>
       <c r="E83" s="3">
-        <v>3368800</v>
+        <v>3505300</v>
       </c>
       <c r="F83" s="3">
-        <v>3257900</v>
+        <v>3389900</v>
       </c>
       <c r="G83" s="3">
-        <v>3172100</v>
+        <v>3300500</v>
       </c>
       <c r="H83" s="3">
-        <v>2868000</v>
+        <v>2984100</v>
       </c>
       <c r="I83" s="3">
-        <v>2826200</v>
+        <v>2940700</v>
       </c>
       <c r="J83" s="3">
-        <v>2838200</v>
+        <v>2953100</v>
       </c>
       <c r="K83" s="3">
         <v>2473800</v>
@@ -3753,25 +3755,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26248300</v>
+        <v>27311200</v>
       </c>
       <c r="E89" s="3">
-        <v>7895600</v>
+        <v>8215300</v>
       </c>
       <c r="F89" s="3">
-        <v>32401700</v>
+        <v>33713800</v>
       </c>
       <c r="G89" s="3">
-        <v>13452700</v>
+        <v>13997500</v>
       </c>
       <c r="H89" s="3">
-        <v>-13245200</v>
+        <v>-13781600</v>
       </c>
       <c r="I89" s="3">
-        <v>-3810100</v>
+        <v>-3964400</v>
       </c>
       <c r="J89" s="3">
-        <v>2473300</v>
+        <v>2573400</v>
       </c>
       <c r="K89" s="3">
         <v>19176500</v>
@@ -3813,25 +3815,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4597100</v>
+        <v>-4783300</v>
       </c>
       <c r="E91" s="3">
-        <v>-3849400</v>
+        <v>-4005300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3459500</v>
+        <v>-3599600</v>
       </c>
       <c r="G91" s="3">
-        <v>-4104600</v>
+        <v>-4270800</v>
       </c>
       <c r="H91" s="3">
-        <v>-4190500</v>
+        <v>-4360200</v>
       </c>
       <c r="I91" s="3">
-        <v>-4358600</v>
+        <v>-4535100</v>
       </c>
       <c r="J91" s="3">
-        <v>-4483800</v>
+        <v>-4665400</v>
       </c>
       <c r="K91" s="3">
         <v>-4002300</v>
@@ -3939,25 +3941,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>608200</v>
+        <v>632800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3034900</v>
+        <v>-3157800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4770000</v>
+        <v>-4963200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2540000</v>
+        <v>-2642900</v>
       </c>
       <c r="H94" s="3">
-        <v>14215900</v>
+        <v>14791600</v>
       </c>
       <c r="I94" s="3">
-        <v>8118600</v>
+        <v>8447400</v>
       </c>
       <c r="J94" s="3">
-        <v>-818100</v>
+        <v>-851200</v>
       </c>
       <c r="K94" s="3">
         <v>-3877000</v>
@@ -3999,25 +4001,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1759000</v>
+        <v>-1830200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1045800</v>
+        <v>-1088200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-2757100</v>
+        <v>-2868700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2671200</v>
+        <v>-2779400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2723700</v>
+        <v>-2834000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2401700</v>
+        <v>-2499000</v>
       </c>
       <c r="K96" s="3">
         <v>-1253300</v>
@@ -4167,25 +4169,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7886100</v>
+        <v>-8205400</v>
       </c>
       <c r="E100" s="3">
-        <v>-3856600</v>
+        <v>-4012700</v>
       </c>
       <c r="F100" s="3">
-        <v>-6343000</v>
+        <v>-6599800</v>
       </c>
       <c r="G100" s="3">
-        <v>-7821700</v>
+        <v>-8138400</v>
       </c>
       <c r="H100" s="3">
-        <v>-5129000</v>
+        <v>-5336700</v>
       </c>
       <c r="I100" s="3">
-        <v>-5985200</v>
+        <v>-6227600</v>
       </c>
       <c r="J100" s="3">
-        <v>-13086600</v>
+        <v>-13616500</v>
       </c>
       <c r="K100" s="3">
         <v>-7330000</v>
@@ -4209,25 +4211,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>867000</v>
+        <v>902100</v>
       </c>
       <c r="E101" s="3">
-        <v>83500</v>
+        <v>86900</v>
       </c>
       <c r="F101" s="3">
-        <v>-233700</v>
+        <v>-243200</v>
       </c>
       <c r="G101" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="H101" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>25000</v>
+        <v>26100</v>
       </c>
       <c r="K101" s="3">
         <v>2300</v>
@@ -4251,25 +4253,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19837400</v>
+        <v>20640700</v>
       </c>
       <c r="E102" s="3">
-        <v>1087600</v>
+        <v>1131600</v>
       </c>
       <c r="F102" s="3">
-        <v>21055000</v>
+        <v>21907600</v>
       </c>
       <c r="G102" s="3">
-        <v>3085000</v>
+        <v>3209900</v>
       </c>
       <c r="H102" s="3">
-        <v>-4154700</v>
+        <v>-4322900</v>
       </c>
       <c r="I102" s="3">
-        <v>-1676700</v>
+        <v>-1744600</v>
       </c>
       <c r="J102" s="3">
-        <v>-11406400</v>
+        <v>-11868300</v>
       </c>
       <c r="K102" s="3">
         <v>7971900</v>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -665,9 +665,7 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
@@ -730,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21893900</v>
+        <v>12946700</v>
       </c>
       <c r="E8" s="3">
-        <v>16450500</v>
+        <v>16801900</v>
       </c>
       <c r="F8" s="3">
-        <v>17750900</v>
+        <v>18130000</v>
       </c>
       <c r="G8" s="3">
-        <v>20921100</v>
+        <v>21367900</v>
       </c>
       <c r="H8" s="3">
-        <v>20285800</v>
+        <v>20719100</v>
       </c>
       <c r="I8" s="3">
-        <v>19860200</v>
+        <v>20284400</v>
       </c>
       <c r="J8" s="3">
-        <v>20622100</v>
+        <v>21062500</v>
       </c>
       <c r="K8" s="3">
         <v>20632400</v>
@@ -1000,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-2973000</v>
+        <v>-4539500</v>
       </c>
       <c r="E15" s="3">
-        <v>-3505300</v>
+        <v>-3580100</v>
       </c>
       <c r="F15" s="3">
-        <v>-3389900</v>
+        <v>-3462300</v>
       </c>
       <c r="G15" s="3">
-        <v>-3300500</v>
+        <v>-3371000</v>
       </c>
       <c r="H15" s="3">
-        <v>-2984100</v>
+        <v>-3047900</v>
       </c>
       <c r="I15" s="3">
-        <v>-2940700</v>
+        <v>-3003500</v>
       </c>
       <c r="J15" s="3">
-        <v>-2953100</v>
+        <v>-3016200</v>
       </c>
       <c r="K15" s="3">
         <v>-2473800</v>
@@ -1057,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6464600</v>
+        <v>5667400</v>
       </c>
       <c r="E17" s="3">
-        <v>3119400</v>
+        <v>3186000</v>
       </c>
       <c r="F17" s="3">
-        <v>9569000</v>
+        <v>9773400</v>
       </c>
       <c r="G17" s="3">
-        <v>9897900</v>
+        <v>10109300</v>
       </c>
       <c r="H17" s="3">
-        <v>4826700</v>
+        <v>4929800</v>
       </c>
       <c r="I17" s="3">
-        <v>7174300</v>
+        <v>7327500</v>
       </c>
       <c r="J17" s="3">
-        <v>9849500</v>
+        <v>10059800</v>
       </c>
       <c r="K17" s="3">
         <v>7892200</v>
@@ -1099,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15429300</v>
+        <v>7279400</v>
       </c>
       <c r="E18" s="3">
-        <v>13331200</v>
+        <v>13615900</v>
       </c>
       <c r="F18" s="3">
-        <v>8181800</v>
+        <v>8356600</v>
       </c>
       <c r="G18" s="3">
-        <v>11023300</v>
+        <v>11258700</v>
       </c>
       <c r="H18" s="3">
-        <v>15459100</v>
+        <v>15789300</v>
       </c>
       <c r="I18" s="3">
-        <v>12685900</v>
+        <v>12956900</v>
       </c>
       <c r="J18" s="3">
-        <v>10772600</v>
+        <v>11002700</v>
       </c>
       <c r="K18" s="3">
         <v>12740200</v>
@@ -1159,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6833100</v>
+        <v>-5209900</v>
       </c>
       <c r="E20" s="3">
-        <v>-4767200</v>
+        <v>-4869000</v>
       </c>
       <c r="F20" s="3">
-        <v>-6660600</v>
+        <v>-6802900</v>
       </c>
       <c r="G20" s="3">
-        <v>-5572400</v>
+        <v>-5691400</v>
       </c>
       <c r="H20" s="3">
-        <v>-8064000</v>
+        <v>-8236200</v>
       </c>
       <c r="I20" s="3">
-        <v>-6140700</v>
+        <v>-6271900</v>
       </c>
       <c r="J20" s="3">
-        <v>-5514100</v>
+        <v>-5631900</v>
       </c>
       <c r="K20" s="3">
         <v>-10814600</v>
@@ -1201,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11587900</v>
+        <v>5106000</v>
       </c>
       <c r="E21" s="3">
-        <v>12091300</v>
+        <v>12327000</v>
       </c>
       <c r="F21" s="3">
-        <v>4932400</v>
+        <v>5016000</v>
       </c>
       <c r="G21" s="3">
-        <v>8772100</v>
+        <v>8938300</v>
       </c>
       <c r="H21" s="3">
-        <v>10398100</v>
+        <v>10601000</v>
       </c>
       <c r="I21" s="3">
-        <v>9504400</v>
+        <v>9688500</v>
       </c>
       <c r="J21" s="3">
-        <v>8230200</v>
+        <v>8387000</v>
       </c>
       <c r="K21" s="3">
         <v>4324000</v>
@@ -1285,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8596300</v>
+        <v>2069500</v>
       </c>
       <c r="E23" s="3">
-        <v>8564000</v>
+        <v>8746900</v>
       </c>
       <c r="F23" s="3">
-        <v>1521200</v>
+        <v>1553700</v>
       </c>
       <c r="G23" s="3">
-        <v>5450800</v>
+        <v>5567200</v>
       </c>
       <c r="H23" s="3">
-        <v>7395200</v>
+        <v>7553100</v>
       </c>
       <c r="I23" s="3">
-        <v>6545200</v>
+        <v>6685000</v>
       </c>
       <c r="J23" s="3">
-        <v>5258500</v>
+        <v>5370800</v>
       </c>
       <c r="K23" s="3">
         <v>1925600</v>
@@ -1327,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1703600</v>
+        <v>199000</v>
       </c>
       <c r="E24" s="3">
-        <v>1261900</v>
+        <v>1288800</v>
       </c>
       <c r="F24" s="3">
-        <v>-199800</v>
+        <v>-204000</v>
       </c>
       <c r="G24" s="3">
-        <v>1721000</v>
+        <v>1757700</v>
       </c>
       <c r="H24" s="3">
-        <v>1804100</v>
+        <v>1842700</v>
       </c>
       <c r="I24" s="3">
-        <v>2017500</v>
+        <v>2060600</v>
       </c>
       <c r="J24" s="3">
-        <v>2139100</v>
+        <v>2184800</v>
       </c>
       <c r="K24" s="3">
         <v>805900</v>
@@ -1411,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6892600</v>
+        <v>1870500</v>
       </c>
       <c r="E26" s="3">
-        <v>7302100</v>
+        <v>7458100</v>
       </c>
       <c r="F26" s="3">
-        <v>1721000</v>
+        <v>1757700</v>
       </c>
       <c r="G26" s="3">
-        <v>3729800</v>
+        <v>3809500</v>
       </c>
       <c r="H26" s="3">
-        <v>5591000</v>
+        <v>5710500</v>
       </c>
       <c r="I26" s="3">
-        <v>4527700</v>
+        <v>4624400</v>
       </c>
       <c r="J26" s="3">
-        <v>3119400</v>
+        <v>3186000</v>
       </c>
       <c r="K26" s="3">
         <v>1119800</v>
@@ -1453,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6230100</v>
+        <v>1519500</v>
       </c>
       <c r="E27" s="3">
-        <v>6644500</v>
+        <v>6786400</v>
       </c>
       <c r="F27" s="3">
-        <v>1073300</v>
+        <v>1096200</v>
       </c>
       <c r="G27" s="3">
-        <v>3051100</v>
+        <v>3116300</v>
       </c>
       <c r="H27" s="3">
-        <v>5063700</v>
+        <v>5171900</v>
       </c>
       <c r="I27" s="3">
-        <v>4027600</v>
+        <v>4113700</v>
       </c>
       <c r="J27" s="3">
-        <v>2595800</v>
+        <v>2651200</v>
       </c>
       <c r="K27" s="3">
         <v>639500</v>
@@ -1663,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6833100</v>
+        <v>5209900</v>
       </c>
       <c r="E32" s="3">
-        <v>4767200</v>
+        <v>4869000</v>
       </c>
       <c r="F32" s="3">
-        <v>6660600</v>
+        <v>6802900</v>
       </c>
       <c r="G32" s="3">
-        <v>5572400</v>
+        <v>5691400</v>
       </c>
       <c r="H32" s="3">
-        <v>8064000</v>
+        <v>8236200</v>
       </c>
       <c r="I32" s="3">
-        <v>6140700</v>
+        <v>6271900</v>
       </c>
       <c r="J32" s="3">
-        <v>5514100</v>
+        <v>5631900</v>
       </c>
       <c r="K32" s="3">
         <v>10814600</v>
@@ -1705,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6230100</v>
+        <v>1519500</v>
       </c>
       <c r="E33" s="3">
-        <v>6644500</v>
+        <v>6786400</v>
       </c>
       <c r="F33" s="3">
-        <v>1073300</v>
+        <v>1096200</v>
       </c>
       <c r="G33" s="3">
-        <v>3051100</v>
+        <v>3116300</v>
       </c>
       <c r="H33" s="3">
-        <v>5063700</v>
+        <v>5171900</v>
       </c>
       <c r="I33" s="3">
-        <v>4027600</v>
+        <v>4113700</v>
       </c>
       <c r="J33" s="3">
-        <v>2595800</v>
+        <v>2651200</v>
       </c>
       <c r="K33" s="3">
         <v>639500</v>
@@ -1789,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6230100</v>
+        <v>1519500</v>
       </c>
       <c r="E35" s="3">
-        <v>6644500</v>
+        <v>6786400</v>
       </c>
       <c r="F35" s="3">
-        <v>1073300</v>
+        <v>1096200</v>
       </c>
       <c r="G35" s="3">
-        <v>3051100</v>
+        <v>3116300</v>
       </c>
       <c r="H35" s="3">
-        <v>5063700</v>
+        <v>5171900</v>
       </c>
       <c r="I35" s="3">
-        <v>4027600</v>
+        <v>4113700</v>
       </c>
       <c r="J35" s="3">
-        <v>2595800</v>
+        <v>2651200</v>
       </c>
       <c r="K35" s="3">
         <v>639500</v>
@@ -1914,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>126887000</v>
+        <v>129597000</v>
       </c>
       <c r="E41" s="3">
-        <v>103691000</v>
+        <v>105906000</v>
       </c>
       <c r="F41" s="3">
-        <v>101269000</v>
+        <v>103432000</v>
       </c>
       <c r="G41" s="3">
-        <v>78993100</v>
+        <v>80680100</v>
       </c>
       <c r="H41" s="3">
-        <v>75852600</v>
+        <v>77472600</v>
       </c>
       <c r="I41" s="3">
-        <v>80795900</v>
+        <v>82521500</v>
       </c>
       <c r="J41" s="3">
-        <v>92015200</v>
+        <v>93980400</v>
       </c>
       <c r="K41" s="3">
         <v>97531800</v>
@@ -1956,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>274963000</v>
+        <v>280835000</v>
       </c>
       <c r="E42" s="3">
-        <v>313274000</v>
+        <v>319964000</v>
       </c>
       <c r="F42" s="3">
-        <v>214052000</v>
+        <v>218623000</v>
       </c>
       <c r="G42" s="3">
-        <v>195533000</v>
+        <v>199709000</v>
       </c>
       <c r="H42" s="3">
-        <v>190319000</v>
+        <v>194384000</v>
       </c>
       <c r="I42" s="3">
-        <v>195550000</v>
+        <v>199727000</v>
       </c>
       <c r="J42" s="3">
-        <v>189870000</v>
+        <v>193925000</v>
       </c>
       <c r="K42" s="3">
         <v>147968000</v>
@@ -2166,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>477700</v>
+        <v>487900</v>
       </c>
       <c r="E47" s="3">
-        <v>436800</v>
+        <v>446100</v>
       </c>
       <c r="F47" s="3">
-        <v>367300</v>
+        <v>375100</v>
       </c>
       <c r="G47" s="3">
-        <v>377200</v>
+        <v>385300</v>
       </c>
       <c r="H47" s="3">
-        <v>112900</v>
+        <v>115300</v>
       </c>
       <c r="I47" s="3">
-        <v>80700</v>
+        <v>82400</v>
       </c>
       <c r="J47" s="3">
-        <v>73200</v>
+        <v>74800</v>
       </c>
       <c r="K47" s="3">
         <v>55100</v>
@@ -2208,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13226900</v>
+        <v>13509400</v>
       </c>
       <c r="E48" s="3">
-        <v>14364700</v>
+        <v>14671500</v>
       </c>
       <c r="F48" s="3">
-        <v>14584400</v>
+        <v>14895800</v>
       </c>
       <c r="G48" s="3">
-        <v>16259400</v>
+        <v>16606700</v>
       </c>
       <c r="H48" s="3">
-        <v>15261800</v>
+        <v>15587800</v>
       </c>
       <c r="I48" s="3">
-        <v>15791700</v>
+        <v>16128900</v>
       </c>
       <c r="J48" s="3">
-        <v>16095700</v>
+        <v>16439400</v>
       </c>
       <c r="K48" s="3">
         <v>15202300</v>
@@ -2250,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15956700</v>
+        <v>25948000</v>
       </c>
       <c r="E49" s="3">
-        <v>14926800</v>
+        <v>15245600</v>
       </c>
       <c r="F49" s="3">
-        <v>14985100</v>
+        <v>15305200</v>
       </c>
       <c r="G49" s="3">
-        <v>14505000</v>
+        <v>14814700</v>
       </c>
       <c r="H49" s="3">
-        <v>12927900</v>
+        <v>13204000</v>
       </c>
       <c r="I49" s="3">
-        <v>12388100</v>
+        <v>12652700</v>
       </c>
       <c r="J49" s="3">
-        <v>10843400</v>
+        <v>11074900</v>
       </c>
       <c r="K49" s="3">
         <v>9897500</v>
@@ -2376,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11230500</v>
+        <v>12983500</v>
       </c>
       <c r="E52" s="3">
-        <v>9490900</v>
+        <v>9693600</v>
       </c>
       <c r="F52" s="3">
-        <v>5527800</v>
+        <v>5645800</v>
       </c>
       <c r="G52" s="3">
-        <v>4153000</v>
+        <v>4241700</v>
       </c>
       <c r="H52" s="3">
-        <v>13439100</v>
+        <v>13726100</v>
       </c>
       <c r="I52" s="3">
-        <v>13392000</v>
+        <v>13678000</v>
       </c>
       <c r="J52" s="3">
-        <v>12027100</v>
+        <v>12283900</v>
       </c>
       <c r="K52" s="3">
         <v>14800500</v>
@@ -2460,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1089210000</v>
+        <v>1106850000</v>
       </c>
       <c r="E54" s="3">
-        <v>1100000000</v>
+        <v>1123490000</v>
       </c>
       <c r="F54" s="3">
-        <v>1081070000</v>
+        <v>1104160000</v>
       </c>
       <c r="G54" s="3">
-        <v>1034690000</v>
+        <v>1056790000</v>
       </c>
       <c r="H54" s="3">
-        <v>989660000</v>
+        <v>1010800000</v>
       </c>
       <c r="I54" s="3">
-        <v>1007660000</v>
+        <v>1029190000</v>
       </c>
       <c r="J54" s="3">
-        <v>1014720000</v>
+        <v>1036390000</v>
       </c>
       <c r="K54" s="3">
         <v>944874000</v>
@@ -2538,13 +2536,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7428700</v>
+        <v>7587300</v>
       </c>
       <c r="E57" s="3">
-        <v>6877800</v>
+        <v>7024600</v>
       </c>
       <c r="F57" s="3">
-        <v>6647000</v>
+        <v>6788900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
@@ -2622,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="E59" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F59" s="3">
-        <v>38500</v>
+        <v>39300</v>
       </c>
       <c r="G59" s="3">
-        <v>232000</v>
+        <v>237000</v>
       </c>
       <c r="H59" s="3">
-        <v>467800</v>
+        <v>477800</v>
       </c>
       <c r="I59" s="3">
-        <v>340000</v>
+        <v>347200</v>
       </c>
       <c r="J59" s="3">
-        <v>280400</v>
+        <v>286400</v>
       </c>
       <c r="K59" s="3">
         <v>326800</v>
@@ -2706,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>106543000</v>
+        <v>107149000</v>
       </c>
       <c r="E61" s="3">
-        <v>106876000</v>
+        <v>109159000</v>
       </c>
       <c r="F61" s="3">
-        <v>128212000</v>
+        <v>130950000</v>
       </c>
       <c r="G61" s="3">
-        <v>142467000</v>
+        <v>145510000</v>
       </c>
       <c r="H61" s="3">
-        <v>135029000</v>
+        <v>137913000</v>
       </c>
       <c r="I61" s="3">
-        <v>112134000</v>
+        <v>114528000</v>
       </c>
       <c r="J61" s="3">
-        <v>119297000</v>
+        <v>121845000</v>
       </c>
       <c r="K61" s="3">
         <v>123418000</v>
@@ -2748,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2669000</v>
+        <v>2709500</v>
       </c>
       <c r="E62" s="3">
-        <v>2929500</v>
+        <v>2992100</v>
       </c>
       <c r="F62" s="3">
-        <v>2736000</v>
+        <v>2794400</v>
       </c>
       <c r="G62" s="3">
-        <v>4496700</v>
+        <v>4592700</v>
       </c>
       <c r="H62" s="3">
-        <v>4705100</v>
+        <v>4805600</v>
       </c>
       <c r="I62" s="3">
-        <v>7325700</v>
+        <v>7482100</v>
       </c>
       <c r="J62" s="3">
-        <v>7060200</v>
+        <v>7210900</v>
       </c>
       <c r="K62" s="3">
         <v>7127400</v>
@@ -2916,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1030550000</v>
+        <v>1051510000</v>
       </c>
       <c r="E66" s="3">
-        <v>1034340000</v>
+        <v>1056430000</v>
       </c>
       <c r="F66" s="3">
-        <v>1020040000</v>
+        <v>1041830000</v>
       </c>
       <c r="G66" s="3">
-        <v>975629000</v>
+        <v>996465000</v>
       </c>
       <c r="H66" s="3">
-        <v>927713000</v>
+        <v>947526000</v>
       </c>
       <c r="I66" s="3">
-        <v>946982000</v>
+        <v>967207000</v>
       </c>
       <c r="J66" s="3">
-        <v>954694000</v>
+        <v>975083000</v>
       </c>
       <c r="K66" s="3">
         <v>890304000</v>
@@ -3144,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27578000</v>
+        <v>31958800</v>
       </c>
       <c r="E72" s="3">
-        <v>27135100</v>
+        <v>27714600</v>
       </c>
       <c r="F72" s="3">
-        <v>20856600</v>
+        <v>21302000</v>
       </c>
       <c r="G72" s="3">
-        <v>19196400</v>
+        <v>19606400</v>
       </c>
       <c r="H72" s="3">
-        <v>21624700</v>
+        <v>22086500</v>
       </c>
       <c r="I72" s="3">
-        <v>20828100</v>
+        <v>21272900</v>
       </c>
       <c r="J72" s="3">
-        <v>19208800</v>
+        <v>19619100</v>
       </c>
       <c r="K72" s="3">
         <v>19334600</v>
@@ -3312,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58661300</v>
+        <v>55339200</v>
       </c>
       <c r="E76" s="3">
-        <v>65659400</v>
+        <v>67061700</v>
       </c>
       <c r="F76" s="3">
-        <v>61027500</v>
+        <v>62330900</v>
       </c>
       <c r="G76" s="3">
-        <v>59065800</v>
+        <v>60327300</v>
       </c>
       <c r="H76" s="3">
-        <v>61946900</v>
+        <v>63270000</v>
       </c>
       <c r="I76" s="3">
-        <v>60682600</v>
+        <v>61978600</v>
       </c>
       <c r="J76" s="3">
-        <v>60023700</v>
+        <v>61305600</v>
       </c>
       <c r="K76" s="3">
         <v>54569700</v>
@@ -3443,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6230100</v>
+        <v>1519500</v>
       </c>
       <c r="E81" s="3">
-        <v>6644500</v>
+        <v>6786400</v>
       </c>
       <c r="F81" s="3">
-        <v>1073300</v>
+        <v>1096200</v>
       </c>
       <c r="G81" s="3">
-        <v>3051100</v>
+        <v>3116300</v>
       </c>
       <c r="H81" s="3">
-        <v>5063700</v>
+        <v>5171900</v>
       </c>
       <c r="I81" s="3">
-        <v>4027600</v>
+        <v>4113700</v>
       </c>
       <c r="J81" s="3">
-        <v>2595800</v>
+        <v>2651200</v>
       </c>
       <c r="K81" s="3">
         <v>639500</v>
@@ -3503,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2973000</v>
+        <v>3036500</v>
       </c>
       <c r="E83" s="3">
-        <v>3505300</v>
+        <v>3580100</v>
       </c>
       <c r="F83" s="3">
-        <v>3389900</v>
+        <v>3462300</v>
       </c>
       <c r="G83" s="3">
-        <v>3300500</v>
+        <v>3371000</v>
       </c>
       <c r="H83" s="3">
-        <v>2984100</v>
+        <v>3047900</v>
       </c>
       <c r="I83" s="3">
-        <v>2940700</v>
+        <v>3003500</v>
       </c>
       <c r="J83" s="3">
-        <v>2953100</v>
+        <v>3016200</v>
       </c>
       <c r="K83" s="3">
         <v>2473800</v>
@@ -3755,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27311200</v>
+        <v>12623600</v>
       </c>
       <c r="E89" s="3">
-        <v>8215300</v>
+        <v>8390800</v>
       </c>
       <c r="F89" s="3">
-        <v>33713800</v>
+        <v>34433800</v>
       </c>
       <c r="G89" s="3">
-        <v>13997500</v>
+        <v>14296400</v>
       </c>
       <c r="H89" s="3">
-        <v>-13781600</v>
+        <v>-14075900</v>
       </c>
       <c r="I89" s="3">
-        <v>-3964400</v>
+        <v>-4049000</v>
       </c>
       <c r="J89" s="3">
-        <v>2573400</v>
+        <v>2628400</v>
       </c>
       <c r="K89" s="3">
         <v>19176500</v>
@@ -3815,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4783300</v>
+        <v>-2799500</v>
       </c>
       <c r="E91" s="3">
-        <v>-4005300</v>
+        <v>-4090800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3599600</v>
+        <v>-3676400</v>
       </c>
       <c r="G91" s="3">
-        <v>-4270800</v>
+        <v>-4362000</v>
       </c>
       <c r="H91" s="3">
-        <v>-4360200</v>
+        <v>-4453300</v>
       </c>
       <c r="I91" s="3">
-        <v>-4535100</v>
+        <v>-4632000</v>
       </c>
       <c r="J91" s="3">
-        <v>-4665400</v>
+        <v>-4765000</v>
       </c>
       <c r="K91" s="3">
         <v>-4002300</v>
@@ -3941,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>632800</v>
+        <v>-1429500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3157800</v>
+        <v>-3225300</v>
       </c>
       <c r="F94" s="3">
-        <v>-4963200</v>
+        <v>-5069200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2642900</v>
+        <v>-2699300</v>
       </c>
       <c r="H94" s="3">
-        <v>14791600</v>
+        <v>15107500</v>
       </c>
       <c r="I94" s="3">
-        <v>8447400</v>
+        <v>8627800</v>
       </c>
       <c r="J94" s="3">
-        <v>-851200</v>
+        <v>-869400</v>
       </c>
       <c r="K94" s="3">
         <v>-3877000</v>
@@ -4001,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1830200</v>
+        <v>-690700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1088200</v>
+        <v>-1111400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-2868700</v>
+        <v>-2930000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2779400</v>
+        <v>-2838800</v>
       </c>
       <c r="I96" s="3">
-        <v>-2834000</v>
+        <v>-2894500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2499000</v>
+        <v>-2552300</v>
       </c>
       <c r="K96" s="3">
         <v>-1253300</v>
@@ -4169,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8205400</v>
+        <v>-1421900</v>
       </c>
       <c r="E100" s="3">
-        <v>-4012700</v>
+        <v>-4098400</v>
       </c>
       <c r="F100" s="3">
-        <v>-6599800</v>
+        <v>-6740800</v>
       </c>
       <c r="G100" s="3">
-        <v>-8138400</v>
+        <v>-8312200</v>
       </c>
       <c r="H100" s="3">
-        <v>-5336700</v>
+        <v>-5450700</v>
       </c>
       <c r="I100" s="3">
-        <v>-6227600</v>
+        <v>-6360600</v>
       </c>
       <c r="J100" s="3">
-        <v>-13616500</v>
+        <v>-13907400</v>
       </c>
       <c r="K100" s="3">
         <v>-7330000</v>
@@ -4211,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>902100</v>
+        <v>168600</v>
       </c>
       <c r="E101" s="3">
-        <v>86900</v>
+        <v>88700</v>
       </c>
       <c r="F101" s="3">
-        <v>-243200</v>
+        <v>-248400</v>
       </c>
       <c r="G101" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="H101" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>26100</v>
+        <v>26600</v>
       </c>
       <c r="K101" s="3">
         <v>2300</v>
@@ -4253,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20640700</v>
+        <v>9940700</v>
       </c>
       <c r="E102" s="3">
-        <v>1131600</v>
+        <v>1155800</v>
       </c>
       <c r="F102" s="3">
-        <v>21907600</v>
+        <v>22375400</v>
       </c>
       <c r="G102" s="3">
-        <v>3209900</v>
+        <v>3278500</v>
       </c>
       <c r="H102" s="3">
-        <v>-4322900</v>
+        <v>-4415300</v>
       </c>
       <c r="I102" s="3">
-        <v>-1744600</v>
+        <v>-1781800</v>
       </c>
       <c r="J102" s="3">
-        <v>-11868300</v>
+        <v>-12121700</v>
       </c>
       <c r="K102" s="3">
         <v>7971900</v>

--- a/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LYG_YR_FIN.xlsx
@@ -665,7 +665,9 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
@@ -728,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12946700</v>
+        <v>12674000</v>
       </c>
       <c r="E8" s="3">
-        <v>16801900</v>
+        <v>16447900</v>
       </c>
       <c r="F8" s="3">
-        <v>18130000</v>
+        <v>17748000</v>
       </c>
       <c r="G8" s="3">
-        <v>21367900</v>
+        <v>20917800</v>
       </c>
       <c r="H8" s="3">
-        <v>20719100</v>
+        <v>20282600</v>
       </c>
       <c r="I8" s="3">
-        <v>20284400</v>
+        <v>19857000</v>
       </c>
       <c r="J8" s="3">
-        <v>21062500</v>
+        <v>20618800</v>
       </c>
       <c r="K8" s="3">
         <v>20632400</v>
@@ -998,25 +1000,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-4539500</v>
+        <v>-4443800</v>
       </c>
       <c r="E15" s="3">
-        <v>-3580100</v>
+        <v>-3504700</v>
       </c>
       <c r="F15" s="3">
-        <v>-3462300</v>
+        <v>-3389300</v>
       </c>
       <c r="G15" s="3">
-        <v>-3371000</v>
+        <v>-3300000</v>
       </c>
       <c r="H15" s="3">
-        <v>-3047900</v>
+        <v>-2983600</v>
       </c>
       <c r="I15" s="3">
-        <v>-3003500</v>
+        <v>-2940200</v>
       </c>
       <c r="J15" s="3">
-        <v>-3016200</v>
+        <v>-2952600</v>
       </c>
       <c r="K15" s="3">
         <v>-2473800</v>
@@ -1055,25 +1057,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5667400</v>
+        <v>5548000</v>
       </c>
       <c r="E17" s="3">
-        <v>3186000</v>
+        <v>3118900</v>
       </c>
       <c r="F17" s="3">
-        <v>9773400</v>
+        <v>9567500</v>
       </c>
       <c r="G17" s="3">
-        <v>10109300</v>
+        <v>9896300</v>
       </c>
       <c r="H17" s="3">
-        <v>4929800</v>
+        <v>4825900</v>
       </c>
       <c r="I17" s="3">
-        <v>7327500</v>
+        <v>7173100</v>
       </c>
       <c r="J17" s="3">
-        <v>10059800</v>
+        <v>9847900</v>
       </c>
       <c r="K17" s="3">
         <v>7892200</v>
@@ -1097,25 +1099,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7279400</v>
+        <v>7126000</v>
       </c>
       <c r="E18" s="3">
-        <v>13615900</v>
+        <v>13329000</v>
       </c>
       <c r="F18" s="3">
-        <v>8356600</v>
+        <v>8180500</v>
       </c>
       <c r="G18" s="3">
-        <v>11258700</v>
+        <v>11021500</v>
       </c>
       <c r="H18" s="3">
-        <v>15789300</v>
+        <v>15456600</v>
       </c>
       <c r="I18" s="3">
-        <v>12956900</v>
+        <v>12683900</v>
       </c>
       <c r="J18" s="3">
-        <v>11002700</v>
+        <v>10770900</v>
       </c>
       <c r="K18" s="3">
         <v>12740200</v>
@@ -1157,25 +1159,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5209900</v>
+        <v>-5100100</v>
       </c>
       <c r="E20" s="3">
-        <v>-4869000</v>
+        <v>-4766400</v>
       </c>
       <c r="F20" s="3">
-        <v>-6802900</v>
+        <v>-6659500</v>
       </c>
       <c r="G20" s="3">
-        <v>-5691400</v>
+        <v>-5571500</v>
       </c>
       <c r="H20" s="3">
-        <v>-8236200</v>
+        <v>-8062700</v>
       </c>
       <c r="I20" s="3">
-        <v>-6271900</v>
+        <v>-6139700</v>
       </c>
       <c r="J20" s="3">
-        <v>-5631900</v>
+        <v>-5513200</v>
       </c>
       <c r="K20" s="3">
         <v>-10814600</v>
@@ -1199,25 +1201,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5106000</v>
+        <v>5001300</v>
       </c>
       <c r="E21" s="3">
-        <v>12327000</v>
+        <v>12070700</v>
       </c>
       <c r="F21" s="3">
-        <v>5016000</v>
+        <v>4913600</v>
       </c>
       <c r="G21" s="3">
-        <v>8938300</v>
+        <v>8753100</v>
       </c>
       <c r="H21" s="3">
-        <v>10601000</v>
+        <v>10380500</v>
       </c>
       <c r="I21" s="3">
-        <v>9688500</v>
+        <v>9487200</v>
       </c>
       <c r="J21" s="3">
-        <v>8387000</v>
+        <v>8213100</v>
       </c>
       <c r="K21" s="3">
         <v>4324000</v>
@@ -1283,25 +1285,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2069500</v>
+        <v>2025900</v>
       </c>
       <c r="E23" s="3">
-        <v>8746900</v>
+        <v>8562600</v>
       </c>
       <c r="F23" s="3">
-        <v>1553700</v>
+        <v>1521000</v>
       </c>
       <c r="G23" s="3">
-        <v>5567200</v>
+        <v>5450000</v>
       </c>
       <c r="H23" s="3">
-        <v>7553100</v>
+        <v>7394000</v>
       </c>
       <c r="I23" s="3">
-        <v>6685000</v>
+        <v>6544200</v>
       </c>
       <c r="J23" s="3">
-        <v>5370800</v>
+        <v>5257700</v>
       </c>
       <c r="K23" s="3">
         <v>1925600</v>
@@ -1325,25 +1327,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>199000</v>
+        <v>194800</v>
       </c>
       <c r="E24" s="3">
-        <v>1288800</v>
+        <v>1261700</v>
       </c>
       <c r="F24" s="3">
-        <v>-204000</v>
+        <v>-199700</v>
       </c>
       <c r="G24" s="3">
-        <v>1757700</v>
+        <v>1720700</v>
       </c>
       <c r="H24" s="3">
-        <v>1842700</v>
+        <v>1803800</v>
       </c>
       <c r="I24" s="3">
-        <v>2060600</v>
+        <v>2017200</v>
       </c>
       <c r="J24" s="3">
-        <v>2184800</v>
+        <v>2138800</v>
       </c>
       <c r="K24" s="3">
         <v>805900</v>
@@ -1409,25 +1411,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1870500</v>
+        <v>1831100</v>
       </c>
       <c r="E26" s="3">
-        <v>7458100</v>
+        <v>7300900</v>
       </c>
       <c r="F26" s="3">
-        <v>1757700</v>
+        <v>1720700</v>
       </c>
       <c r="G26" s="3">
-        <v>3809500</v>
+        <v>3729200</v>
       </c>
       <c r="H26" s="3">
-        <v>5710500</v>
+        <v>5590100</v>
       </c>
       <c r="I26" s="3">
-        <v>4624400</v>
+        <v>4526900</v>
       </c>
       <c r="J26" s="3">
-        <v>3186000</v>
+        <v>3118900</v>
       </c>
       <c r="K26" s="3">
         <v>1119800</v>
@@ -1451,25 +1453,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1519500</v>
+        <v>1487500</v>
       </c>
       <c r="E27" s="3">
-        <v>6786400</v>
+        <v>6643400</v>
       </c>
       <c r="F27" s="3">
-        <v>1096200</v>
+        <v>1073100</v>
       </c>
       <c r="G27" s="3">
-        <v>3116300</v>
+        <v>3050600</v>
       </c>
       <c r="H27" s="3">
-        <v>5171900</v>
+        <v>5062900</v>
       </c>
       <c r="I27" s="3">
-        <v>4113700</v>
+        <v>4027000</v>
       </c>
       <c r="J27" s="3">
-        <v>2651200</v>
+        <v>2595300</v>
       </c>
       <c r="K27" s="3">
         <v>639500</v>
@@ -1661,25 +1663,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5209900</v>
+        <v>5100100</v>
       </c>
       <c r="E32" s="3">
-        <v>4869000</v>
+        <v>4766400</v>
       </c>
       <c r="F32" s="3">
-        <v>6802900</v>
+        <v>6659500</v>
       </c>
       <c r="G32" s="3">
-        <v>5691400</v>
+        <v>5571500</v>
       </c>
       <c r="H32" s="3">
-        <v>8236200</v>
+        <v>8062700</v>
       </c>
       <c r="I32" s="3">
-        <v>6271900</v>
+        <v>6139700</v>
       </c>
       <c r="J32" s="3">
-        <v>5631900</v>
+        <v>5513200</v>
       </c>
       <c r="K32" s="3">
         <v>10814600</v>
@@ -1703,25 +1705,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1519500</v>
+        <v>1487500</v>
       </c>
       <c r="E33" s="3">
-        <v>6786400</v>
+        <v>6643400</v>
       </c>
       <c r="F33" s="3">
-        <v>1096200</v>
+        <v>1073100</v>
       </c>
       <c r="G33" s="3">
-        <v>3116300</v>
+        <v>3050600</v>
       </c>
       <c r="H33" s="3">
-        <v>5171900</v>
+        <v>5062900</v>
       </c>
       <c r="I33" s="3">
-        <v>4113700</v>
+        <v>4027000</v>
       </c>
       <c r="J33" s="3">
-        <v>2651200</v>
+        <v>2595300</v>
       </c>
       <c r="K33" s="3">
         <v>639500</v>
@@ -1787,25 +1789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1519500</v>
+        <v>1487500</v>
       </c>
       <c r="E35" s="3">
-        <v>6786400</v>
+        <v>6643400</v>
       </c>
       <c r="F35" s="3">
-        <v>1096200</v>
+        <v>1073100</v>
       </c>
       <c r="G35" s="3">
-        <v>3116300</v>
+        <v>3050600</v>
       </c>
       <c r="H35" s="3">
-        <v>5171900</v>
+        <v>5062900</v>
       </c>
       <c r="I35" s="3">
-        <v>4113700</v>
+        <v>4027000</v>
       </c>
       <c r="J35" s="3">
-        <v>2651200</v>
+        <v>2595300</v>
       </c>
       <c r="K35" s="3">
         <v>639500</v>
@@ -1912,25 +1914,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>129597000</v>
+        <v>126866000</v>
       </c>
       <c r="E41" s="3">
-        <v>105906000</v>
+        <v>103675000</v>
       </c>
       <c r="F41" s="3">
-        <v>103432000</v>
+        <v>101253000</v>
       </c>
       <c r="G41" s="3">
-        <v>80680100</v>
+        <v>78980300</v>
       </c>
       <c r="H41" s="3">
-        <v>77472600</v>
+        <v>75840400</v>
       </c>
       <c r="I41" s="3">
-        <v>82521500</v>
+        <v>80782900</v>
       </c>
       <c r="J41" s="3">
-        <v>93980400</v>
+        <v>92000400</v>
       </c>
       <c r="K41" s="3">
         <v>97531800</v>
@@ -1954,25 +1956,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>280835000</v>
+        <v>274918000</v>
       </c>
       <c r="E42" s="3">
-        <v>319964000</v>
+        <v>313223000</v>
       </c>
       <c r="F42" s="3">
-        <v>218623000</v>
+        <v>214017000</v>
       </c>
       <c r="G42" s="3">
-        <v>199709000</v>
+        <v>195501000</v>
       </c>
       <c r="H42" s="3">
-        <v>194384000</v>
+        <v>190288000</v>
       </c>
       <c r="I42" s="3">
-        <v>199727000</v>
+        <v>195519000</v>
       </c>
       <c r="J42" s="3">
-        <v>193925000</v>
+        <v>189839000</v>
       </c>
       <c r="K42" s="3">
         <v>147968000</v>
@@ -2164,25 +2166,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>487900</v>
+        <v>477600</v>
       </c>
       <c r="E47" s="3">
-        <v>446100</v>
+        <v>436700</v>
       </c>
       <c r="F47" s="3">
-        <v>375100</v>
+        <v>367200</v>
       </c>
       <c r="G47" s="3">
-        <v>385300</v>
+        <v>377100</v>
       </c>
       <c r="H47" s="3">
-        <v>115300</v>
+        <v>112900</v>
       </c>
       <c r="I47" s="3">
-        <v>82400</v>
+        <v>80600</v>
       </c>
       <c r="J47" s="3">
-        <v>74800</v>
+        <v>73200</v>
       </c>
       <c r="K47" s="3">
         <v>55100</v>
@@ -2206,25 +2208,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13509400</v>
+        <v>13224800</v>
       </c>
       <c r="E48" s="3">
-        <v>14671500</v>
+        <v>14362400</v>
       </c>
       <c r="F48" s="3">
-        <v>14895800</v>
+        <v>14582000</v>
       </c>
       <c r="G48" s="3">
-        <v>16606700</v>
+        <v>16256800</v>
       </c>
       <c r="H48" s="3">
-        <v>15587800</v>
+        <v>15259400</v>
       </c>
       <c r="I48" s="3">
-        <v>16128900</v>
+        <v>15789100</v>
       </c>
       <c r="J48" s="3">
-        <v>16439400</v>
+        <v>16093100</v>
       </c>
       <c r="K48" s="3">
         <v>15202300</v>
@@ -2248,25 +2250,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25948000</v>
+        <v>25401300</v>
       </c>
       <c r="E49" s="3">
-        <v>15245600</v>
+        <v>14924400</v>
       </c>
       <c r="F49" s="3">
-        <v>15305200</v>
+        <v>14982700</v>
       </c>
       <c r="G49" s="3">
-        <v>14814700</v>
+        <v>14502600</v>
       </c>
       <c r="H49" s="3">
-        <v>13204000</v>
+        <v>12925800</v>
       </c>
       <c r="I49" s="3">
-        <v>12652700</v>
+        <v>12386200</v>
       </c>
       <c r="J49" s="3">
-        <v>11074900</v>
+        <v>10841600</v>
       </c>
       <c r="K49" s="3">
         <v>9897500</v>
@@ -2374,25 +2376,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12983500</v>
+        <v>12709900</v>
       </c>
       <c r="E52" s="3">
-        <v>9693600</v>
+        <v>9489300</v>
       </c>
       <c r="F52" s="3">
-        <v>5645800</v>
+        <v>5526900</v>
       </c>
       <c r="G52" s="3">
-        <v>4241700</v>
+        <v>4152300</v>
       </c>
       <c r="H52" s="3">
-        <v>13726100</v>
+        <v>13436900</v>
       </c>
       <c r="I52" s="3">
-        <v>13678000</v>
+        <v>13389800</v>
       </c>
       <c r="J52" s="3">
-        <v>12283900</v>
+        <v>12025100</v>
       </c>
       <c r="K52" s="3">
         <v>14800500</v>
@@ -2458,25 +2460,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1106850000</v>
+        <v>1083530000</v>
       </c>
       <c r="E54" s="3">
-        <v>1123490000</v>
+        <v>1099820000</v>
       </c>
       <c r="F54" s="3">
-        <v>1104160000</v>
+        <v>1080900000</v>
       </c>
       <c r="G54" s="3">
-        <v>1056790000</v>
+        <v>1034530000</v>
       </c>
       <c r="H54" s="3">
-        <v>1010800000</v>
+        <v>989500000</v>
       </c>
       <c r="I54" s="3">
-        <v>1029190000</v>
+        <v>1007500000</v>
       </c>
       <c r="J54" s="3">
-        <v>1036390000</v>
+        <v>1014550000</v>
       </c>
       <c r="K54" s="3">
         <v>944874000</v>
@@ -2536,13 +2538,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7587300</v>
+        <v>7427500</v>
       </c>
       <c r="E57" s="3">
-        <v>7024600</v>
+        <v>6876600</v>
       </c>
       <c r="F57" s="3">
-        <v>6788900</v>
+        <v>6645900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
@@ -2620,25 +2622,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10100</v>
+        <v>9900</v>
       </c>
       <c r="E59" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="F59" s="3">
-        <v>39300</v>
+        <v>38500</v>
       </c>
       <c r="G59" s="3">
-        <v>237000</v>
+        <v>232000</v>
       </c>
       <c r="H59" s="3">
-        <v>477800</v>
+        <v>467700</v>
       </c>
       <c r="I59" s="3">
-        <v>347200</v>
+        <v>339900</v>
       </c>
       <c r="J59" s="3">
-        <v>286400</v>
+        <v>280400</v>
       </c>
       <c r="K59" s="3">
         <v>326800</v>
@@ -2704,25 +2706,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>107149000</v>
+        <v>104892000</v>
       </c>
       <c r="E61" s="3">
-        <v>109159000</v>
+        <v>106859000</v>
       </c>
       <c r="F61" s="3">
-        <v>130950000</v>
+        <v>128191000</v>
       </c>
       <c r="G61" s="3">
-        <v>145510000</v>
+        <v>142445000</v>
       </c>
       <c r="H61" s="3">
-        <v>137913000</v>
+        <v>135007000</v>
       </c>
       <c r="I61" s="3">
-        <v>114528000</v>
+        <v>112116000</v>
       </c>
       <c r="J61" s="3">
-        <v>121845000</v>
+        <v>119278000</v>
       </c>
       <c r="K61" s="3">
         <v>123418000</v>
@@ -2746,25 +2748,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2709500</v>
+        <v>2652400</v>
       </c>
       <c r="E62" s="3">
-        <v>2992100</v>
+        <v>2929100</v>
       </c>
       <c r="F62" s="3">
-        <v>2794400</v>
+        <v>2735500</v>
       </c>
       <c r="G62" s="3">
-        <v>4592700</v>
+        <v>4495900</v>
       </c>
       <c r="H62" s="3">
-        <v>4805600</v>
+        <v>4704400</v>
       </c>
       <c r="I62" s="3">
-        <v>7482100</v>
+        <v>7324500</v>
       </c>
       <c r="J62" s="3">
-        <v>7210900</v>
+        <v>7059000</v>
       </c>
       <c r="K62" s="3">
         <v>7127400</v>
@@ -2914,25 +2916,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1051510000</v>
+        <v>1029360000</v>
       </c>
       <c r="E66" s="3">
-        <v>1056430000</v>
+        <v>1034170000</v>
       </c>
       <c r="F66" s="3">
-        <v>1041830000</v>
+        <v>1019880000</v>
       </c>
       <c r="G66" s="3">
-        <v>996465000</v>
+        <v>975471000</v>
       </c>
       <c r="H66" s="3">
-        <v>947526000</v>
+        <v>927563000</v>
       </c>
       <c r="I66" s="3">
-        <v>967207000</v>
+        <v>946830000</v>
       </c>
       <c r="J66" s="3">
-        <v>975083000</v>
+        <v>954540000</v>
       </c>
       <c r="K66" s="3">
         <v>890304000</v>
@@ -3142,25 +3144,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31958800</v>
+        <v>31285500</v>
       </c>
       <c r="E72" s="3">
-        <v>27714600</v>
+        <v>27130700</v>
       </c>
       <c r="F72" s="3">
-        <v>21302000</v>
+        <v>20853200</v>
       </c>
       <c r="G72" s="3">
-        <v>19606400</v>
+        <v>19193300</v>
       </c>
       <c r="H72" s="3">
-        <v>22086500</v>
+        <v>21621200</v>
       </c>
       <c r="I72" s="3">
-        <v>21272900</v>
+        <v>20824700</v>
       </c>
       <c r="J72" s="3">
-        <v>19619100</v>
+        <v>19205700</v>
       </c>
       <c r="K72" s="3">
         <v>19334600</v>
@@ -3310,25 +3312,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55339200</v>
+        <v>54173300</v>
       </c>
       <c r="E76" s="3">
-        <v>67061700</v>
+        <v>65648800</v>
       </c>
       <c r="F76" s="3">
-        <v>62330900</v>
+        <v>61017700</v>
       </c>
       <c r="G76" s="3">
-        <v>60327300</v>
+        <v>59056300</v>
       </c>
       <c r="H76" s="3">
-        <v>63270000</v>
+        <v>61937000</v>
       </c>
       <c r="I76" s="3">
-        <v>61978600</v>
+        <v>60672800</v>
       </c>
       <c r="J76" s="3">
-        <v>61305600</v>
+        <v>60014000</v>
       </c>
       <c r="K76" s="3">
         <v>54569700</v>
@@ -3441,25 +3443,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1519500</v>
+        <v>1487500</v>
       </c>
       <c r="E81" s="3">
-        <v>6786400</v>
+        <v>6643400</v>
       </c>
       <c r="F81" s="3">
-        <v>1096200</v>
+        <v>1073100</v>
       </c>
       <c r="G81" s="3">
-        <v>3116300</v>
+        <v>3050600</v>
       </c>
       <c r="H81" s="3">
-        <v>5171900</v>
+        <v>5062900</v>
       </c>
       <c r="I81" s="3">
-        <v>4113700</v>
+        <v>4027000</v>
       </c>
       <c r="J81" s="3">
-        <v>2651200</v>
+        <v>2595300</v>
       </c>
       <c r="K81" s="3">
         <v>639500</v>
@@ -3501,25 +3503,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3036500</v>
+        <v>2972500</v>
       </c>
       <c r="E83" s="3">
-        <v>3580100</v>
+        <v>3504700</v>
       </c>
       <c r="F83" s="3">
-        <v>3462300</v>
+        <v>3389300</v>
       </c>
       <c r="G83" s="3">
-        <v>3371000</v>
+        <v>3300000</v>
       </c>
       <c r="H83" s="3">
-        <v>3047900</v>
+        <v>2983600</v>
       </c>
       <c r="I83" s="3">
-        <v>3003500</v>
+        <v>2940200</v>
       </c>
       <c r="J83" s="3">
-        <v>3016200</v>
+        <v>2952600</v>
       </c>
       <c r="K83" s="3">
         <v>2473800</v>
@@ -3753,25 +3755,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12623600</v>
+        <v>12357600</v>
       </c>
       <c r="E89" s="3">
-        <v>8390800</v>
+        <v>8214000</v>
       </c>
       <c r="F89" s="3">
-        <v>34433800</v>
+        <v>33708300</v>
       </c>
       <c r="G89" s="3">
-        <v>14296400</v>
+        <v>13995200</v>
       </c>
       <c r="H89" s="3">
-        <v>-14075900</v>
+        <v>-13779300</v>
       </c>
       <c r="I89" s="3">
-        <v>-4049000</v>
+        <v>-3963700</v>
       </c>
       <c r="J89" s="3">
-        <v>2628400</v>
+        <v>2573000</v>
       </c>
       <c r="K89" s="3">
         <v>19176500</v>
@@ -3813,25 +3815,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2799500</v>
+        <v>-2740500</v>
       </c>
       <c r="E91" s="3">
-        <v>-4090800</v>
+        <v>-4004700</v>
       </c>
       <c r="F91" s="3">
-        <v>-3676400</v>
+        <v>-3599000</v>
       </c>
       <c r="G91" s="3">
-        <v>-4362000</v>
+        <v>-4270100</v>
       </c>
       <c r="H91" s="3">
-        <v>-4453300</v>
+        <v>-4359500</v>
       </c>
       <c r="I91" s="3">
-        <v>-4632000</v>
+        <v>-4534400</v>
       </c>
       <c r="J91" s="3">
-        <v>-4765000</v>
+        <v>-4664700</v>
       </c>
       <c r="K91" s="3">
         <v>-4002300</v>
@@ -3939,25 +3941,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1429500</v>
+        <v>-1399400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3225300</v>
+        <v>-3157300</v>
       </c>
       <c r="F94" s="3">
-        <v>-5069200</v>
+        <v>-4962400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2699300</v>
+        <v>-2642500</v>
       </c>
       <c r="H94" s="3">
-        <v>15107500</v>
+        <v>14789200</v>
       </c>
       <c r="I94" s="3">
-        <v>8627800</v>
+        <v>8446000</v>
       </c>
       <c r="J94" s="3">
-        <v>-869400</v>
+        <v>-851100</v>
       </c>
       <c r="K94" s="3">
         <v>-3877000</v>
@@ -3999,25 +4001,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-690700</v>
+        <v>-676100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1111400</v>
+        <v>-1088000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-2930000</v>
+        <v>-2868300</v>
       </c>
       <c r="H96" s="3">
-        <v>-2838800</v>
+        <v>-2778900</v>
       </c>
       <c r="I96" s="3">
-        <v>-2894500</v>
+        <v>-2833500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2552300</v>
+        <v>-2498600</v>
       </c>
       <c r="K96" s="3">
         <v>-1253300</v>
@@ -4167,25 +4169,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1421900</v>
+        <v>-1392000</v>
       </c>
       <c r="E100" s="3">
-        <v>-4098400</v>
+        <v>-4012100</v>
       </c>
       <c r="F100" s="3">
-        <v>-6740800</v>
+        <v>-6598800</v>
       </c>
       <c r="G100" s="3">
-        <v>-8312200</v>
+        <v>-8137100</v>
       </c>
       <c r="H100" s="3">
-        <v>-5450700</v>
+        <v>-5335800</v>
       </c>
       <c r="I100" s="3">
-        <v>-6360600</v>
+        <v>-6226600</v>
       </c>
       <c r="J100" s="3">
-        <v>-13907400</v>
+        <v>-13614300</v>
       </c>
       <c r="K100" s="3">
         <v>-7330000</v>
@@ -4209,25 +4211,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>168600</v>
+        <v>165000</v>
       </c>
       <c r="E101" s="3">
-        <v>88700</v>
+        <v>86800</v>
       </c>
       <c r="F101" s="3">
-        <v>-248400</v>
+        <v>-243200</v>
       </c>
       <c r="G101" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="H101" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>26600</v>
+        <v>26100</v>
       </c>
       <c r="K101" s="3">
         <v>2300</v>
@@ -4251,25 +4253,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9940700</v>
+        <v>9731300</v>
       </c>
       <c r="E102" s="3">
-        <v>1155800</v>
+        <v>1131400</v>
       </c>
       <c r="F102" s="3">
-        <v>22375400</v>
+        <v>21904000</v>
       </c>
       <c r="G102" s="3">
-        <v>3278500</v>
+        <v>3209400</v>
       </c>
       <c r="H102" s="3">
-        <v>-4415300</v>
+        <v>-4322300</v>
       </c>
       <c r="I102" s="3">
-        <v>-1781800</v>
+        <v>-1744300</v>
       </c>
       <c r="J102" s="3">
-        <v>-12121700</v>
+        <v>-11866300</v>
       </c>
       <c r="K102" s="3">
         <v>7971900</v>
